--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F672F2AC-9B26-4D0A-A0D9-4D75C852489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54123AB1-5327-4D47-8F7E-17B46BC0C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
   <si>
     <t>Num</t>
   </si>
@@ -346,6 +346,11 @@
   </si>
   <si>
     <t>Labyrinthe</t>
+  </si>
+  <si>
+    <t>Activité 01 : Decouverte Fonctions
+https://capytale2.ac-paris.fr/web/c/40f9-634803
+https://capytale2.ac-paris.fr/web/c/1f3b-1675168</t>
   </si>
 </sst>
 </file>
@@ -889,16 +894,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,49 +975,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1311,7 +1316,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42:E43"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1377,14 +1382,14 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -1405,21 +1410,23 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="36">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="38"/>
       <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1441,13 +1448,13 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1469,22 +1476,22 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="36">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1506,13 +1513,13 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1534,24 +1541,24 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="36">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="33"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1575,13 +1582,13 @@
 au
 22/10/23</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1602,16 +1609,16 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1629,14 +1636,14 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -1654,20 +1661,20 @@
 au
 12/11/23</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="36">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1689,13 +1696,13 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="10" t="s">
         <v>26</v>
       </c>
@@ -1719,20 +1726,20 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="36">
         <f>E11+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1754,13 +1761,13 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1782,22 +1789,22 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="36">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1819,13 +1826,13 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -1876,16 +1883,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1903,14 +1910,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -1931,21 +1938,21 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="36">
         <v>8</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -1967,13 +1974,13 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -1995,22 +2002,22 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="36">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="50" t="s">
+      <c r="M22" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2033,15 +2040,15 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="50"/>
+      <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -2062,20 +2069,20 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="36">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2094,13 +2101,13 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2119,16 +2126,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -2149,14 +2156,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
     </row>
     <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
@@ -2177,19 +2184,19 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="36">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="31"/>
       <c r="L28" s="10"/>
     </row>
@@ -2212,12 +2219,12 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
       <c r="K29" s="32"/>
       <c r="L29" s="10"/>
     </row>
@@ -2240,22 +2247,22 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="36">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2277,13 +2284,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
       <c r="L31" s="10"/>
       <c r="O31" s="4"/>
     </row>
@@ -2306,22 +2313,22 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="36">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2342,13 +2349,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2367,16 +2374,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="52"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -2394,14 +2401,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="49"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -2419,20 +2426,20 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="36">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33" t="s">
+      <c r="G36" s="38"/>
+      <c r="H36" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
       <c r="L36" s="10"/>
     </row>
     <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2451,13 +2458,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2476,20 +2483,20 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="36">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33" t="s">
+      <c r="G38" s="38"/>
+      <c r="H38" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33" t="s">
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="10"/>
@@ -2510,13 +2517,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
       <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2535,20 +2542,20 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="36">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="s">
+      <c r="G40" s="38"/>
+      <c r="H40" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2567,13 +2574,13 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
       <c r="L41" s="10" t="s">
         <v>33</v>
       </c>
@@ -2594,18 +2601,18 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="36">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2624,13 +2631,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2649,13 +2656,13 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2674,16 +2681,16 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="37">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
       <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -2838,38 +2845,74 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="E9:L10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
@@ -2894,74 +2937,38 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3048,15 +3055,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -3077,21 +3084,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="36">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
@@ -3114,13 +3121,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
@@ -3143,22 +3150,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="36">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
@@ -3181,13 +3188,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
@@ -3210,24 +3217,24 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="36">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="33"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -3252,13 +3259,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
@@ -3317,17 +3324,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -3345,15 +3352,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -3414,22 +3421,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="36">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
@@ -3452,13 +3459,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
@@ -3481,20 +3488,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="36">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
@@ -3517,13 +3524,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -3583,17 +3590,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="53"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -3611,15 +3618,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -3677,20 +3684,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="36">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
@@ -3715,16 +3722,16 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="64" t="s">
+      <c r="N22" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3747,23 +3754,23 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="36">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="64"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -3784,13 +3791,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
@@ -3810,17 +3817,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="53"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -3838,15 +3845,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="56"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -3867,20 +3874,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="36">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="33"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
@@ -3905,13 +3912,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="34"/>
+      <c r="K28" s="39"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
@@ -3934,20 +3941,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="36">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="33"/>
+      <c r="K29" s="38"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
@@ -3970,13 +3977,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="34"/>
+      <c r="K30" s="39"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
@@ -3999,18 +4006,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="36">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="33"/>
+      <c r="K31" s="38"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
@@ -4036,13 +4043,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="34"/>
+      <c r="K32" s="39"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
@@ -4096,17 +4103,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="39"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -4124,15 +4131,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -4184,20 +4191,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="36">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33" t="s">
+      <c r="G37" s="38"/>
+      <c r="H37" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="33"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="33"/>
+      <c r="K37" s="38"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
@@ -4217,13 +4224,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="34"/>
+      <c r="K38" s="39"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
@@ -4243,15 +4250,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="36">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="62"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="61"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -4278,10 +4285,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="63"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -4304,20 +4311,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="36">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33" t="s">
+      <c r="G41" s="38"/>
+      <c r="H41" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="33"/>
+      <c r="I41" s="38"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="33"/>
+      <c r="K41" s="38"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
@@ -4337,13 +4344,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="34"/>
+      <c r="K42" s="39"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
@@ -4365,16 +4372,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="47">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="43"/>
+      <c r="K43" s="53"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -4396,13 +4403,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="43"/>
+      <c r="K44" s="53"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -4426,9 +4433,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -4587,70 +4594,22 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -4667,22 +4626,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4766,14 +4773,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -4794,19 +4801,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="47">
         <v>1</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="43"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -4830,11 +4837,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -4858,20 +4865,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="47">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="43"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -4895,11 +4902,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -4923,20 +4930,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="47">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -4962,11 +4969,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -5025,16 +5032,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -5052,14 +5059,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -5093,7 +5100,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="38" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -5121,11 +5128,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="36">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="38" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -5134,7 +5141,7 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
@@ -5158,15 +5165,15 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="38" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
@@ -5192,16 +5199,16 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="47">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
@@ -5225,15 +5232,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="33" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="38" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -5268,9 +5275,9 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
@@ -5291,16 +5298,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -5318,14 +5325,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -5352,13 +5359,13 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="38" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
@@ -5384,16 +5391,16 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="47">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
@@ -5419,21 +5426,21 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="33" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="38" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="64" t="s">
+      <c r="M22" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5456,20 +5463,20 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="47">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="64"/>
+      <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -5490,8 +5497,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="43"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -5521,16 +5528,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -5548,14 +5555,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -5576,17 +5583,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="47">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -5613,10 +5620,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -5641,17 +5648,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="47">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -5676,10 +5683,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -5704,15 +5711,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="47">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -5740,10 +5747,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -5798,16 +5805,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="49"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -5825,14 +5832,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="49"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -5883,15 +5890,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="47">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43" t="s">
+      <c r="G37" s="53"/>
+      <c r="H37" s="53" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -5915,10 +5922,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -5940,14 +5947,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="47">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="43"/>
+      <c r="G39" s="53"/>
       <c r="H39" s="65"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -5974,9 +5981,9 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="65"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
@@ -5999,15 +6006,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="47">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43" t="s">
+      <c r="G41" s="53"/>
+      <c r="H41" s="53" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6031,10 +6038,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6058,13 +6065,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="47">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -6088,10 +6095,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -6117,9 +6124,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -6277,17 +6284,50 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E41:E42"/>
@@ -6304,50 +6344,17 @@
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E18:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54123AB1-5327-4D47-8F7E-17B46BC0C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AB9495-AF33-4401-ACF4-3E1B77C03770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
   <si>
     <t>Num</t>
   </si>
@@ -322,9 +322,6 @@
     <t>Vacances de Printemps</t>
   </si>
   <si>
-    <t>Evaluations ?</t>
-  </si>
-  <si>
     <t>Recherche séquentielle dans un tableau bidimensionnel. 
 Algorithmes opérant sur une structure
 séquentielle par boucles imbriquées.</t>
@@ -351,6 +348,28 @@
     <t>Activité 01 : Decouverte Fonctions
 https://capytale2.ac-paris.fr/web/c/40f9-634803
 https://capytale2.ac-paris.fr/web/c/1f3b-1675168</t>
+  </si>
+  <si>
+    <t>20 Mai : Pentecôte</t>
+  </si>
+  <si>
+    <t>Mercredi 01/05</t>
+  </si>
+  <si>
+    <t>Mercredi 08/05
+Jeudi 9/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS 2 </t>
+  </si>
+  <si>
+    <t>TP noté le lundi ?</t>
+  </si>
+  <si>
+    <t>TP noté le 29/04 ?</t>
+  </si>
+  <si>
+    <t>Concours Blanc?</t>
   </si>
 </sst>
 </file>
@@ -894,6 +913,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -903,79 +994,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,10 +1006,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,7 +1335,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5:J6"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1382,14 +1401,14 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -1410,23 +1429,23 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>1</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="38"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="33"/>
       <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1448,13 +1467,13 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1476,22 +1495,22 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1513,13 +1532,13 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1541,27 +1560,25 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
@@ -1582,14 +1599,16 @@
 au
 22/10/23</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="10"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
@@ -1609,16 +1628,16 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1636,14 +1655,14 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -1661,20 +1680,20 @@
 au
 12/11/23</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="G11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1696,16 +1715,14 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
@@ -1726,20 +1743,20 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <f>E11+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="G13" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1761,13 +1778,13 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1789,22 +1806,22 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1826,14 +1843,16 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="10"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
@@ -1858,7 +1877,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -1883,16 +1902,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1910,14 +1929,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -1938,21 +1957,21 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="35">
         <v>8</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="38" t="s">
+      <c r="G20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -1974,13 +1993,13 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2002,22 +2021,22 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="50" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2040,15 +2059,15 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="40"/>
+      <c r="M23" s="50"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -2069,21 +2088,23 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="10"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
@@ -2101,13 +2122,13 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2126,16 +2147,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -2156,14 +2177,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
@@ -2184,19 +2205,19 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="35">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="31"/>
       <c r="L28" s="10"/>
     </row>
@@ -2219,12 +2240,12 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
       <c r="K29" s="32"/>
       <c r="L29" s="10"/>
     </row>
@@ -2247,22 +2268,22 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="35">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
+      <c r="H30" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2284,13 +2305,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="10"/>
       <c r="O31" s="4"/>
     </row>
@@ -2313,22 +2334,22 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="35">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
+      <c r="H32" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2349,14 +2370,16 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="10"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
@@ -2374,16 +2397,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -2401,14 +2424,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="49"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -2426,21 +2449,25 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="35">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="10"/>
+      <c r="F36" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="33"/>
+      <c r="L36" s="10" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
@@ -2458,14 +2485,16 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="10"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="18" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
@@ -2483,22 +2512,20 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="35">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38" t="s">
-        <v>36</v>
-      </c>
+      <c r="F38" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2517,14 +2544,16 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="10"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
@@ -2542,20 +2571,20 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="35">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38" t="s">
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2574,16 +2603,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="E41" s="36"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
@@ -2601,19 +2628,21 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="35">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="10"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
@@ -2631,13 +2660,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2656,13 +2685,13 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2681,16 +2710,16 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="36">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
       <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -2845,74 +2874,38 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="E9:L10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
@@ -2937,38 +2930,74 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3055,15 +3084,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -3084,21 +3113,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <v>1</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
@@ -3121,13 +3150,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
@@ -3150,22 +3179,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
@@ -3188,13 +3217,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
@@ -3217,24 +3246,24 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="38"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -3259,13 +3288,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
@@ -3324,17 +3353,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -3352,15 +3381,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -3421,22 +3450,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
@@ -3459,13 +3488,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
@@ -3488,20 +3517,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
@@ -3524,13 +3553,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -3590,17 +3619,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -3618,15 +3647,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -3684,20 +3713,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="35">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
@@ -3722,16 +3751,16 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="60" t="s">
+      <c r="N22" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3754,23 +3783,23 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="35">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="60"/>
+      <c r="N23" s="64"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -3791,13 +3820,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
@@ -3817,17 +3846,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -3845,15 +3874,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="46"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -3874,20 +3903,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="35">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="38"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
@@ -3912,13 +3941,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="39"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
@@ -3941,20 +3970,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="35">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="38"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
@@ -3977,13 +4006,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="39"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
@@ -4006,18 +4035,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="35">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="38"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
@@ -4043,13 +4072,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="39"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
@@ -4103,17 +4132,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="39"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -4131,15 +4160,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="59"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -4191,20 +4220,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="35">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38" t="s">
+      <c r="G37" s="33"/>
+      <c r="H37" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="38"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="38"/>
+      <c r="K37" s="33"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
@@ -4224,13 +4253,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="39"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
@@ -4250,15 +4279,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="35">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="61"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="62"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -4285,10 +4314,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="62"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="63"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -4311,20 +4340,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="35">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38" t="s">
+      <c r="G41" s="33"/>
+      <c r="H41" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="38"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="38"/>
+      <c r="K41" s="33"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
@@ -4344,13 +4373,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="39"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
@@ -4372,16 +4401,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="37">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="53"/>
+      <c r="K43" s="43"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -4403,13 +4432,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="53"/>
+      <c r="K44" s="43"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -4433,9 +4462,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -4594,6 +4623,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -4610,86 +4719,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4773,14 +4802,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -4801,19 +4830,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="37">
         <v>1</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="53"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -4837,11 +4866,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -4865,20 +4894,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="37">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="53"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -4902,11 +4931,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -4930,20 +4959,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="37">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -4969,11 +4998,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -5032,16 +5061,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -5059,14 +5088,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -5100,7 +5129,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="33" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -5128,11 +5157,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -5141,7 +5170,7 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
@@ -5165,15 +5194,15 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="33" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
@@ -5199,16 +5228,16 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="37">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
@@ -5232,15 +5261,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="38" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="33" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -5275,9 +5304,9 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
@@ -5298,16 +5327,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -5325,14 +5354,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -5359,13 +5388,13 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="33" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
@@ -5391,16 +5420,16 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="37">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
@@ -5426,21 +5455,21 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="38" t="s">
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="33" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="60" t="s">
+      <c r="M22" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5463,20 +5492,20 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="37">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="60"/>
+      <c r="M23" s="64"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -5497,8 +5526,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="53"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -5528,16 +5557,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="43"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -5555,14 +5584,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -5583,17 +5612,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="37">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="53"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -5620,10 +5649,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -5648,17 +5677,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="37">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -5683,10 +5712,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -5711,15 +5740,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="37">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -5747,10 +5776,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -5805,16 +5834,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="49"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -5832,14 +5861,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="49"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -5890,15 +5919,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="37">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53" t="s">
+      <c r="G37" s="43"/>
+      <c r="H37" s="43" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -5922,10 +5951,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -5947,14 +5976,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="37">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="53"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="65"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -5981,9 +6010,9 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="65"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
@@ -6006,15 +6035,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="37">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53" t="s">
+      <c r="G41" s="43"/>
+      <c r="H41" s="43" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6038,10 +6067,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6065,13 +6094,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="37">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -6095,10 +6124,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -6124,9 +6153,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -6284,36 +6313,22 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="E25:L26"/>
     <mergeCell ref="E27:E28"/>
@@ -6329,32 +6344,46 @@
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
     <mergeCell ref="E34:L35"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AB9495-AF33-4401-ACF4-3E1B77C03770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F6BE57-F9DF-4BF3-AF1C-26C662A84F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
   <si>
     <t>Num</t>
   </si>
@@ -345,11 +345,6 @@
     <t>Labyrinthe</t>
   </si>
   <si>
-    <t>Activité 01 : Decouverte Fonctions
-https://capytale2.ac-paris.fr/web/c/40f9-634803
-https://capytale2.ac-paris.fr/web/c/1f3b-1675168</t>
-  </si>
-  <si>
     <t>20 Mai : Pentecôte</t>
   </si>
   <si>
@@ -370,6 +365,13 @@
   </si>
   <si>
     <t>Concours Blanc?</t>
+  </si>
+  <si>
+    <t>TP_01_Decouverte des fonctions
+Sujet : https://capytale2.ac-paris.fr/web/c/67cf-1762303</t>
+  </si>
+  <si>
+    <t>Travaux Pratiques</t>
   </si>
 </sst>
 </file>
@@ -431,7 +433,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +452,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -815,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -913,16 +921,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,34 +1002,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1000,16 +1017,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1335,7 +1361,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11:G12"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1371,8 +1397,8 @@
       <c r="G1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>47</v>
+      <c r="H1" s="71" t="s">
+        <v>103</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
@@ -1401,14 +1427,14 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -1429,23 +1455,21 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="36">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="33"/>
+      <c r="H3" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1467,13 +1491,13 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1495,22 +1519,22 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="36">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1532,13 +1556,13 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1560,24 +1584,24 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="36">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="33"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1599,13 +1623,13 @@
 au
 22/10/23</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1628,16 +1652,16 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="39"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
@@ -1655,14 +1679,14 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -1680,20 +1704,20 @@
 au
 12/11/23</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="36">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1715,13 +1739,13 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1743,20 +1767,20 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="36">
         <f>E11+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1778,13 +1802,13 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1806,22 +1830,22 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="36">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -1843,15 +1867,15 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -1877,7 +1901,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -1902,16 +1926,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -1929,14 +1953,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -1957,21 +1981,21 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="36">
         <v>8</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -1993,13 +2017,13 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2021,22 +2045,22 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="36">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="50" t="s">
+      <c r="M22" s="40" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2059,15 +2083,15 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="50"/>
+      <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -2088,20 +2112,20 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="36">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="10" t="s">
         <v>27</v>
       </c>
@@ -2122,13 +2146,13 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2147,16 +2171,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -2177,14 +2201,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
     </row>
     <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
@@ -2205,19 +2229,19 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="36">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
       <c r="K28" s="31"/>
       <c r="L28" s="10"/>
     </row>
@@ -2240,12 +2264,12 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
       <c r="K29" s="32"/>
       <c r="L29" s="10"/>
     </row>
@@ -2268,22 +2292,22 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="36">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
@@ -2305,13 +2329,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
       <c r="L31" s="10"/>
       <c r="O31" s="4"/>
     </row>
@@ -2334,22 +2358,22 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="36">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2370,13 +2394,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -2397,16 +2421,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="52"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -2424,14 +2448,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="49"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -2449,24 +2473,24 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="36">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33" t="s">
+      <c r="G36" s="38"/>
+      <c r="H36" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="K36" s="33"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="38"/>
       <c r="L36" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2485,15 +2509,15 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
       <c r="L37" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2512,20 +2536,20 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="36">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33" t="s">
+      <c r="G38" s="38"/>
+      <c r="H38" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
       <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2544,15 +2568,15 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
       <c r="L39" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2571,20 +2595,20 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="36">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="s">
+      <c r="G40" s="38"/>
+      <c r="H40" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2603,13 +2627,13 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2628,20 +2652,20 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="36">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
       <c r="L42" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2660,13 +2684,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2685,13 +2709,13 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
@@ -2710,16 +2734,16 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="37">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
       <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -2873,39 +2897,75 @@
       <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
+  <mergeCells count="123">
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="E9:L10"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
@@ -2930,74 +2990,37 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3084,15 +3107,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -3113,21 +3136,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="36">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
@@ -3150,13 +3173,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
@@ -3179,22 +3202,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="36">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
@@ -3217,13 +3240,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
@@ -3246,24 +3269,24 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="36">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="33"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -3288,13 +3311,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
@@ -3353,17 +3376,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -3381,15 +3404,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -3450,22 +3473,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="36">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
@@ -3488,13 +3511,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
@@ -3517,20 +3540,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="36">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
@@ -3553,13 +3576,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -3619,17 +3642,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="53"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -3647,15 +3670,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -3713,20 +3736,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="36">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
@@ -3751,16 +3774,16 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="64" t="s">
+      <c r="N22" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3783,23 +3806,23 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="36">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="64"/>
+      <c r="N23" s="60"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -3820,13 +3843,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
@@ -3846,17 +3869,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="53"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -3874,15 +3897,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="56"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -3903,20 +3926,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="36">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="33"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
@@ -3941,13 +3964,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="34"/>
+      <c r="K28" s="39"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
@@ -3970,20 +3993,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="36">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="33"/>
+      <c r="K29" s="38"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
@@ -4006,13 +4029,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="34"/>
+      <c r="K30" s="39"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
@@ -4035,18 +4058,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="36">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="33"/>
+      <c r="K31" s="38"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
@@ -4072,13 +4095,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="34"/>
+      <c r="K32" s="39"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
@@ -4132,17 +4155,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="39"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -4160,15 +4183,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -4220,20 +4243,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="36">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33" t="s">
+      <c r="G37" s="38"/>
+      <c r="H37" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="33"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="33"/>
+      <c r="K37" s="38"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
@@ -4253,13 +4276,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="34"/>
+      <c r="K38" s="39"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
@@ -4279,15 +4302,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="36">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="62"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="61"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -4314,10 +4337,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="63"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -4340,20 +4363,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="36">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33" t="s">
+      <c r="G41" s="38"/>
+      <c r="H41" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="33"/>
+      <c r="I41" s="38"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="33"/>
+      <c r="K41" s="38"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
@@ -4373,13 +4396,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="34"/>
+      <c r="K42" s="39"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
@@ -4401,16 +4424,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="47">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="43"/>
+      <c r="K43" s="53"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -4432,13 +4455,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="43"/>
+      <c r="K44" s="53"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -4462,9 +4485,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -4623,70 +4646,22 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -4703,22 +4678,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4802,14 +4825,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -4830,19 +4853,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="47">
         <v>1</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="43"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -4866,11 +4889,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -4894,20 +4917,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="47">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="43"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -4931,11 +4954,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -4959,20 +4982,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="47">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="43"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -4998,11 +5021,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -5061,16 +5084,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -5088,14 +5111,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -5129,7 +5152,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="38" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -5157,11 +5180,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="36">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="38" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -5170,7 +5193,7 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="39"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
@@ -5194,15 +5217,15 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33" t="s">
+      <c r="E14" s="37"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="38" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
@@ -5228,16 +5251,16 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="47">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
@@ -5261,15 +5284,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="33" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="38" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -5304,9 +5327,9 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
@@ -5327,16 +5350,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -5354,14 +5377,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -5388,13 +5411,13 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="38" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
@@ -5420,16 +5443,16 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="47">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
@@ -5455,21 +5478,21 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="33" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="38" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="64" t="s">
+      <c r="M22" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5492,20 +5515,20 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="47">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="64"/>
+      <c r="M23" s="60"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -5526,8 +5549,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="43"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -5557,16 +5580,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="53"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -5584,14 +5607,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -5612,17 +5635,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="47">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -5649,10 +5672,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -5677,17 +5700,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="47">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -5712,10 +5735,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -5740,15 +5763,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="47">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -5776,10 +5799,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -5834,16 +5857,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="49"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -5861,14 +5884,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="49"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -5919,15 +5942,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="47">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43" t="s">
+      <c r="G37" s="53"/>
+      <c r="H37" s="53" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -5951,10 +5974,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -5976,14 +5999,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="47">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="43"/>
+      <c r="G39" s="53"/>
       <c r="H39" s="65"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -6010,9 +6033,9 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="65"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
@@ -6035,15 +6058,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="47">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43" t="s">
+      <c r="G41" s="53"/>
+      <c r="H41" s="53" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6067,10 +6090,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6094,13 +6117,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="47">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -6124,10 +6147,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -6153,9 +6176,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -6313,36 +6336,34 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="E34:L35"/>
     <mergeCell ref="M22:M23"/>
@@ -6356,34 +6377,36 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F6BE57-F9DF-4BF3-AF1C-26C662A84F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC69FE53-A1E1-4EB5-819B-85C78A8260A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="168">
   <si>
     <t>Num</t>
   </si>
@@ -316,9 +316,6 @@
     <t>DS 7</t>
   </si>
   <si>
-    <t>Vacances d'Automne</t>
-  </si>
-  <si>
     <t>Vacances de Printemps</t>
   </si>
   <si>
@@ -327,22 +324,7 @@
 séquentielle par boucles imbriquées.</t>
   </si>
   <si>
-    <t>Utilisation de module et de bibliothèques. Lecture de fichiers, Tracés de courbes</t>
-  </si>
-  <si>
-    <t>Algorithmes dichotomiques</t>
-  </si>
-  <si>
     <t>Graphes, parcours</t>
-  </si>
-  <si>
-    <t>Drone et Snakes &amp; .</t>
-  </si>
-  <si>
-    <t>Snakes &amp; Cavalier</t>
-  </si>
-  <si>
-    <t>Labyrinthe</t>
   </si>
   <si>
     <t>20 Mai : Pentecôte</t>
@@ -361,9 +343,6 @@
     <t>TP noté le lundi ?</t>
   </si>
   <si>
-    <t>TP noté le 29/04 ?</t>
-  </si>
-  <si>
     <t>Concours Blanc?</t>
   </si>
   <si>
@@ -372,13 +351,268 @@
   </si>
   <si>
     <t>Travaux Pratiques</t>
+  </si>
+  <si>
+    <t>TP 1 : Fonctions + Boucle</t>
+  </si>
+  <si>
+    <t>TP 2 : Fonctions + boucle</t>
+  </si>
+  <si>
+    <t>TP 3 Chaines de caractères (césar, sans liste)</t>
+  </si>
+  <si>
+    <t>TP 4 Liste 1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 5 Liste 1D + Double parcours (moyenne glissante). </t>
+  </si>
+  <si>
+    <t>TP 6</t>
+  </si>
+  <si>
+    <t>TP 1er Vendredi ?</t>
+  </si>
+  <si>
+    <t>Recherche séquentielle et dichotomoque.</t>
+  </si>
+  <si>
+    <t>TP 5</t>
+  </si>
+  <si>
+    <t>TP 7</t>
+  </si>
+  <si>
+    <t>Percolation</t>
+  </si>
+  <si>
+    <t>Images N &amp; B</t>
+  </si>
+  <si>
+    <t>Images couleurs, flou et contour</t>
+  </si>
+  <si>
+    <t>Gloutons</t>
+  </si>
+  <si>
+    <t>Récursifs</t>
+  </si>
+  <si>
+    <t>Dictionnaires
+Snakes and Ladder + Drone</t>
+  </si>
+  <si>
+    <t>DS Machine  L PTSI 1
+V PTSI 2</t>
+  </si>
+  <si>
+    <t>TP noté le Lundi 6/05 (Semaine du pont de l'ascension)</t>
+  </si>
+  <si>
+    <t>LUNDI DE PACQUES</t>
+  </si>
+  <si>
+    <t>TP Graphe labyrinthe
+A voir comment simplifier..</t>
+  </si>
+  <si>
+    <t>TP Echiquier</t>
+  </si>
+  <si>
+    <t>Tris 
++ Complexité</t>
+  </si>
+  <si>
+    <t>Vacances d'Automne
+DM AUTOMATIQUE ?</t>
+  </si>
+  <si>
+    <t>PTSI 1 
+L</t>
+  </si>
+  <si>
+    <t>PTSI 1 
+Me</t>
+  </si>
+  <si>
+    <t>PTSI 2 Ve</t>
+  </si>
+  <si>
+    <t>TP 1
+TP 1</t>
+  </si>
+  <si>
+    <t>TP 1</t>
+  </si>
+  <si>
+    <t>TP 2</t>
+  </si>
+  <si>
+    <t>TP 2 
+TP 2</t>
+  </si>
+  <si>
+    <t>TP 3</t>
+  </si>
+  <si>
+    <t>TP 3
+TP 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 3 </t>
+  </si>
+  <si>
+    <t>TP 4
+TP 4</t>
+  </si>
+  <si>
+    <t>TP 4</t>
+  </si>
+  <si>
+    <t>TP 5 
+TP 5</t>
+  </si>
+  <si>
+    <t>TP 6 
+TP 6</t>
+  </si>
+  <si>
+    <t>TP 7
+TP 7</t>
+  </si>
+  <si>
+    <t>TP noté
+(Tous)</t>
+  </si>
+  <si>
+    <t>Pas TP</t>
+  </si>
+  <si>
+    <t>TP 8</t>
+  </si>
+  <si>
+    <t>TP 8
+TP 8</t>
+  </si>
+  <si>
+    <t>TP 9
+TP 9</t>
+  </si>
+  <si>
+    <t>TP 9</t>
+  </si>
+  <si>
+    <t>TP 10
+TP 10</t>
+  </si>
+  <si>
+    <t>TP 10</t>
+  </si>
+  <si>
+    <t>TP 11</t>
+  </si>
+  <si>
+    <t>TP 11
+TP 11</t>
+  </si>
+  <si>
+    <t>TP 12
+TP 12</t>
+  </si>
+  <si>
+    <t>TP 13</t>
+  </si>
+  <si>
+    <t>TP 12</t>
+  </si>
+  <si>
+    <t>TP 13
+TP 13</t>
+  </si>
+  <si>
+    <t>TP 14
+TP 14</t>
+  </si>
+  <si>
+    <t>TP 14</t>
+  </si>
+  <si>
+    <t>TP 15
+TP 15</t>
+  </si>
+  <si>
+    <t>TP 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 3 : 
+Chaînes de caractères
+(Pas de liste)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 4
+Découverte des listes (1D)
+</t>
+  </si>
+  <si>
+    <t>TP 5
+Listes 1D (double parcours)</t>
+  </si>
+  <si>
+    <t>TP 6
+Recherche dichotomique (dans une liste ou pas)</t>
+  </si>
+  <si>
+    <t>TP 7
+Percolation (liste 2D)</t>
+  </si>
+  <si>
+    <t>TP 8
+Images (N&amp;B)</t>
+  </si>
+  <si>
+    <t>TP 9
+Images couleurs</t>
+  </si>
+  <si>
+    <t>TP 10
+Algorithmes Gloutons</t>
+  </si>
+  <si>
+    <t>TP 11
+Algorithmes récursifs</t>
+  </si>
+  <si>
+    <t>TP 12
+Tris</t>
+  </si>
+  <si>
+    <t>TP 13 Dictionnaires</t>
+  </si>
+  <si>
+    <t>TP 14 Graphe - Labyrinthe
+(Création)</t>
+  </si>
+  <si>
+    <t>TP 15 Graphe - Labyrinthe
+(Parcours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche séquentielle dans un tableau bidimensionnel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche séquentielle dans un tableau unidimensionnel. 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,8 +666,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,8 +699,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -819,11 +1066,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,6 +1193,114 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -930,116 +1310,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1355,13 +1634,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1376,12 +1655,12 @@
     <col min="10" max="10" width="31.81640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.453125" style="2"/>
+    <col min="13" max="15" width="6.1796875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1391,25 +1670,34 @@
         <v>1</v>
       </c>
       <c r="E1" s="28"/>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1427,16 +1715,22 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="34"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="35"/>
+      <c r="O2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1455,24 +1749,36 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="39">
         <v>1</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="H3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1491,16 +1797,22 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="23"/>
-    </row>
-    <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1519,25 +1831,37 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="39">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1556,16 +1880,22 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1584,27 +1914,39 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="39">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="G7" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="38"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1623,18 +1965,24 @@
 au
 22/10/23</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1652,18 +2000,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49"/>
-    </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
+    </row>
+    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -1679,16 +2027,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -1704,23 +2052,35 @@
 au
 12/11/23</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="39">
         <f>E7+1</f>
         <v>4</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -1739,16 +2099,22 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -1767,23 +2133,38 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="39">
         <f>E11+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="G13" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1802,16 +2183,24 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1830,25 +2219,38 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="39">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="H15" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
       <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1867,18 +2269,26 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1901,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -1909,8 +2319,21 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -1926,18 +2349,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -1953,16 +2378,18 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -1981,24 +2408,39 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="39">
         <v>8</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="G20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -2017,16 +2459,24 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -2045,26 +2495,40 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="39">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="G22" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2083,17 +2547,24 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="40"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2112,25 +2583,42 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="39">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="G24" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -2146,16 +2634,24 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2171,18 +2667,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="60"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2201,16 +2699,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-    </row>
-    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="60"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2229,23 +2729,40 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="39">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="G28" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
       <c r="K28" s="31"/>
       <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2264,16 +2781,24 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
       <c r="K29" s="32"/>
       <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -2292,25 +2817,40 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="39">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
+      <c r="G30" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
       <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -2329,17 +2869,24 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="10"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -2358,25 +2905,42 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="39">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
+      <c r="G32" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="43"/>
       <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -2394,18 +2958,26 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -2421,18 +2993,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E34" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="56"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -2448,16 +3022,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="63"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -2473,27 +3049,38 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="39">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="K36" s="38"/>
+      <c r="F36" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="43"/>
       <c r="L36" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="N36" s="73"/>
+      <c r="O36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P36" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -2509,18 +3096,25 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -2536,23 +3130,40 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="39">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
+      <c r="F38" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
       <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P38" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -2568,18 +3179,24 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
       <c r="L39" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="M39" s="73"/>
+      <c r="O39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" ht="42" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -2595,23 +3212,40 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="39">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
+      <c r="G40" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
       <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P40" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -2627,16 +3261,24 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
       <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -2652,23 +3294,40 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="39">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
       <c r="L42" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P42" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -2684,16 +3343,19 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
       <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M43" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -2709,16 +3371,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -2734,25 +3396,25 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="40">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
@@ -2897,7 +3559,7 @@
       <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="122">
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="F44:F45"/>
@@ -2933,6 +3595,7 @@
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
     <mergeCell ref="J28:J29"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
@@ -2974,13 +3637,12 @@
     <mergeCell ref="E26:L27"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="E34:L35"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
@@ -2990,7 +3652,6 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="M22:M23"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="J20:J21"/>
@@ -3000,6 +3661,14 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
@@ -3013,14 +3682,6 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3107,15 +3768,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -3136,21 +3797,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="39">
         <v>1</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
@@ -3173,13 +3834,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
@@ -3202,22 +3863,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="39">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
@@ -3240,13 +3901,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
@@ -3269,24 +3930,24 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="39">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="38"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -3311,13 +3972,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
@@ -3376,17 +4037,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -3404,15 +4065,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="46"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -3473,22 +4134,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="39">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
@@ -3511,13 +4172,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
@@ -3540,20 +4201,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="39">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
@@ -3576,13 +4237,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -3642,17 +4303,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -3670,15 +4331,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -3736,20 +4397,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="39">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
@@ -3774,16 +4435,16 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="60" t="s">
+      <c r="N22" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3806,23 +4467,23 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="39">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="60"/>
+      <c r="N23" s="64"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -3843,13 +4504,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
@@ -3869,17 +4530,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -3897,15 +4558,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="46"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="50"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -3926,20 +4587,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="39">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="38"/>
+      <c r="K27" s="43"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
@@ -3964,13 +4625,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="39"/>
+      <c r="K28" s="44"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
@@ -3993,20 +4654,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="39">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="38"/>
+      <c r="K29" s="43"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
@@ -4029,13 +4690,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="39"/>
+      <c r="K30" s="44"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
@@ -4058,18 +4719,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="39">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="38"/>
+      <c r="K31" s="43"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
@@ -4095,13 +4756,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="39"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
@@ -4155,17 +4816,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -4183,15 +4844,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="59"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="63"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -4243,20 +4904,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="39">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38" t="s">
+      <c r="G37" s="43"/>
+      <c r="H37" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="38"/>
+      <c r="I37" s="43"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="38"/>
+      <c r="K37" s="43"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
@@ -4276,13 +4937,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="39"/>
+      <c r="K38" s="44"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
@@ -4302,15 +4963,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="39">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="38"/>
-      <c r="H39" s="61"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="65"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -4337,10 +4998,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="62"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="66"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -4363,20 +5024,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="39">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38" t="s">
+      <c r="G41" s="43"/>
+      <c r="H41" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="38"/>
+      <c r="I41" s="43"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="38"/>
+      <c r="K41" s="43"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
@@ -4396,13 +5057,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="39"/>
+      <c r="K42" s="44"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
@@ -4424,16 +5085,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="51">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="53"/>
+      <c r="K43" s="57"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -4455,13 +5116,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="53"/>
+      <c r="K44" s="57"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -4485,9 +5146,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -4825,14 +5486,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -4853,19 +5514,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="51">
         <v>1</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="53"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -4889,11 +5550,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -4917,20 +5578,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="51">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="53"/>
+      <c r="I5" s="57"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -4954,11 +5615,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -4982,20 +5643,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="51">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -5021,11 +5682,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -5084,16 +5745,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -5111,14 +5772,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -5152,7 +5813,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="43" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -5180,11 +5841,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="39">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="43" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -5193,7 +5854,7 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
@@ -5217,15 +5878,15 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="43" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
@@ -5251,16 +5912,16 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="51">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
@@ -5284,15 +5945,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="38" t="s">
+      <c r="E16" s="61"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="43" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -5327,9 +5988,9 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
@@ -5350,16 +6011,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -5377,14 +6038,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -5411,13 +6072,13 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="43" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
@@ -5443,16 +6104,16 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="51">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
@@ -5478,21 +6139,21 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="38" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="43" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="60" t="s">
+      <c r="M22" s="64" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5515,20 +6176,20 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="51">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="60"/>
+      <c r="M23" s="64"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -5549,8 +6210,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="53"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -5580,16 +6241,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="43"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -5607,14 +6268,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -5635,17 +6296,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="51">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="53"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -5672,10 +6333,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -5700,17 +6361,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="51">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="57"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -5735,10 +6396,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -5763,15 +6424,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="51">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -5799,10 +6460,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -5857,16 +6518,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="49"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -5884,14 +6545,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="63"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -5942,15 +6603,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="51">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53" t="s">
+      <c r="G37" s="57"/>
+      <c r="H37" s="57" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -5974,10 +6635,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -5999,15 +6660,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="51">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="65"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="72"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -6033,10 +6694,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="65"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="72"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -6058,15 +6719,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="51">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53" t="s">
+      <c r="G41" s="57"/>
+      <c r="H41" s="57" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6090,10 +6751,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6117,13 +6778,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="51">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -6147,10 +6808,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -6176,9 +6837,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -6352,6 +7013,9 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="E10:L11"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
@@ -6364,8 +7028,6 @@
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
@@ -6377,9 +7039,6 @@
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="F45:H45"/>
@@ -6391,6 +7050,8 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC69FE53-A1E1-4EB5-819B-85C78A8260A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0D4F29-A57E-4D35-AE33-C4FAB612883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="175">
   <si>
     <t>Num</t>
   </si>
@@ -319,14 +319,6 @@
     <t>Vacances de Printemps</t>
   </si>
   <si>
-    <t>Recherche séquentielle dans un tableau bidimensionnel. 
-Algorithmes opérant sur une structure
-séquentielle par boucles imbriquées.</t>
-  </si>
-  <si>
-    <t>Graphes, parcours</t>
-  </si>
-  <si>
     <t>20 Mai : Pentecôte</t>
   </si>
   <si>
@@ -340,9 +332,6 @@
     <t xml:space="preserve">DS 2 </t>
   </si>
   <si>
-    <t>TP noté le lundi ?</t>
-  </si>
-  <si>
     <t>Concours Blanc?</t>
   </si>
   <si>
@@ -353,78 +342,16 @@
     <t>Travaux Pratiques</t>
   </si>
   <si>
-    <t>TP 1 : Fonctions + Boucle</t>
-  </si>
-  <si>
-    <t>TP 2 : Fonctions + boucle</t>
-  </si>
-  <si>
-    <t>TP 3 Chaines de caractères (césar, sans liste)</t>
-  </si>
-  <si>
-    <t>TP 4 Liste 1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP 5 Liste 1D + Double parcours (moyenne glissante). </t>
-  </si>
-  <si>
     <t>TP 6</t>
   </si>
   <si>
-    <t>TP 1er Vendredi ?</t>
-  </si>
-  <si>
-    <t>Recherche séquentielle et dichotomoque.</t>
-  </si>
-  <si>
     <t>TP 5</t>
   </si>
   <si>
     <t>TP 7</t>
   </si>
   <si>
-    <t>Percolation</t>
-  </si>
-  <si>
-    <t>Images N &amp; B</t>
-  </si>
-  <si>
-    <t>Images couleurs, flou et contour</t>
-  </si>
-  <si>
-    <t>Gloutons</t>
-  </si>
-  <si>
-    <t>Récursifs</t>
-  </si>
-  <si>
-    <t>Dictionnaires
-Snakes and Ladder + Drone</t>
-  </si>
-  <si>
-    <t>DS Machine  L PTSI 1
-V PTSI 2</t>
-  </si>
-  <si>
-    <t>TP noté le Lundi 6/05 (Semaine du pont de l'ascension)</t>
-  </si>
-  <si>
     <t>LUNDI DE PACQUES</t>
-  </si>
-  <si>
-    <t>TP Graphe labyrinthe
-A voir comment simplifier..</t>
-  </si>
-  <si>
-    <t>TP Echiquier</t>
-  </si>
-  <si>
-    <t>Tris 
-+ Complexité</t>
-  </si>
-  <si>
-    <t>Vacances d'Automne
-DM AUTOMATIQUE ?</t>
   </si>
   <si>
     <t>PTSI 1 
@@ -544,75 +471,175 @@
     <t>TP 15</t>
   </si>
   <si>
+    <t>TP 6
+Recherche dichotomique (dans une liste ou pas)</t>
+  </si>
+  <si>
+    <t>TP 7
+Percolation (liste 2D)</t>
+  </si>
+  <si>
+    <t>TP 8
+Images (N&amp;B)</t>
+  </si>
+  <si>
+    <t>TP 9
+Images couleurs</t>
+  </si>
+  <si>
+    <t>TP 10
+Algorithmes Gloutons</t>
+  </si>
+  <si>
+    <t>TP 11
+Algorithmes récursifs</t>
+  </si>
+  <si>
+    <t>TP 12
+Tris</t>
+  </si>
+  <si>
+    <t>TP 13 Dictionnaires</t>
+  </si>
+  <si>
+    <t>TP 14 Graphe - Labyrinthe
+(Création)</t>
+  </si>
+  <si>
+    <t>TP 15 Graphe - Labyrinthe
+(Parcours)</t>
+  </si>
+  <si>
     <t xml:space="preserve">TP 3 : 
-Chaînes de caractères
+Chaînes de caractères, cesar ?
 (Pas de liste)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">TP 4
-Découverte des listes (1D)
+    <t xml:space="preserve">Activité sur les fonctions. </t>
+  </si>
+  <si>
+    <t>Activités sur les chaînes de caractères</t>
+  </si>
+  <si>
+    <t>Vacances d'Automne
+DM correction aUTOMATIQUE ?</t>
+  </si>
+  <si>
+    <t>Activité de découverte sur les listes</t>
+  </si>
+  <si>
+    <t>TP 5
+Listes 1D (double parcours (moyenne glissante) etc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche séquentielle dans un tableau unidimensionnel. </t>
+  </si>
+  <si>
+    <t>Activité images</t>
+  </si>
+  <si>
+    <t>Activité liste 2D
+(Reherche de chemins)</t>
+  </si>
+  <si>
+    <t>Activité récursivité</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TP 12
 </t>
-  </si>
-  <si>
-    <t>TP 5
-Listes 1D (double parcours)</t>
-  </si>
-  <si>
-    <t>TP 6
-Recherche dichotomique (dans une liste ou pas)</t>
-  </si>
-  <si>
-    <t>TP 7
-Percolation (liste 2D)</t>
-  </si>
-  <si>
-    <t>TP 8
-Images (N&amp;B)</t>
-  </si>
-  <si>
-    <t>TP 9
-Images couleurs</t>
-  </si>
-  <si>
-    <t>TP 10
-Algorithmes Gloutons</t>
-  </si>
-  <si>
-    <t>TP 11
-Algorithmes récursifs</t>
-  </si>
-  <si>
-    <t>TP 12
-Tris</t>
-  </si>
-  <si>
-    <t>TP 13 Dictionnaires</t>
-  </si>
-  <si>
-    <t>TP 14 Graphe - Labyrinthe
-(Création)</t>
-  </si>
-  <si>
-    <t>TP 15 Graphe - Labyrinthe
-(Parcours)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche séquentielle dans un tableau bidimensionnel. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche séquentielle dans un tableau unidimensionnel. 
-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/2 classe</t>
+    </r>
+  </si>
+  <si>
+    <t>TP 4
+Découverte des listes (1D)</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>Activité 4 - DM</t>
+  </si>
+  <si>
+    <t>Activité 5 représentation des nombres</t>
+  </si>
+  <si>
+    <t>TP Noté</t>
+  </si>
+  <si>
+    <t>Activité 6 : 
+Recherche dichotomique (Pb de SII ou physique)</t>
+  </si>
+  <si>
+    <t>Activité dictionnaires</t>
+  </si>
+  <si>
+    <t>Graphe modélisation</t>
+  </si>
+  <si>
+    <t>Graphe, parcours</t>
+  </si>
+  <si>
+    <t>A* / Dijkstra</t>
+  </si>
+  <si>
+    <t>1er mai</t>
+  </si>
+  <si>
+    <t>Asce.</t>
+  </si>
+  <si>
+    <t>Pentec.</t>
+  </si>
+  <si>
+    <t>Pacques</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Activité tris</t>
+  </si>
+  <si>
+    <t>Activité ??</t>
+  </si>
+  <si>
+    <t>Activité piles, files</t>
+  </si>
+  <si>
+    <t>Activité parcours</t>
+  </si>
+  <si>
+    <t>Activité graphes</t>
+  </si>
+  <si>
+    <t>Algorithmes opération sur une structure séquentielle par boucles imbriquées.</t>
+  </si>
+  <si>
+    <t>Algorithmes dichotomiques</t>
+  </si>
+  <si>
+    <t>Activité 7
+Modules et bibliothèques
+Lecture de fichier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,15 +693,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,8 +725,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1090,12 +1122,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1187,29 +1281,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1217,16 +1311,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,78 +1368,110 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1636,14 +1789,14 @@
   </sheetPr>
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11:G12"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -1660,7 +1813,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1669,35 +1822,35 @@
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="33" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="9" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="76" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="31.5" customHeight="1">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1709,28 +1862,35 @@
         <f>B2+6</f>
         <v>45179</v>
       </c>
-      <c r="D2" s="18" t="str">
+      <c r="D2" s="75" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>04/09/23
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="35"/>
+      <c r="E2" s="79">
+        <v>1</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
       <c r="O2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1743,42 +1903,31 @@
         <f>B3+6</f>
         <v>45186</v>
       </c>
-      <c r="D3" s="18" t="str">
+      <c r="D3" s="75" t="str">
         <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>11/09/23
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="39">
-        <v>1</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="23"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="31.5" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1791,28 +1940,39 @@
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>45193</v>
       </c>
-      <c r="D4" s="18" t="str">
+      <c r="D4" s="75" t="str">
         <f t="shared" si="1"/>
         <v>18/09/23
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="23"/>
+      <c r="E4" s="83">
+        <f>E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="31.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1825,43 +1985,31 @@
         <f t="shared" si="3"/>
         <v>45200</v>
       </c>
-      <c r="D5" s="18" t="str">
+      <c r="D5" s="75" t="str">
         <f t="shared" si="1"/>
         <v>25/09/23
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="39">
-        <f>E3+1</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="10"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="31.5" customHeight="1">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1874,28 +2022,39 @@
         <f t="shared" si="3"/>
         <v>45207</v>
       </c>
-      <c r="D6" s="18" t="str">
+      <c r="D6" s="75" t="str">
         <f t="shared" si="1"/>
         <v>02/10/23
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="10"/>
+      <c r="E6" s="83">
+        <f>E4+1</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="31.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1908,45 +2067,31 @@
         <f t="shared" si="3"/>
         <v>45214</v>
       </c>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="75" t="str">
         <f t="shared" si="1"/>
         <v>09/10/23
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="39">
-        <f>E5+1</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="10"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1959,30 +2104,38 @@
         <f t="shared" si="3"/>
         <v>45221</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="75" t="str">
         <f t="shared" si="1"/>
         <v>16/10/23
 au
 22/10/23</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="13"/>
       <c r="L8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1994,24 +2147,24 @@
         <f t="shared" si="3"/>
         <v>45228</v>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="75" t="str">
         <f t="shared" si="1"/>
         <v>23/10/23
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="91"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2021,22 +2174,22 @@
         <f t="shared" si="3"/>
         <v>45235</v>
       </c>
-      <c r="D10" s="18" t="str">
+      <c r="D10" s="75" t="str">
         <f t="shared" si="1"/>
         <v>30/10/23
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="87"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2046,41 +2199,37 @@
         <f t="shared" si="3"/>
         <v>45242</v>
       </c>
-      <c r="D11" s="18" t="str">
+      <c r="D11" s="75" t="str">
         <f t="shared" si="1"/>
         <v>06/11/23
 au
 12/11/23</v>
       </c>
-      <c r="E11" s="39">
-        <f>E7+1</f>
+      <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="10"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="74"/>
       <c r="M11" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="31.5">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2093,28 +2242,38 @@
         <f t="shared" si="3"/>
         <v>45249</v>
       </c>
-      <c r="D12" s="18" t="str">
+      <c r="D12" s="75" t="str">
         <f t="shared" si="1"/>
         <v>13/11/23
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="10"/>
+      <c r="E12" s="83">
+        <v>5</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="31.5" customHeight="1">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2127,44 +2286,33 @@
         <f t="shared" si="3"/>
         <v>45256</v>
       </c>
-      <c r="D13" s="18" t="str">
+      <c r="D13" s="75" t="str">
         <f t="shared" si="1"/>
         <v>20/11/23
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="39">
-        <f>E11+1</f>
-        <v>5</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="10"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="P13" s="2"/>
-      <c r="Q13" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2177,30 +2325,41 @@
         <f t="shared" si="3"/>
         <v>45263</v>
       </c>
-      <c r="D14" s="18" t="str">
+      <c r="D14" s="75" t="str">
         <f t="shared" si="1"/>
         <v>27/11/23
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="10"/>
+      <c r="E14" s="83">
+        <f>E12+1</f>
+        <v>6</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2213,44 +2372,33 @@
         <f t="shared" si="3"/>
         <v>45270</v>
       </c>
-      <c r="D15" s="18" t="str">
+      <c r="D15" s="75" t="str">
         <f t="shared" si="1"/>
         <v>04/12/23
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="39">
-        <f>E13+1</f>
-        <v>6</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="10"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2263,32 +2411,40 @@
         <f t="shared" si="3"/>
         <v>45277</v>
       </c>
-      <c r="D16" s="18" t="str">
+      <c r="D16" s="75" t="str">
         <f t="shared" si="1"/>
         <v>11/12/23
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="10" t="s">
-        <v>92</v>
+      <c r="E16" s="83">
+        <v>7</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="71" t="s">
+        <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="O16" s="69" t="s">
+        <v>113</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="32" thickBot="1">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2301,39 +2457,33 @@
         <f t="shared" si="3"/>
         <v>45284</v>
       </c>
-      <c r="D17" s="18" t="str">
+      <c r="D17" s="75" t="str">
         <f t="shared" si="1"/>
         <v>18/12/23
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="20">
-        <v>7</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N17" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="O17" s="73" t="s">
-        <v>134</v>
+      <c r="E17" s="87"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="70" t="s">
+        <v>112</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="Q17" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -2349,20 +2499,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="50"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -2378,18 +2528,18 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -2411,36 +2561,34 @@
       <c r="E20" s="39">
         <v>8</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="10"/>
+      <c r="G20" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -2460,23 +2608,23 @@
 21/01/24</v>
       </c>
       <c r="E21" s="40"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="10"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="73"/>
       <c r="M21" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -2499,36 +2647,34 @@
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="10"/>
+      <c r="H22" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="72"/>
       <c r="M22" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2548,23 +2694,23 @@
 04/02/24</v>
       </c>
       <c r="E23" s="40"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="10"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="73"/>
       <c r="M23" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2587,38 +2733,36 @@
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="43" t="s">
+      <c r="F24" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="10" t="s">
+      <c r="H24" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="72" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P24" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -2635,23 +2779,23 @@
 18/02/24</v>
       </c>
       <c r="E25" s="40"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="10"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="73"/>
       <c r="M25" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2667,20 +2811,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2699,18 +2843,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2733,36 +2877,34 @@
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="10"/>
+      <c r="H28" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="37"/>
+      <c r="L28" s="72"/>
       <c r="M28" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P28" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2782,23 +2924,23 @@
 17/03/24</v>
       </c>
       <c r="E29" s="40"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="10"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="73"/>
       <c r="M29" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -2821,36 +2963,34 @@
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="43" t="s">
+      <c r="F30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
+      <c r="H30" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" s="37"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P30" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -2870,23 +3010,23 @@
 31/03/24</v>
       </c>
       <c r="E31" s="40"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="34">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -2909,38 +3049,36 @@
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="43" t="s">
+      <c r="F32" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="2" t="s">
-        <v>147</v>
+      <c r="H32" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="37"/>
+      <c r="L32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" s="85" t="s">
+        <v>165</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P32" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" ht="34">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -2959,25 +3097,25 @@
 14/04/24</v>
       </c>
       <c r="E33" s="40"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -2993,20 +3131,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="56"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3022,18 +3160,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="63"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3053,34 +3191,34 @@
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="37"/>
+      <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="K36" s="43"/>
-      <c r="L36" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="M36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N36" s="73"/>
+        <v>113</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>162</v>
+      </c>
       <c r="O36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="P36" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3097,24 +3235,28 @@
 12/05/24</v>
       </c>
       <c r="E37" s="40"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
       <c r="L37" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
+        <v>124</v>
+      </c>
+      <c r="N37" s="84">
+        <v>45054</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>163</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3134,36 +3276,34 @@
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="43" t="s">
+      <c r="F38" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
+      <c r="H38" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" s="37"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P38" s="2">
-        <v>14</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3180,23 +3320,25 @@
 26/05/24</v>
       </c>
       <c r="E39" s="40"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
       <c r="L39" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M39" s="73"/>
+        <v>87</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>164</v>
+      </c>
       <c r="O39" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3216,36 +3358,34 @@
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="43" t="s">
+      <c r="F40" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="10"/>
+      <c r="H40" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="37"/>
+      <c r="L40" s="72"/>
       <c r="M40" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P40" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3262,23 +3402,23 @@
 09/06/24</v>
       </c>
       <c r="E41" s="40"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="10"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="73"/>
       <c r="M41" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3298,36 +3438,34 @@
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
+      <c r="F42" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" s="37"/>
       <c r="L42" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P42" s="2">
-        <v>16</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="1:17" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -3344,18 +3482,18 @@
 23/06/24</v>
       </c>
       <c r="E43" s="40"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
       <c r="L43" s="10"/>
       <c r="M43" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -3372,15 +3510,15 @@
 30/06/24</v>
       </c>
       <c r="E44" s="39"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="72"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -3400,183 +3538,265 @@
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="73"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
+  <mergeCells count="135">
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
@@ -3596,92 +3816,23 @@
     <mergeCell ref="I36:I37"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="G32:G33"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3696,13 +3847,13 @@
   <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -3719,7 +3870,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3750,7 +3901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -3768,17 +3919,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -3800,22 +3951,22 @@
       <c r="E3" s="39">
         <v>1</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3835,16 +3986,16 @@
 18/09/22</v>
       </c>
       <c r="E4" s="40"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3867,22 +4018,22 @@
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3902,16 +4053,16 @@
 02/10/22</v>
       </c>
       <c r="E6" s="40"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3934,26 +4085,26 @@
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3973,18 +4124,18 @@
 16/10/22</v>
       </c>
       <c r="E8" s="40"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4021,7 +4172,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4037,19 +4188,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4065,17 +4216,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4115,7 +4266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4138,22 +4289,22 @@
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -4173,16 +4324,16 @@
 27/11/22</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -4205,20 +4356,20 @@
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4238,18 +4389,18 @@
 11/12/22</v>
       </c>
       <c r="E16" s="40"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -4287,7 +4438,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -4303,19 +4454,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-    </row>
-    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -4331,17 +4482,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -4378,7 +4529,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -4401,22 +4552,22 @@
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -4436,19 +4587,19 @@
 22/01/23</v>
       </c>
       <c r="E22" s="40"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="64" t="s">
+      <c r="N22" s="67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -4471,21 +4622,21 @@
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="64"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="67"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -4505,16 +4656,16 @@
 05/02/23</v>
       </c>
       <c r="E24" s="40"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -4530,19 +4681,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -4558,17 +4709,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="59"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -4591,22 +4742,22 @@
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="G27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="43"/>
+      <c r="K27" s="37"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -4626,16 +4777,16 @@
 05/03/23</v>
       </c>
       <c r="E28" s="40"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="44"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -4658,20 +4809,20 @@
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="43"/>
+      <c r="K29" s="37"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -4691,16 +4842,16 @@
 19/03/23</v>
       </c>
       <c r="E30" s="40"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="44"/>
+      <c r="K30" s="38"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -4723,21 +4874,21 @@
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="43"/>
+      <c r="K31" s="37"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -4757,16 +4908,16 @@
 02/04/23</v>
       </c>
       <c r="E32" s="40"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="44"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -4800,7 +4951,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -4816,19 +4967,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="53"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -4844,17 +4995,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="63"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="53"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -4888,7 +5039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -4908,20 +5059,20 @@
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43" t="s">
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="43"/>
+      <c r="I37" s="37"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="43"/>
+      <c r="K37" s="37"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -4938,16 +5089,16 @@
 14/05/23</v>
       </c>
       <c r="E38" s="40"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="44"/>
+      <c r="K38" s="38"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -4967,10 +5118,10 @@
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="43"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="65"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
@@ -4982,7 +5133,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -4999,8 +5150,8 @@
 28/05/23</v>
       </c>
       <c r="E40" s="40"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="66"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
@@ -5008,7 +5159,7 @@
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -5028,20 +5179,20 @@
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43" t="s">
+      <c r="G41" s="37"/>
+      <c r="H41" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="43"/>
+      <c r="I41" s="37"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="43"/>
+      <c r="K41" s="37"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -5058,18 +5209,18 @@
 11/06/23</v>
       </c>
       <c r="E42" s="40"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="44"/>
+      <c r="K42" s="38"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -5085,22 +5236,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="41">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="57"/>
+      <c r="K43" s="47"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -5116,17 +5267,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="57"/>
+      <c r="K44" s="47"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -5146,167 +5297,247 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -5323,86 +5554,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5423,7 +5574,7 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -5438,7 +5589,7 @@
     <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5468,7 +5619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -5486,16 +5637,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="62"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -5514,24 +5665,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="41">
         <v>1</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="57"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5550,16 +5701,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="31.5">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5578,25 +5729,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="41">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="57"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5615,16 +5766,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5643,27 +5794,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="41">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="57"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5682,18 +5833,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5729,7 +5880,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -5745,18 +5896,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -5772,16 +5923,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-    </row>
-    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="1:12" ht="39">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -5813,7 +5964,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="37" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -5822,7 +5973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -5845,7 +5996,7 @@
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="37" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -5854,12 +6005,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="44"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -5879,21 +6030,21 @@
 27/11/22</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="43" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="37" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -5912,21 +6063,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="41">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -5945,15 +6096,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="43" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="37" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -5962,7 +6113,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -5988,14 +6139,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -6011,18 +6162,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="1:15" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -6038,16 +6189,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -6072,20 +6223,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="37" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -6104,23 +6255,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="41">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -6139,25 +6290,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="43" t="s">
+      <c r="E22" s="51"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="37" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="64" t="s">
+      <c r="M22" s="67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -6176,22 +6327,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="41">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="64"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M23" s="67"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -6210,8 +6361,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="57"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6225,7 +6376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -6241,18 +6392,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="1:15" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -6268,16 +6419,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -6296,17 +6447,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="41">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="57"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6314,7 +6465,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -6333,16 +6484,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -6361,23 +6512,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="41">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="57"/>
+      <c r="H29" s="47"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -6396,16 +6547,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -6424,15 +6575,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="41">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6441,7 +6592,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -6460,16 +6611,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -6502,7 +6653,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -6518,18 +6669,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -6545,16 +6696,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="63"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -6587,7 +6738,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -6603,15 +6754,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="41">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57" t="s">
+      <c r="G37" s="47"/>
+      <c r="H37" s="47" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6619,7 +6770,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -6635,16 +6786,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6660,15 +6811,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="41">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="72"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -6678,7 +6829,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6694,16 +6845,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="72"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="68"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6719,15 +6870,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="41">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57" t="s">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6735,7 +6886,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6751,10 +6902,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6762,7 +6913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6778,13 +6929,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="41">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -6792,7 +6943,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -6808,16 +6959,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="61"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -6837,221 +6988,166 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -7068,6 +7164,61 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0D4F29-A57E-4D35-AE33-C4FAB612883C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="2023_2024_PTSI " sheetId="3" r:id="rId1"/>
     <sheet name="2022_2023_PTSI" sheetId="1" r:id="rId2"/>
     <sheet name="2022_2023_MPSI" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -638,8 +637,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,175 +1298,175 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1783,7 +1782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C7DA3F-BB4D-4D67-A64C-244BF140CE03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1793,27 +1792,28 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="8" width="31.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="6.1796875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="31.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="6.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="89"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="32" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>46</v>
       </c>
       <c r="K1" s="33"/>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="41" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1850,7 +1850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1862,35 +1862,35 @@
         <f>B2+6</f>
         <v>45179</v>
       </c>
-      <c r="D2" s="75" t="str">
+      <c r="D2" s="40" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>04/09/23
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="79">
+      <c r="E2" s="59">
         <v>1</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
       <c r="O2" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1903,20 +1903,20 @@
         <f>B3+6</f>
         <v>45186</v>
       </c>
-      <c r="D3" s="75" t="str">
+      <c r="D3" s="40" t="str">
         <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>11/09/23
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="71"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="2" t="s">
         <v>102</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1940,31 +1940,31 @@
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>45193</v>
       </c>
-      <c r="D4" s="75" t="str">
+      <c r="D4" s="40" t="str">
         <f t="shared" si="1"/>
         <v>18/09/23
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="50">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="71"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="54"/>
       <c r="M4" s="2" t="s">
         <v>102</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1985,20 +1985,20 @@
         <f t="shared" si="3"/>
         <v>45200</v>
       </c>
-      <c r="D5" s="75" t="str">
+      <c r="D5" s="40" t="str">
         <f t="shared" si="1"/>
         <v>25/09/23
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="71"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="2" t="s">
         <v>103</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2022,31 +2022,31 @@
         <f t="shared" si="3"/>
         <v>45207</v>
       </c>
-      <c r="D6" s="75" t="str">
+      <c r="D6" s="40" t="str">
         <f t="shared" si="1"/>
         <v>02/10/23
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="50">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="51"/>
+      <c r="J6" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="71"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="2" t="s">
         <v>103</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2067,20 +2067,20 @@
         <f t="shared" si="3"/>
         <v>45214</v>
       </c>
-      <c r="D7" s="75" t="str">
+      <c r="D7" s="40" t="str">
         <f t="shared" si="1"/>
         <v>09/10/23
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="71"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="2" t="s">
         <v>105</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5">
+    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2104,7 +2104,7 @@
         <f t="shared" si="3"/>
         <v>45221</v>
       </c>
-      <c r="D8" s="75" t="str">
+      <c r="D8" s="40" t="str">
         <f t="shared" si="1"/>
         <v>16/10/23
 au
@@ -2113,7 +2113,7 @@
       <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="45" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="13"/>
@@ -2135,7 +2135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5">
+    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2147,24 +2147,24 @@
         <f t="shared" si="3"/>
         <v>45228</v>
       </c>
-      <c r="D9" s="75" t="str">
+      <c r="D9" s="40" t="str">
         <f t="shared" si="1"/>
         <v>23/10/23
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="91"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1">
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
+    </row>
+    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2174,22 +2174,22 @@
         <f t="shared" si="3"/>
         <v>45235</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="40" t="str">
         <f t="shared" si="1"/>
         <v>30/10/23
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1">
+      <c r="E10" s="52"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2199,7 +2199,7 @@
         <f t="shared" si="3"/>
         <v>45242</v>
       </c>
-      <c r="D11" s="75" t="str">
+      <c r="D11" s="40" t="str">
         <f t="shared" si="1"/>
         <v>06/11/23
 au
@@ -2218,7 +2218,7 @@
         <v>153</v>
       </c>
       <c r="K11" s="31"/>
-      <c r="L11" s="74"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="2" t="s">
         <v>109</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="31.5">
+    <row r="12" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2242,30 +2242,30 @@
         <f t="shared" si="3"/>
         <v>45249</v>
       </c>
-      <c r="D12" s="75" t="str">
+      <c r="D12" s="40" t="str">
         <f t="shared" si="1"/>
         <v>13/11/23
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="50">
         <v>5</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47" t="s">
+      <c r="I12" s="51"/>
+      <c r="J12" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="71"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="2" t="s">
         <v>109</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2286,20 +2286,20 @@
         <f t="shared" si="3"/>
         <v>45256</v>
       </c>
-      <c r="D13" s="75" t="str">
+      <c r="D13" s="40" t="str">
         <f t="shared" si="1"/>
         <v>20/11/23
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="71"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="2" t="s">
         <v>95</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="31.5">
+    <row r="14" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2325,31 +2325,31 @@
         <f t="shared" si="3"/>
         <v>45263</v>
       </c>
-      <c r="D14" s="75" t="str">
+      <c r="D14" s="40" t="str">
         <f t="shared" si="1"/>
         <v>27/11/23
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="50">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47" t="s">
+      <c r="I14" s="51"/>
+      <c r="J14" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="71"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="2" t="s">
         <v>95</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2372,20 +2372,20 @@
         <f t="shared" si="3"/>
         <v>45270</v>
       </c>
-      <c r="D15" s="75" t="str">
+      <c r="D15" s="40" t="str">
         <f t="shared" si="1"/>
         <v>04/12/23
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="71"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="2" t="s">
         <v>94</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="31.5">
+    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2411,40 +2411,40 @@
         <f t="shared" si="3"/>
         <v>45277</v>
       </c>
-      <c r="D16" s="75" t="str">
+      <c r="D16" s="40" t="str">
         <f t="shared" si="1"/>
         <v>11/12/23
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="50">
         <v>7</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47" t="s">
+      <c r="G16" s="51"/>
+      <c r="H16" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47" t="s">
+      <c r="I16" s="51"/>
+      <c r="J16" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="71" t="s">
+      <c r="K16" s="51"/>
+      <c r="L16" s="54" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="69" t="s">
+      <c r="O16" s="37" t="s">
         <v>113</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1">
+    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2457,33 +2457,33 @@
         <f t="shared" si="3"/>
         <v>45284</v>
       </c>
-      <c r="D17" s="75" t="str">
+      <c r="D17" s="40" t="str">
         <f t="shared" si="1"/>
         <v>18/12/23
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="69" t="s">
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="37" t="s">
         <v>113</v>
       </c>
       <c r="N17" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="O17" s="70" t="s">
+      <c r="O17" s="38" t="s">
         <v>112</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="31.5">
+    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -2499,20 +2499,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="50"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="67"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5">
+    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -2528,18 +2528,18 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -2558,24 +2558,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="68">
         <v>8</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37" t="s">
+      <c r="I20" s="48"/>
+      <c r="J20" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="72"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="46"/>
       <c r="M20" s="2" t="s">
         <v>96</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="31.5">
+    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -2607,14 +2607,14 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="73"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="47"/>
       <c r="M21" s="2" t="s">
         <v>96</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="31.5">
+    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -2643,25 +2643,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="68">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37" t="s">
+      <c r="I22" s="48"/>
+      <c r="J22" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="72"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="2" t="s">
         <v>115</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="31.5">
+    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2693,14 +2693,14 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="73"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="2" t="s">
         <v>115</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5">
+    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2729,25 +2729,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="68">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37" t="s">
+      <c r="I24" s="48"/>
+      <c r="J24" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="72" t="s">
+      <c r="K24" s="48"/>
+      <c r="L24" s="46" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2762,7 +2762,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5">
+    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -2778,14 +2778,14 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="73"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="2" t="s">
         <v>118</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5">
+    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2811,20 +2811,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5">
+    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2843,18 +2843,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5">
+    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2873,25 +2873,25 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="68">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37" t="s">
+      <c r="I28" s="48"/>
+      <c r="J28" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="72"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="46"/>
       <c r="M28" s="2" t="s">
         <v>120</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5">
+    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2923,14 +2923,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="73"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="47"/>
       <c r="M29" s="2" t="s">
         <v>120</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5">
+    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -2959,24 +2959,24 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="68">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37" t="s">
+      <c r="I30" s="48"/>
+      <c r="J30" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="K30" s="37"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>121</v>
@@ -2990,7 +2990,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5">
+    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3009,13 +3009,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>121</v>
@@ -3026,7 +3026,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="34">
+    <row r="32" spans="1:17" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3045,28 +3045,28 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="68">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37" t="s">
+      <c r="I32" s="48"/>
+      <c r="J32" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="K32" s="37"/>
+      <c r="K32" s="48"/>
       <c r="L32" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="M32" s="85" t="s">
+      <c r="M32" s="43" t="s">
         <v>165</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3078,7 +3078,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="34">
+    <row r="33" spans="1:17" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3096,13 +3096,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5">
+    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3131,20 +3131,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5">
+    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3160,18 +3160,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5">
+    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3187,22 +3187,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="68">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37" t="s">
+      <c r="G36" s="48"/>
+      <c r="H36" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37" t="s">
+      <c r="I36" s="48"/>
+      <c r="J36" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="K36" s="37"/>
+      <c r="K36" s="48"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5">
+    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3234,20 +3234,20 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N37" s="84">
+      <c r="N37" s="42">
         <v>45054</v>
       </c>
       <c r="O37" s="36" t="s">
@@ -3256,7 +3256,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="31.5">
+    <row r="38" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3272,24 +3272,24 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="68">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37" t="s">
+      <c r="I38" s="48"/>
+      <c r="J38" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="K38" s="37"/>
+      <c r="K38" s="48"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>124</v>
@@ -3303,7 +3303,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5">
+    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3319,13 +3319,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5">
+    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3354,25 +3354,25 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="68">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37" t="s">
+      <c r="I40" s="48"/>
+      <c r="J40" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="K40" s="37"/>
-      <c r="L40" s="72"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="46"/>
       <c r="M40" s="2" t="s">
         <v>124</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5">
+    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3401,14 +3401,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="73"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="47"/>
       <c r="M41" s="2" t="s">
         <v>128</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5">
+    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3434,22 +3434,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="68">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37" t="s">
+      <c r="G42" s="48"/>
+      <c r="H42" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37" t="s">
+      <c r="I42" s="48"/>
+      <c r="J42" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="K42" s="37"/>
+      <c r="K42" s="48"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="31.5">
+    <row r="43" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -3481,19 +3481,19 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
       <c r="L43" s="10"/>
       <c r="M43" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="31.5">
+    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -3509,16 +3509,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="72"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5">
+      <c r="E44" s="68"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="46"/>
+    </row>
+    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -3534,191 +3534,257 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="40">
+      <c r="E45" s="69">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="73"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="47"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E9:L10"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K7"/>
@@ -3743,96 +3809,30 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="E26:L27"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3840,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3853,24 +3853,24 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="8" width="31.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="12.453125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="31.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.42578125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5">
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -3919,17 +3919,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1">
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -3948,25 +3948,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="68">
         <v>1</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5">
+    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3985,17 +3985,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4014,26 +4014,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="68">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5">
+    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4052,17 +4052,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4081,30 +4081,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="68">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="s">
+      <c r="I7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="37"/>
+      <c r="K7" s="48"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5">
+    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4123,19 +4123,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5">
+    <row r="9" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5">
+    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4188,19 +4188,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5">
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
+    </row>
+    <row r="11" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4216,17 +4216,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5">
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+    </row>
+    <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4266,7 +4266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5">
+    <row r="13" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4285,26 +4285,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="68">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5">
+    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -4323,17 +4323,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5">
+    <row r="15" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -4352,24 +4352,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="68">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5">
+    <row r="16" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4388,19 +4388,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5">
+    <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -4438,7 +4438,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5">
+    <row r="18" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -4454,19 +4454,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
-    </row>
-    <row r="19" spans="1:16" ht="31.5">
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
+    </row>
+    <row r="19" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -4482,17 +4482,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5">
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+    </row>
+    <row r="20" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -4529,7 +4529,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5">
+    <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -4548,26 +4548,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="68">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5">
+    <row r="22" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -4586,20 +4586,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="80" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5">
+    <row r="23" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -4618,25 +4618,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="68">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="67"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5">
+      <c r="N23" s="80"/>
+    </row>
+    <row r="24" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -4655,17 +4655,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5">
+    <row r="25" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -4681,19 +4681,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5">
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="83"/>
+    </row>
+    <row r="26" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -4709,17 +4709,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5">
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
+    </row>
+    <row r="27" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -4738,26 +4738,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="68">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="37"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5">
+    <row r="28" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -4776,17 +4776,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="38"/>
+      <c r="K28" s="49"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5">
+    <row r="29" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -4805,24 +4805,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="68">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="37"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5">
+    <row r="30" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -4841,17 +4841,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="38"/>
+      <c r="K30" s="49"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5">
+    <row r="31" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -4870,25 +4870,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="68">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="37"/>
+      <c r="K31" s="48"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5">
+    <row r="32" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -4907,17 +4907,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="38"/>
+      <c r="K32" s="49"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5">
+    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -4951,7 +4951,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5">
+    <row r="34" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -4967,19 +4967,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5">
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="92"/>
+    </row>
+    <row r="35" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -4995,17 +4995,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="53"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5">
+      <c r="E35" s="73"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="75"/>
+    </row>
+    <row r="36" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5039,7 +5039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5">
+    <row r="37" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5055,24 +5055,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="68">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37" t="s">
+      <c r="G37" s="48"/>
+      <c r="H37" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="37"/>
+      <c r="I37" s="48"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="37"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5">
+    <row r="38" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -5088,17 +5088,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="38"/>
+      <c r="K38" s="49"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5">
+    <row r="39" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -5114,15 +5114,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="68">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="65"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5">
+    <row r="40" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -5149,17 +5149,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="66"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="86"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5">
+    <row r="41" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -5175,24 +5175,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="68">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37" t="s">
+      <c r="G41" s="48"/>
+      <c r="H41" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="37"/>
+      <c r="I41" s="48"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="37"/>
+      <c r="K41" s="48"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5">
+    <row r="42" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -5208,19 +5208,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="38"/>
+      <c r="K42" s="49"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5">
+    <row r="43" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -5236,22 +5236,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="84">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="47"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5">
+    <row r="44" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -5267,17 +5267,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="47"/>
+      <c r="K44" s="51"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1">
+    <row r="45" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -5297,231 +5297,183 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -5538,22 +5490,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5561,7 +5561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5574,22 +5574,22 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
-    <col min="6" max="9" width="31.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="12.453125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="9" width="31.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5">
+    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -5637,16 +5637,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5">
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -5665,24 +5665,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="84">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="47"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5">
+    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5701,16 +5701,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5">
+    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5729,25 +5729,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="84">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5">
+    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5766,16 +5766,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5">
+    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5794,27 +5794,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="84">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5">
+    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5833,18 +5833,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5">
+    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5880,7 +5880,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5">
+    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -5896,18 +5896,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5">
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
+    </row>
+    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -5923,16 +5923,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="59"/>
-    </row>
-    <row r="12" spans="1:12" ht="39">
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
+    </row>
+    <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -5964,7 +5964,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="48" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -5973,7 +5973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5">
+    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -5992,11 +5992,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="68">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="48" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -6005,12 +6005,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="38"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5">
+    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6029,22 +6029,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="37" t="s">
+      <c r="E14" s="69"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="48" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5">
+    <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -6063,21 +6063,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="84">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5">
+    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -6096,15 +6096,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37" t="s">
+      <c r="E16" s="73"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="48" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5">
+    <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -6139,14 +6139,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5">
+    <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -6162,18 +6162,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5">
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+    </row>
+    <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -6189,16 +6189,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5">
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
+    </row>
+    <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -6223,20 +6223,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="48" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5">
+    <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -6255,23 +6255,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="84">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5">
+    <row r="22" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -6290,25 +6290,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37" t="s">
+      <c r="E22" s="73"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="48" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="67" t="s">
+      <c r="M22" s="80" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5">
+    <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -6327,22 +6327,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="84">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="67"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5">
+      <c r="M23" s="80"/>
+    </row>
+    <row r="24" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -6361,8 +6361,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5">
+    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -6392,18 +6392,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="56"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5">
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
+    </row>
+    <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -6419,16 +6419,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5">
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
+    </row>
+    <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -6447,17 +6447,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="84">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5">
+    <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -6484,16 +6484,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5">
+    <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -6512,23 +6512,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="84">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="47"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5">
+    <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -6547,16 +6547,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5">
+    <row r="31" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -6575,15 +6575,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="84">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5">
+    <row r="32" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -6611,16 +6611,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5">
+    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -6653,7 +6653,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5">
+    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -6669,18 +6669,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="43"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5">
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="92"/>
+    </row>
+    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -6696,16 +6696,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5">
+      <c r="E35" s="73"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
+    </row>
+    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -6738,7 +6738,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5">
+    <row r="37" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -6754,15 +6754,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="84">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47" t="s">
+      <c r="G37" s="51"/>
+      <c r="H37" s="51" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6770,7 +6770,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5">
+    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -6786,16 +6786,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5">
+    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6811,15 +6811,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="84">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="68"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="93"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5">
+    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6845,16 +6845,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="68"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5">
+    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6870,15 +6870,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="84">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47" t="s">
+      <c r="G41" s="51"/>
+      <c r="H41" s="51" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6886,7 +6886,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5">
+    <row r="42" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6902,10 +6902,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6913,7 +6913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5">
+    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6929,13 +6929,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="84">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5">
+    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -6959,16 +6959,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1">
+    <row r="45" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -6988,166 +6988,221 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -7164,61 +7219,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D40594-0BA8-431C-9F58-3458184C0B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023_2024_PTSI " sheetId="3" r:id="rId1"/>
     <sheet name="2022_2023_PTSI" sheetId="1" r:id="rId2"/>
     <sheet name="2022_2023_MPSI" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -334,10 +335,6 @@
     <t>Concours Blanc?</t>
   </si>
   <si>
-    <t>TP_01_Decouverte des fonctions
-Sujet : https://capytale2.ac-paris.fr/web/c/67cf-1762303</t>
-  </si>
-  <si>
     <t>Travaux Pratiques</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
 Chaînes de caractères, cesar ?
 (Pas de liste)
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activité sur les fonctions. </t>
   </si>
   <si>
     <t>Activités sur les chaînes de caractères</t>
@@ -633,12 +627,88 @@
 Modules et bibliothèques
 Lecture de fichier</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Activité sur les fonctions Heures, Minutes, Secondes etc…
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sujet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/ea94-1762308
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Corrigé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/ea94-1762308</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TP_01_Decouverte des fonctions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sujet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/67cf-1762303</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1301,9 +1371,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,7 +1389,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,139 +1482,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,7 +1843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1792,28 +1853,28 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="31.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="6.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="31.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="55.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="55.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="2" customWidth="1"/>
+    <col min="13" max="15" width="6.1796875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1883,7 @@
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="32" t="s">
         <v>8</v>
       </c>
@@ -1830,27 +1891,27 @@
         <v>48</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="33"/>
       <c r="J1" s="33" t="s">
         <v>46</v>
       </c>
       <c r="K1" s="33"/>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" ht="31.5" customHeight="1">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1862,35 +1923,35 @@
         <f>B2+6</f>
         <v>45179</v>
       </c>
-      <c r="D2" s="40" t="str">
+      <c r="D2" s="39" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>04/09/23
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="72">
         <v>1</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="H2" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="71"/>
       <c r="O2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1903,31 +1964,31 @@
         <f>B3+6</f>
         <v>45186</v>
       </c>
-      <c r="D3" s="40" t="str">
+      <c r="D3" s="39" t="str">
         <f t="shared" ref="D3:D45" si="1">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>11/09/23
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="70"/>
       <c r="M3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="31.5" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1940,39 +2001,39 @@
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>45193</v>
       </c>
-      <c r="D4" s="40" t="str">
+      <c r="D4" s="39" t="str">
         <f t="shared" si="1"/>
         <v>18/09/23
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="64">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="54"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="48"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="31.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1985,31 +2046,31 @@
         <f t="shared" si="3"/>
         <v>45200</v>
       </c>
-      <c r="D5" s="40" t="str">
+      <c r="D5" s="39" t="str">
         <f t="shared" si="1"/>
         <v>25/09/23
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="54"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="31.5" customHeight="1">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2022,39 +2083,39 @@
         <f t="shared" si="3"/>
         <v>45207</v>
       </c>
-      <c r="D6" s="40" t="str">
+      <c r="D6" s="39" t="str">
         <f t="shared" si="1"/>
         <v>02/10/23
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="64">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51" t="s">
+      <c r="G6" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="54"/>
+      <c r="H6" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="70"/>
       <c r="M6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="31.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2067,31 +2128,31 @@
         <f t="shared" si="3"/>
         <v>45214</v>
       </c>
-      <c r="D7" s="40" t="str">
+      <c r="D7" s="39" t="str">
         <f t="shared" si="1"/>
         <v>09/10/23
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2104,7 +2165,7 @@
         <f t="shared" si="3"/>
         <v>45221</v>
       </c>
-      <c r="D8" s="40" t="str">
+      <c r="D8" s="39" t="str">
         <f t="shared" si="1"/>
         <v>16/10/23
 au
@@ -2113,29 +2174,29 @@
       <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="26" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2147,24 +2208,24 @@
         <f t="shared" si="3"/>
         <v>45228</v>
       </c>
-      <c r="D9" s="40" t="str">
+      <c r="D9" s="39" t="str">
         <f t="shared" si="1"/>
         <v>23/10/23
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-    </row>
-    <row r="10" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2174,22 +2235,22 @@
         <f t="shared" si="3"/>
         <v>45235</v>
       </c>
-      <c r="D10" s="40" t="str">
+      <c r="D10" s="39" t="str">
         <f t="shared" si="1"/>
         <v>30/10/23
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2199,7 +2260,7 @@
         <f t="shared" si="3"/>
         <v>45242</v>
       </c>
-      <c r="D11" s="40" t="str">
+      <c r="D11" s="39" t="str">
         <f t="shared" si="1"/>
         <v>06/11/23
 au
@@ -2211,25 +2272,25 @@
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K11" s="31"/>
-      <c r="L11" s="39"/>
+      <c r="L11" s="38"/>
       <c r="M11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="31.5">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2242,38 +2303,38 @@
         <f t="shared" si="3"/>
         <v>45249</v>
       </c>
-      <c r="D12" s="40" t="str">
+      <c r="D12" s="39" t="str">
         <f t="shared" si="1"/>
         <v>13/11/23
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="64">
         <v>5</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="54"/>
+      <c r="G12" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" ht="31.5" customHeight="1">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2286,33 +2347,33 @@
         <f t="shared" si="3"/>
         <v>45256</v>
       </c>
-      <c r="D13" s="40" t="str">
+      <c r="D13" s="39" t="str">
         <f t="shared" si="1"/>
         <v>20/11/23
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="54"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2325,41 +2386,41 @@
         <f t="shared" si="3"/>
         <v>45263</v>
       </c>
-      <c r="D14" s="40" t="str">
+      <c r="D14" s="39" t="str">
         <f t="shared" si="1"/>
         <v>27/11/23
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="64">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="51"/>
-      <c r="L14" s="54"/>
+      <c r="G14" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2372,33 +2433,33 @@
         <f t="shared" si="3"/>
         <v>45270</v>
       </c>
-      <c r="D15" s="40" t="str">
+      <c r="D15" s="39" t="str">
         <f t="shared" si="1"/>
         <v>04/12/23
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="54"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2411,40 +2472,40 @@
         <f t="shared" si="3"/>
         <v>45277</v>
       </c>
-      <c r="D16" s="40" t="str">
+      <c r="D16" s="39" t="str">
         <f t="shared" si="1"/>
         <v>11/12/23
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="64">
         <v>7</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="54" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="70" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O16" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="32" thickBot="1">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2457,33 +2518,33 @@
         <f t="shared" si="3"/>
         <v>45284</v>
       </c>
-      <c r="D17" s="40" t="str">
+      <c r="D17" s="39" t="str">
         <f t="shared" si="1"/>
         <v>18/12/23
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="55"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="N17" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>112</v>
+      <c r="O17" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -2499,20 +2560,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="67"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -2528,18 +2589,18 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="79"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -2558,37 +2619,37 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="46">
         <v>8</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="46"/>
+      <c r="G20" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="44"/>
+      <c r="L20" s="73"/>
       <c r="M20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -2607,24 +2668,24 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="74"/>
       <c r="M21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -2643,38 +2704,38 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="46">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="46"/>
+      <c r="H22" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="44"/>
+      <c r="L22" s="73"/>
       <c r="M22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2693,24 +2754,24 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2729,40 +2790,40 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="46">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="48" t="s">
+      <c r="G24" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="46" t="s">
+      <c r="H24" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="44"/>
+      <c r="L24" s="73" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -2778,24 +2839,24 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2811,20 +2872,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2843,18 +2904,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2873,38 +2934,38 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="46">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="46"/>
+      <c r="H28" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="44"/>
+      <c r="L28" s="73"/>
       <c r="M28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2923,24 +2984,24 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -2959,38 +3020,38 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="46">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="48"/>
+      <c r="H30" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="K30" s="44"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3009,24 +3070,24 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="35.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="34">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3045,40 +3106,40 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="46">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="K32" s="48"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M32" s="43" t="s">
-        <v>165</v>
+        <v>96</v>
+      </c>
+      <c r="M32" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="35.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="34">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3096,26 +3157,26 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3131,20 +3192,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="70" t="s">
+      <c r="E34" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="72"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="57"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3160,18 +3221,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="60"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3187,38 +3248,38 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="46">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="K36" s="48"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="K36" s="44"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3234,29 +3295,29 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N37" s="42">
+        <v>123</v>
+      </c>
+      <c r="N37" s="41">
         <v>45054</v>
       </c>
       <c r="O37" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3272,38 +3333,38 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="46">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="48" t="s">
+      <c r="F38" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="K38" s="48"/>
+      <c r="H38" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="44"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3319,26 +3380,26 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3354,38 +3415,38 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="46">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="48" t="s">
+      <c r="F40" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="46"/>
+      <c r="H40" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" s="44"/>
+      <c r="L40" s="73"/>
       <c r="M40" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3401,24 +3462,24 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="74"/>
       <c r="M41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3434,38 +3495,38 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="68">
+      <c r="E42" s="46">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="K42" s="48"/>
+      <c r="F42" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="K42" s="44"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -3481,19 +3542,19 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
       <c r="L43" s="10"/>
       <c r="M43" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -3509,16 +3570,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="68"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="46"/>
-    </row>
-    <row r="45" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="46"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="73"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -3534,192 +3595,257 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="69">
+      <c r="E45" s="47">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="47"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="74"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
@@ -3744,95 +3870,30 @@
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3840,7 +3901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3853,24 +3914,24 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="31.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="12.42578125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="31.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.453125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3901,7 +3962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -3919,17 +3980,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -3948,25 +4009,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="46">
         <v>1</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3985,17 +4046,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="69"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4014,26 +4075,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="46">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4052,17 +4113,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4081,30 +4142,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="46">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="48"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4123,19 +4184,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4172,7 +4233,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4188,19 +4249,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="83"/>
-    </row>
-    <row r="11" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4216,17 +4277,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-    </row>
-    <row r="12" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4266,7 +4327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4285,26 +4346,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="46">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -4323,17 +4384,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -4352,24 +4413,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="46">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4388,19 +4449,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -4438,7 +4499,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -4454,19 +4515,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="83"/>
-    </row>
-    <row r="19" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -4482,17 +4543,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-    </row>
-    <row r="20" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -4529,7 +4590,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -4548,26 +4609,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="46">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -4586,20 +4647,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="80" t="s">
+      <c r="N22" s="89" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -4618,25 +4679,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="46">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="80"/>
-    </row>
-    <row r="24" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="89"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -4655,17 +4716,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -4681,19 +4742,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="83"/>
-    </row>
-    <row r="26" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -4709,17 +4770,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-    </row>
-    <row r="27" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -4738,26 +4799,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="46">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="48"/>
+      <c r="K27" s="44"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -4776,17 +4837,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="49"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -4805,24 +4866,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="46">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="48"/>
+      <c r="K29" s="44"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -4841,17 +4902,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="49"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -4870,25 +4931,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="46">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="48"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -4907,17 +4968,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="49"/>
+      <c r="K32" s="45"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -4951,7 +5012,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -4967,19 +5028,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="92"/>
-    </row>
-    <row r="35" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="85"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -4995,17 +5056,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="75"/>
-    </row>
-    <row r="36" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="60"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5039,7 +5100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5055,24 +5116,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="68">
+      <c r="E37" s="46">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="48"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="48"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -5088,17 +5149,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="49"/>
+      <c r="K38" s="45"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -5114,15 +5175,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="68">
+      <c r="E39" s="46">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="85"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="87"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5133,7 +5194,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -5149,17 +5210,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="69"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="86"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="88"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -5175,24 +5236,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="46">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48" t="s">
+      <c r="G41" s="44"/>
+      <c r="H41" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="48"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="48"/>
+      <c r="K41" s="44"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -5208,19 +5269,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="69"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="49"/>
+      <c r="K42" s="45"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -5236,22 +5297,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="83">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="51"/>
+      <c r="K43" s="48"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -5267,17 +5328,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="51"/>
+      <c r="K44" s="48"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -5297,167 +5358,247 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="87"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -5474,86 +5615,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5561,7 +5622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5574,22 +5635,22 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6" max="9" width="31.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="3" customWidth="1"/>
+    <col min="6" max="9" width="31.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="12.453125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5619,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -5637,16 +5698,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-    </row>
-    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -5665,24 +5726,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="83">
         <v>1</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="51"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5701,16 +5762,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="31.5">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5729,25 +5790,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="83">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="51"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5766,16 +5827,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5794,27 +5855,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="83">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="51"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5833,18 +5894,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5880,7 +5941,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -5896,18 +5957,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="83"/>
-    </row>
-    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -5923,16 +5984,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-    </row>
-    <row r="12" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="1:12" ht="39">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -5964,7 +6025,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="44" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -5973,7 +6034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -5992,11 +6053,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="46">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -6005,12 +6066,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6029,22 +6090,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="48" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="44" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -6063,21 +6124,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="83">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -6096,15 +6157,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="48" t="s">
+      <c r="E16" s="58"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="44" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -6113,7 +6174,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -6139,14 +6200,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -6162,18 +6223,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
-    </row>
-    <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+    </row>
+    <row r="19" spans="1:15" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -6189,16 +6250,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="79"/>
-    </row>
-    <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -6223,20 +6284,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="44" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -6255,23 +6316,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="83">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -6290,25 +6351,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="48" t="s">
+      <c r="E22" s="58"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="44" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="80" t="s">
+      <c r="M22" s="89" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -6327,22 +6388,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="83">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="80"/>
-    </row>
-    <row r="24" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="89"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -6361,8 +6422,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="51"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6376,7 +6437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -6392,18 +6453,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="83"/>
-    </row>
-    <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="79"/>
+    </row>
+    <row r="26" spans="1:15" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -6419,16 +6480,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
-    </row>
-    <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -6447,17 +6508,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="83">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="51"/>
+      <c r="H27" s="48"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6465,7 +6526,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -6484,16 +6545,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -6512,23 +6573,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="83">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="51"/>
+      <c r="H29" s="48"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -6547,16 +6608,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -6575,15 +6636,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="83">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6592,7 +6653,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -6611,16 +6672,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -6653,7 +6714,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -6669,18 +6730,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="92"/>
-    </row>
-    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="85"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -6696,16 +6757,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
-    </row>
-    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="60"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -6738,7 +6799,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -6754,15 +6815,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="83">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51" t="s">
+      <c r="G37" s="48"/>
+      <c r="H37" s="48" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6770,7 +6831,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -6786,16 +6847,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6811,15 +6872,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="84">
+      <c r="E39" s="83">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="51"/>
-      <c r="H39" s="93"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="90"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -6829,7 +6890,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6845,16 +6906,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="93"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="90"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6870,15 +6931,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="83">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51" t="s">
+      <c r="G41" s="48"/>
+      <c r="H41" s="48" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6886,7 +6947,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6902,10 +6963,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="73"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6913,7 +6974,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6929,13 +6990,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="83">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -6943,7 +7004,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -6959,16 +7020,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -6988,182 +7049,205 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="87"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -7180,45 +7264,22 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D40594-0BA8-431C-9F58-3458184C0B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F7AC6-0A21-415D-9AEB-50E86D03A436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,7 +708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,28 +1389,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,70 +1488,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1497,6 +1500,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1506,25 +1521,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1853,10 +1853,10 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -1874,7 +1874,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1929,29 +1929,29 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="59">
         <v>1</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62" t="s">
+      <c r="I2" s="62"/>
+      <c r="J2" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="71"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="67"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1970,14 +1970,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="70"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2007,25 +2007,25 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="48">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="70"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2052,14 +2052,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="70"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2089,25 +2089,25 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="48">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="70"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2134,14 +2134,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="70"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2196,7 +2196,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2214,18 +2214,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="66"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2241,16 +2241,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1">
+      <c r="E10" s="50"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2290,7 +2290,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="31.5">
+    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2309,24 +2309,24 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="48">
         <v>5</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48" t="s">
+      <c r="I12" s="49"/>
+      <c r="J12" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="70"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2353,14 +2353,14 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="70"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="31.5">
+    <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2392,25 +2392,25 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="48">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48" t="s">
+      <c r="I14" s="49"/>
+      <c r="J14" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="70"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2439,14 +2439,14 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="70"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="31.5">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2478,22 +2478,22 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="48">
         <v>7</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48" t="s">
+      <c r="G16" s="49"/>
+      <c r="H16" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48" t="s">
+      <c r="I16" s="49"/>
+      <c r="J16" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="70" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="52" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2505,7 +2505,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1">
+    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2524,14 +2524,14 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="31.5">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -2560,20 +2560,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -2589,18 +2589,18 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -2619,24 +2619,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="57">
         <v>8</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="46"/>
+      <c r="J20" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="73"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="31.5">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -2668,14 +2668,14 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="74"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="31.5">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -2704,25 +2704,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="57">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44" t="s">
+      <c r="I22" s="46"/>
+      <c r="J22" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="73"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="31.5">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2754,14 +2754,14 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="74"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2790,25 +2790,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="57">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44" t="s">
+      <c r="I24" s="46"/>
+      <c r="J24" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="44"/>
-      <c r="L24" s="73" t="s">
+      <c r="K24" s="46"/>
+      <c r="L24" s="44" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2823,7 +2823,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -2839,14 +2839,14 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="74"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -2856,7 +2856,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2872,20 +2872,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2904,18 +2904,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2934,25 +2934,25 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="57">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44" t="s">
+      <c r="I28" s="46"/>
+      <c r="J28" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="73"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2984,14 +2984,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="74"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3020,24 +3020,24 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="57">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44" t="s">
+      <c r="I30" s="46"/>
+      <c r="J30" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="44"/>
+      <c r="K30" s="46"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3051,7 +3051,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3070,13 +3070,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3087,7 +3087,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="34">
+    <row r="32" spans="1:17" ht="34" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3106,24 +3106,24 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="57">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44" t="s">
+      <c r="I32" s="46"/>
+      <c r="J32" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="44"/>
+      <c r="K32" s="46"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3139,7 +3139,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="34">
+    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3157,13 +3157,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5">
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3192,20 +3192,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="57"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5">
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3221,18 +3221,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="60"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3248,22 +3248,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="57">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44" t="s">
+      <c r="G36" s="46"/>
+      <c r="H36" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44" t="s">
+      <c r="I36" s="46"/>
+      <c r="J36" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="44"/>
+      <c r="K36" s="46"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3295,13 +3295,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="31.5">
+    <row r="38" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3333,24 +3333,24 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="57">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44" t="s">
+      <c r="I38" s="46"/>
+      <c r="J38" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="K38" s="44"/>
+      <c r="K38" s="46"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3364,7 +3364,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5">
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3380,13 +3380,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3415,25 +3415,25 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="57">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44" t="s">
+      <c r="I40" s="46"/>
+      <c r="J40" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="73"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="2" t="s">
         <v>123</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5">
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3462,14 +3462,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="74"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="2" t="s">
         <v>127</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3495,22 +3495,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="57">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44" t="s">
+      <c r="G42" s="46"/>
+      <c r="H42" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44" t="s">
+      <c r="I42" s="46"/>
+      <c r="J42" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="K42" s="44"/>
+      <c r="K42" s="46"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="31.5">
+    <row r="43" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -3542,19 +3542,19 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
       <c r="L43" s="10"/>
       <c r="M43" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="31.5">
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -3570,16 +3570,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="73"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5">
+      <c r="E44" s="57"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="44"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -3595,212 +3595,233 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="58">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="74"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="45"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -3825,75 +3846,54 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3914,7 +3914,7 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -3931,7 +3931,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -3980,17 +3980,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1">
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -4009,25 +4009,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="57">
         <v>1</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5">
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4046,17 +4046,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4075,26 +4075,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="57">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5">
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4113,17 +4113,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4142,30 +4142,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="57">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44" t="s">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="46"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5">
+    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4184,19 +4184,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5">
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4249,19 +4249,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5">
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4277,17 +4277,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="54"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5">
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4327,7 +4327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4346,26 +4346,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="57">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -4384,17 +4384,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5">
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -4413,24 +4413,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="57">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5">
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4449,19 +4449,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5">
+    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -4499,7 +4499,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5">
+    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -4515,19 +4515,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-    </row>
-    <row r="19" spans="1:16" ht="31.5">
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -4543,17 +4543,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5">
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -4590,7 +4590,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5">
+    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -4609,26 +4609,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="57">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5">
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -4647,20 +4647,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="89" t="s">
+      <c r="N22" s="77" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5">
+    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -4679,25 +4679,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="57">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="89"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5">
+      <c r="N23" s="77"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -4716,17 +4716,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5">
+    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -4742,19 +4742,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5">
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="80"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -4770,17 +4770,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5">
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="76"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -4799,26 +4799,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="57">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5">
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -4837,17 +4837,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5">
+    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -4866,24 +4866,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="57">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="44"/>
+      <c r="K29" s="46"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5">
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -4902,17 +4902,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="45"/>
+      <c r="K30" s="47"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5">
+    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -4931,25 +4931,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="57">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="44"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5">
+    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -4968,17 +4968,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="45"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5">
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -5012,7 +5012,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -5028,19 +5028,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="85"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5">
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="89"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -5056,17 +5056,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="60"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5">
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5100,7 +5100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5">
+    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5116,24 +5116,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="57">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44" t="s">
+      <c r="G37" s="46"/>
+      <c r="H37" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="44"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="44"/>
+      <c r="K37" s="46"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5">
+    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -5149,17 +5149,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="45"/>
+      <c r="K38" s="47"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5">
+    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -5175,15 +5175,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="57">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="87"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="82"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -5210,17 +5210,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="88"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="83"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5">
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -5236,24 +5236,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="57">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44" t="s">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="44"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="44"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5">
+    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -5269,19 +5269,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5">
+    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -5297,22 +5297,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="83">
+      <c r="E43" s="81">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="48"/>
+      <c r="K43" s="49"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5">
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -5328,17 +5328,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="48"/>
+      <c r="K44" s="49"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1">
+    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -5358,231 +5358,183 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -5599,22 +5551,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5635,7 +5635,7 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -5650,7 +5650,7 @@
     <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -5698,16 +5698,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5">
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -5726,24 +5726,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="81">
         <v>1</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5762,16 +5762,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5790,25 +5790,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="81">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5827,16 +5827,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5855,27 +5855,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="81">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5894,18 +5894,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -5957,18 +5957,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5">
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -5984,16 +5984,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
-    </row>
-    <row r="12" spans="1:12" ht="39">
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
+    </row>
+    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -6025,7 +6025,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="46" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -6034,7 +6034,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -6053,11 +6053,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="57">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -6066,12 +6066,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="45"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6090,22 +6090,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="44" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="46" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -6124,21 +6124,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="81">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -6157,15 +6157,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="44" t="s">
+      <c r="E16" s="71"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="46" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -6200,14 +6200,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -6223,18 +6223,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5">
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="80"/>
+    </row>
+    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -6250,16 +6250,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5">
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -6284,20 +6284,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="46" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -6316,23 +6316,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="81">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -6351,25 +6351,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="44" t="s">
+      <c r="E22" s="71"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="46" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="89" t="s">
+      <c r="M22" s="77" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5">
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -6388,22 +6388,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="83">
+      <c r="E23" s="81">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="89"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5">
+      <c r="M23" s="77"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -6422,8 +6422,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="48"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -6453,18 +6453,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="79"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5">
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="80"/>
+    </row>
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -6480,16 +6480,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5">
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="76"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -6508,17 +6508,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="81">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="48"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5">
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -6545,16 +6545,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5">
+    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -6573,23 +6573,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="81">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -6608,16 +6608,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5">
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -6636,15 +6636,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E31" s="81">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5">
+    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -6672,16 +6672,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -6714,7 +6714,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -6730,18 +6730,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="85"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5">
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -6757,16 +6757,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="60"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5">
+      <c r="E35" s="71"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -6799,7 +6799,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5">
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -6815,15 +6815,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="83">
+      <c r="E37" s="81">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48" t="s">
+      <c r="G37" s="49"/>
+      <c r="H37" s="49" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6831,7 +6831,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5">
+    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -6847,16 +6847,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6872,14 +6872,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="81">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="48"/>
+      <c r="G39" s="49"/>
       <c r="H39" s="90"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6906,16 +6906,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="90"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5">
+    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6931,15 +6931,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="83">
+      <c r="E41" s="81">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48" t="s">
+      <c r="G41" s="49"/>
+      <c r="H41" s="49" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6947,7 +6947,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5">
+    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6963,10 +6963,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6974,7 +6974,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5">
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6990,13 +6990,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="83">
+      <c r="E43" s="81">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -7020,16 +7020,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1">
+    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -7049,166 +7049,221 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -7225,61 +7280,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F7AC6-0A21-415D-9AEB-50E86D03A436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB67456-F6F5-4E4A-B543-581E84BC1C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="176">
   <si>
     <t>Num</t>
   </si>
@@ -703,12 +703,15 @@
       <t xml:space="preserve"> : https://capytale2.ac-paris.fr/web/c/67cf-1762303</t>
     </r>
   </si>
+  <si>
+    <t>VR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1258,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1389,145 +1392,151 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1850,13 +1859,13 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6:J7"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -1874,7 +1883,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1920,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1929,29 +1938,29 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="72">
         <v>1</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="67"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="71"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1970,14 +1979,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="52"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="70"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -1988,7 +1997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2007,25 +2016,25 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="64">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="52"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2052,14 +2061,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="52"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2070,7 +2079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2089,25 +2098,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="64">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="52"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="70"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -2115,7 +2126,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2134,14 +2145,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="52"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="70"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2152,7 +2163,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2196,7 +2207,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2214,18 +2225,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2241,16 +2252,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2290,7 +2301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="31.5">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2309,24 +2320,24 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="64">
         <v>5</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49" t="s">
+      <c r="I12" s="61"/>
+      <c r="J12" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="52"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2334,7 +2345,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2353,14 +2364,14 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="52"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2373,7 +2384,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2392,25 +2403,25 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="64">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49" t="s">
+      <c r="I14" s="61"/>
+      <c r="J14" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="52"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2420,7 +2431,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2439,14 +2450,14 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="52"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2459,7 +2470,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2478,22 +2489,22 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="64">
         <v>7</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49" t="s">
+      <c r="G16" s="61"/>
+      <c r="H16" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49" t="s">
+      <c r="I16" s="61"/>
+      <c r="J16" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="52" t="s">
+      <c r="K16" s="61"/>
+      <c r="L16" s="70" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2505,7 +2516,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="32" thickBot="1">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2524,14 +2535,14 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="53"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="76"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -2544,7 +2555,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -2560,20 +2571,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -2589,18 +2600,18 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -2619,24 +2630,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="46">
         <v>8</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46" t="s">
+      <c r="I20" s="44"/>
+      <c r="J20" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="73"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2649,7 +2660,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -2668,14 +2679,14 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="45"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="74"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2685,7 +2696,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -2704,25 +2715,27 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="46">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46" t="s">
+      <c r="I22" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="73"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -2735,7 +2748,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2754,14 +2767,14 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="45"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -2771,7 +2784,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2790,25 +2803,27 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="46">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46" t="s">
+      <c r="I24" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="46"/>
-      <c r="L24" s="44" t="s">
+      <c r="K24" s="44"/>
+      <c r="L24" s="73" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2823,7 +2838,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -2839,14 +2854,14 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="45"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -2856,7 +2871,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2872,20 +2887,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2904,18 +2919,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2934,25 +2949,25 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="46">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46" t="s">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="46"/>
-      <c r="L28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="73"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -2965,7 +2980,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2984,14 +2999,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="45"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3001,7 +3016,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3020,24 +3035,24 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="46">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46" t="s">
+      <c r="I30" s="44"/>
+      <c r="J30" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="46"/>
+      <c r="K30" s="44"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3051,7 +3066,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3070,13 +3085,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3087,7 +3102,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="34">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3106,24 +3121,24 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="46">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46" t="s">
+      <c r="I32" s="44"/>
+      <c r="J32" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="46"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3139,7 +3154,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="34">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3157,13 +3172,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3176,7 +3191,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3192,20 +3207,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="56"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3221,18 +3236,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3248,22 +3263,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="46">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46" t="s">
+      <c r="G36" s="44"/>
+      <c r="H36" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46" t="s">
+      <c r="I36" s="44"/>
+      <c r="J36" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="46"/>
+      <c r="K36" s="44"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3279,7 +3294,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3295,13 +3310,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3317,7 +3332,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3333,24 +3348,24 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="46">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46" t="s">
+      <c r="I38" s="44"/>
+      <c r="J38" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="K38" s="46"/>
+      <c r="K38" s="44"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3364,7 +3379,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3380,13 +3395,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3399,7 +3414,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3415,25 +3430,25 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="46">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="46" t="s">
+      <c r="H40" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46" t="s">
+      <c r="I40" s="44"/>
+      <c r="J40" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="K40" s="46"/>
-      <c r="L40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="73"/>
       <c r="M40" s="2" t="s">
         <v>123</v>
       </c>
@@ -3446,7 +3461,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3462,14 +3477,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="45"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="74"/>
       <c r="M41" s="2" t="s">
         <v>127</v>
       </c>
@@ -3479,7 +3494,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3495,22 +3510,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="46">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46" t="s">
+      <c r="G42" s="44"/>
+      <c r="H42" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46" t="s">
+      <c r="I42" s="44"/>
+      <c r="J42" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="K42" s="46"/>
+      <c r="K42" s="44"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -3526,7 +3541,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -3542,19 +3557,19 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
       <c r="L43" s="10"/>
       <c r="M43" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -3570,16 +3585,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="44"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E44" s="46"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="73"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -3595,281 +3610,170 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="47">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="45"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="74"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L44:L45"/>
@@ -3894,6 +3798,117 @@
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="E36:E37"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G40:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3914,7 +3929,7 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -3931,7 +3946,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -3980,17 +3995,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -4009,25 +4024,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="46">
         <v>1</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4046,17 +4061,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4075,26 +4090,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="46">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4113,17 +4128,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4142,30 +4157,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="46">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="46"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4184,19 +4199,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4233,7 +4248,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4249,19 +4264,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4277,17 +4292,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4327,7 +4342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4346,26 +4361,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="46">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -4384,17 +4399,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -4413,24 +4428,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="46">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4449,19 +4464,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -4499,7 +4514,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -4515,19 +4530,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80"/>
-    </row>
-    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -4543,17 +4558,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="76"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -4590,7 +4605,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -4609,26 +4624,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="46">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -4647,20 +4662,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="77" t="s">
+      <c r="N22" s="89" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -4679,25 +4694,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="46">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="77"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="89"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -4716,17 +4731,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -4742,19 +4757,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -4770,17 +4785,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="76"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -4799,26 +4814,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="46">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="46"/>
+      <c r="K27" s="44"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -4837,17 +4852,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="47"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -4866,24 +4881,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="46">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="46"/>
+      <c r="K29" s="44"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -4902,17 +4917,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="47"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -4931,25 +4946,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="46">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="46"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -4968,17 +4983,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="47"/>
+      <c r="K32" s="45"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -5012,7 +5027,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -5028,19 +5043,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="89"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="85"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -5056,17 +5071,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="73"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="59"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5100,7 +5115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5116,24 +5131,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="46">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="46"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="46"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -5149,17 +5164,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="47"/>
+      <c r="K38" s="45"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -5175,15 +5190,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="46">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="82"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="87"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5194,7 +5209,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -5210,17 +5225,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="83"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="88"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -5236,24 +5251,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="46">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46" t="s">
+      <c r="G41" s="44"/>
+      <c r="H41" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="46"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="46"/>
+      <c r="K41" s="44"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -5269,19 +5284,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="47"/>
+      <c r="K42" s="45"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -5297,22 +5312,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="83">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="49"/>
+      <c r="K43" s="61"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -5328,17 +5343,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="49"/>
+      <c r="K44" s="61"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -5358,167 +5373,247 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="84"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -5535,86 +5630,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5635,7 +5650,7 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -5650,7 +5665,7 @@
     <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5680,7 +5695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -5698,16 +5713,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -5726,24 +5741,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="81">
+      <c r="E3" s="83">
         <v>1</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5762,16 +5777,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="31.5">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5790,25 +5805,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="83">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5827,16 +5842,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5855,27 +5870,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="83">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="49"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5894,18 +5909,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5941,7 +5956,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -5957,18 +5972,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -5984,16 +5999,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
-    </row>
-    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
+    </row>
+    <row r="12" spans="1:12" ht="39">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -6025,7 +6040,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="44" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -6034,7 +6049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -6053,11 +6068,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="46">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -6066,12 +6081,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6090,22 +6105,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="46" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="44" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -6124,21 +6139,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="81">
+      <c r="E15" s="83">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -6157,15 +6172,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="46" t="s">
+      <c r="E16" s="57"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="44" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -6174,7 +6189,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -6200,14 +6215,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -6223,18 +6238,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="80"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+    </row>
+    <row r="19" spans="1:15" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -6250,16 +6265,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -6284,20 +6299,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="44" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -6316,23 +6331,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="81">
+      <c r="E21" s="83">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -6351,25 +6366,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="44" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="77" t="s">
+      <c r="M22" s="89" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -6388,22 +6403,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23" s="83">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="77"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M23" s="89"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -6422,8 +6437,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6437,7 +6452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -6453,18 +6468,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="80"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="79"/>
+    </row>
+    <row r="26" spans="1:15" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -6480,16 +6495,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="76"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -6508,17 +6523,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27" s="83">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6526,7 +6541,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -6545,16 +6560,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -6573,23 +6588,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29" s="83">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -6608,16 +6623,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -6636,15 +6651,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="81">
+      <c r="E31" s="83">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6653,7 +6668,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -6672,16 +6687,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -6714,7 +6729,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -6730,18 +6745,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="89"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="85"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -6757,16 +6772,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -6799,7 +6814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -6815,15 +6830,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="81">
+      <c r="E37" s="83">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="61"/>
+      <c r="H37" s="61" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6831,7 +6846,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -6847,16 +6862,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="71"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6872,14 +6887,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="83">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="49"/>
+      <c r="G39" s="61"/>
       <c r="H39" s="90"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -6890,7 +6905,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6906,16 +6921,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="71"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="90"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6931,15 +6946,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="81">
+      <c r="E41" s="83">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49" t="s">
+      <c r="G41" s="61"/>
+      <c r="H41" s="61" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6947,7 +6962,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6963,10 +6978,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6974,7 +6989,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -6990,13 +7005,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="83">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -7004,7 +7019,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -7020,16 +7035,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -7049,182 +7064,205 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="84"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -7241,45 +7279,22 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB67456-F6F5-4E4A-B543-581E84BC1C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC581C-54BD-4AB1-9760-9AC0B7E2592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="177">
   <si>
     <t>Num</t>
   </si>
@@ -706,12 +706,15 @@
   <si>
     <t>VR</t>
   </si>
+  <si>
+    <t>XP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,25 +1395,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,55 +1500,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1500,6 +1512,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1509,34 +1533,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1865,7 +1877,7 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -1883,7 +1895,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1932,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -1938,29 +1950,33 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="62">
         <v>1</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="62" t="s">
+      <c r="I2" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="60"/>
-      <c r="L2" s="71"/>
+      <c r="K2" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" s="69"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -1979,14 +1995,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="70"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -1997,7 +2013,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2016,25 +2032,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="48">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="70"/>
+      <c r="K4" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="52"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2061,14 +2079,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="70"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2079,7 +2097,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2098,27 +2116,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="48">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="70"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -2126,7 +2144,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2145,14 +2163,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="70"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2163,7 +2181,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2207,7 +2225,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2225,7 +2243,7 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="48" t="s">
         <v>142</v>
       </c>
       <c r="F9" s="65"/>
@@ -2236,7 +2254,7 @@
       <c r="K9" s="65"/>
       <c r="L9" s="66"/>
     </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1">
+    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2252,16 +2270,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1">
+      <c r="E10" s="50"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2301,7 +2319,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="31.5">
+    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2320,24 +2338,24 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="48">
         <v>5</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61" t="s">
+      <c r="I12" s="49"/>
+      <c r="J12" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="70"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2345,7 +2363,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2364,14 +2382,14 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="70"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2384,7 +2402,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="31.5">
+    <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2403,25 +2421,25 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="48">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61" t="s">
+      <c r="I14" s="49"/>
+      <c r="J14" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="70"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2431,7 +2449,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2450,14 +2468,14 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="70"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2470,7 +2488,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="31.5">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2489,22 +2507,22 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="48">
         <v>7</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61" t="s">
+      <c r="G16" s="49"/>
+      <c r="H16" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61" t="s">
+      <c r="I16" s="49"/>
+      <c r="J16" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="61"/>
-      <c r="L16" s="70" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="52" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2516,7 +2534,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1">
+    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2535,14 +2553,14 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="67"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -2555,7 +2573,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="31.5">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -2571,20 +2589,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -2600,18 +2618,18 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -2630,24 +2648,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="57">
         <v>8</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="46"/>
+      <c r="J20" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="73"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2660,7 +2678,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="31.5">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -2679,14 +2697,14 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="74"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2696,7 +2714,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="31.5">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -2715,27 +2733,27 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="57">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="91" t="s">
+      <c r="H22" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="73"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -2748,7 +2766,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="31.5">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2767,14 +2785,14 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="74"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -2784,7 +2802,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2803,27 +2821,27 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="57">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="44"/>
-      <c r="L24" s="73" t="s">
+      <c r="K24" s="46"/>
+      <c r="L24" s="44" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2838,7 +2856,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -2854,14 +2872,14 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="74"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -2871,7 +2889,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -2887,20 +2905,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -2919,18 +2937,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -2949,25 +2967,25 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="57">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44" t="s">
+      <c r="I28" s="46"/>
+      <c r="J28" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="73"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -2980,7 +2998,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -2999,14 +3017,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="74"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3016,7 +3034,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3035,24 +3053,24 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="57">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44" t="s">
+      <c r="I30" s="46"/>
+      <c r="J30" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="44"/>
+      <c r="K30" s="46"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3066,7 +3084,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5">
+    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3085,13 +3103,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3102,7 +3120,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="34">
+    <row r="32" spans="1:17" ht="34" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3121,24 +3139,24 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="57">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44" t="s">
+      <c r="I32" s="46"/>
+      <c r="J32" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="44"/>
+      <c r="K32" s="46"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3154,7 +3172,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="34">
+    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3172,13 +3190,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3191,7 +3209,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5">
+    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3207,20 +3225,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="56"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="75"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5">
+    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3236,18 +3254,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5">
+    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3263,22 +3281,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="57">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44" t="s">
+      <c r="G36" s="46"/>
+      <c r="H36" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44" t="s">
+      <c r="I36" s="46"/>
+      <c r="J36" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="44"/>
+      <c r="K36" s="46"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3294,7 +3312,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5">
+    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3310,13 +3328,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3332,7 +3350,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="31.5">
+    <row r="38" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3348,24 +3366,24 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="57">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44" t="s">
+      <c r="I38" s="46"/>
+      <c r="J38" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="K38" s="44"/>
+      <c r="K38" s="46"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3379,7 +3397,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5">
+    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3395,13 +3413,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3414,7 +3432,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5">
+    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3430,25 +3448,25 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="57">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44" t="s">
+      <c r="I40" s="46"/>
+      <c r="J40" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="K40" s="44"/>
-      <c r="L40" s="73"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="2" t="s">
         <v>123</v>
       </c>
@@ -3461,7 +3479,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5">
+    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3477,14 +3495,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="74"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="2" t="s">
         <v>127</v>
       </c>
@@ -3494,7 +3512,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5">
+    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3510,22 +3528,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="57">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44" t="s">
+      <c r="G42" s="46"/>
+      <c r="H42" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44" t="s">
+      <c r="I42" s="46"/>
+      <c r="J42" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="K42" s="44"/>
+      <c r="K42" s="46"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -3541,7 +3559,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="31.5">
+    <row r="43" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -3557,19 +3575,19 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
       <c r="L43" s="10"/>
       <c r="M43" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="31.5">
+    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -3585,16 +3603,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="46"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="73"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5">
+      <c r="E44" s="57"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="44"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -3610,170 +3628,281 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="58">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="74"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="45"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L44:L45"/>
@@ -3798,117 +3927,6 @@
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G40:G41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3929,7 +3947,7 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -3946,7 +3964,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3977,7 +3995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5">
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -3995,17 +4013,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1">
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -4024,25 +4042,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="57">
         <v>1</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5">
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4061,17 +4079,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4090,26 +4108,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="57">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5">
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4128,17 +4146,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4157,30 +4175,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="57">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44" t="s">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="46"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5">
+    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4199,19 +4217,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5">
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4248,7 +4266,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4264,19 +4282,19 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-    </row>
-    <row r="11" spans="1:13" ht="31.5">
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="82"/>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4292,17 +4310,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5">
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4342,7 +4360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4361,26 +4379,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="57">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -4399,17 +4417,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5">
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -4428,24 +4446,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="57">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5">
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4464,19 +4482,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5">
+    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -4514,7 +4532,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5">
+    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -4530,19 +4548,19 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-    </row>
-    <row r="19" spans="1:16" ht="31.5">
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82"/>
+    </row>
+    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -4558,17 +4576,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5">
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -4605,7 +4623,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5">
+    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -4624,26 +4642,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="57">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5">
+    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -4662,20 +4680,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="89" t="s">
+      <c r="N22" s="79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5">
+    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -4694,25 +4712,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="57">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="89"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5">
+      <c r="N23" s="79"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -4731,17 +4749,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5">
+    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -4757,19 +4775,19 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-    </row>
-    <row r="26" spans="1:16" ht="31.5">
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="82"/>
+    </row>
+    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -4785,17 +4803,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="53"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5">
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -4814,26 +4832,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="57">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5">
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -4852,17 +4870,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5">
+    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -4881,24 +4899,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="57">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="44"/>
+      <c r="K29" s="46"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5">
+    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -4917,17 +4935,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="45"/>
+      <c r="K30" s="47"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5">
+    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -4946,25 +4964,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="57">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="44"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5">
+    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -4983,17 +5001,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="45"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5">
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -5027,7 +5045,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -5046,16 +5064,16 @@
       <c r="E34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="85"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5">
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="91"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -5071,17 +5089,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="59"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5">
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="78"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5115,7 +5133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5">
+    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5131,24 +5149,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="57">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44" t="s">
+      <c r="G37" s="46"/>
+      <c r="H37" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="44"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="44"/>
+      <c r="K37" s="46"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5">
+    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -5164,17 +5182,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="45"/>
+      <c r="K38" s="47"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5">
+    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -5190,15 +5208,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="57">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="87"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="84"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5209,7 +5227,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -5225,17 +5243,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="88"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="85"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5">
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -5251,24 +5269,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="57">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44" t="s">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="44"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="44"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5">
+    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -5284,19 +5302,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5">
+    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -5316,18 +5334,18 @@
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="61"/>
+      <c r="K43" s="49"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5">
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -5343,17 +5361,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="61"/>
+      <c r="K44" s="49"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1">
+    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -5374,230 +5392,182 @@
         <v>18</v>
       </c>
       <c r="F45" s="86"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -5614,22 +5584,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5650,7 +5668,7 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -5665,7 +5683,7 @@
     <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5695,7 +5713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5">
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -5713,16 +5731,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5">
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -5744,21 +5762,21 @@
       <c r="E3" s="83">
         <v>1</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5">
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5777,16 +5795,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5">
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5809,21 +5827,21 @@
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5842,16 +5860,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5">
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5874,23 +5892,23 @@
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="61"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5909,18 +5927,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5956,7 +5974,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -5972,18 +5990,18 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5">
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -5999,16 +6017,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" spans="1:12" ht="39">
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
+    </row>
+    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -6040,7 +6058,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="46" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -6049,7 +6067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5">
+    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -6068,11 +6086,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="57">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -6081,12 +6099,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="45"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6105,22 +6123,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="44" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="46" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5">
+    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -6143,17 +6161,17 @@
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5">
+    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -6172,15 +6190,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="44" t="s">
+      <c r="E16" s="76"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="46" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -6189,7 +6207,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -6215,14 +6233,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -6238,18 +6256,18 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="79"/>
-    </row>
-    <row r="19" spans="1:15" ht="31.5">
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="82"/>
+    </row>
+    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -6265,16 +6283,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5">
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -6299,20 +6317,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="46" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5">
+    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -6335,19 +6353,19 @@
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5">
+    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -6366,25 +6384,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="44" t="s">
+      <c r="E22" s="76"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="46" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="89" t="s">
+      <c r="M22" s="79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5">
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -6407,18 +6425,18 @@
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="61" t="s">
+      <c r="F23" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="89"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5">
+      <c r="M23" s="79"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -6437,8 +6455,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="61"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6452,7 +6470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -6468,18 +6486,18 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="79"/>
-    </row>
-    <row r="26" spans="1:15" ht="31.5">
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="82"/>
+    </row>
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -6495,16 +6513,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="53"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5">
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -6527,13 +6545,13 @@
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="61"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6541,7 +6559,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5">
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -6560,16 +6578,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5">
+    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -6592,19 +6610,19 @@
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="61" t="s">
+      <c r="G29" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="61"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -6623,16 +6641,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5">
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -6655,11 +6673,11 @@
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6668,7 +6686,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5">
+    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -6687,16 +6705,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5">
+    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -6729,7 +6747,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5">
+    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -6748,15 +6766,15 @@
       <c r="E34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="85"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5">
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -6772,16 +6790,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5">
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -6814,7 +6832,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5">
+    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -6834,11 +6852,11 @@
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61" t="s">
+      <c r="G37" s="49"/>
+      <c r="H37" s="49" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6846,7 +6864,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5">
+    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -6862,16 +6880,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5">
+    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -6891,11 +6909,11 @@
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="61" t="s">
+      <c r="F39" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="61"/>
-      <c r="H39" s="90"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -6905,7 +6923,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5">
+    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -6921,16 +6939,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="90"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5">
+    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -6950,11 +6968,11 @@
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61" t="s">
+      <c r="G41" s="49"/>
+      <c r="H41" s="49" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6962,7 +6980,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5">
+    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -6978,10 +6996,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -6989,7 +7007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5">
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -7009,9 +7027,9 @@
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -7019,7 +7037,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5">
+    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -7035,16 +7053,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1">
+    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -7065,165 +7083,220 @@
         <v>18</v>
       </c>
       <c r="F45" s="86"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -7240,61 +7313,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEC581C-54BD-4AB1-9760-9AC0B7E2592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA169CD-DF9C-4E51-9F8B-F61C70A7C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1395,160 +1395,154 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1871,10 +1865,10 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4:H5"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1950,28 +1944,28 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="69">
         <v>1</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="66"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -1995,14 +1989,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="52"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2032,27 +2026,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="58">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="55"/>
+      <c r="J4" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="52"/>
+      <c r="L4" s="65"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -2079,14 +2073,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="52"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2116,27 +2110,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="58">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="52"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -2163,14 +2157,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="52"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="65"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2243,16 +2237,16 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="66"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -2270,14 +2264,14 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -2338,24 +2332,24 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="58">
         <v>5</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49" t="s">
+      <c r="I12" s="55"/>
+      <c r="J12" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="52"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="65"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2382,14 +2376,14 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="52"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="65"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2421,25 +2415,25 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="58">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49" t="s">
+      <c r="I14" s="55"/>
+      <c r="J14" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="52"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="65"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2468,14 +2462,14 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="52"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="65"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2507,22 +2501,22 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="58">
         <v>7</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49" t="s">
+      <c r="I16" s="55"/>
+      <c r="J16" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="52" t="s">
+      <c r="K16" s="55"/>
+      <c r="L16" s="65" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2553,14 +2547,14 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="53"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -2589,16 +2583,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -2618,14 +2612,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
@@ -2648,24 +2642,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="52">
         <v>8</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46" t="s">
+      <c r="I20" s="44"/>
+      <c r="J20" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="76"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2697,14 +2691,14 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="45"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="77"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2733,27 +2727,27 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="52">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="46" t="s">
+      <c r="J22" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="76"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -2785,14 +2779,14 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="45"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="77"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -2821,27 +2815,27 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="52">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H24" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="46" t="s">
+      <c r="J24" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="46"/>
-      <c r="L24" s="44" t="s">
+      <c r="K24" s="44"/>
+      <c r="L24" s="76" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2872,14 +2866,14 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="45"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="77"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -2905,16 +2899,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
@@ -2937,14 +2931,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="72"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -2967,25 +2961,25 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="52">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46" t="s">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="46"/>
-      <c r="L28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="76"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3017,14 +3011,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="45"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="77"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3053,24 +3047,24 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="52">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46" t="s">
+      <c r="I30" s="44"/>
+      <c r="J30" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="46"/>
+      <c r="K30" s="44"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3103,13 +3097,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3139,24 +3133,24 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="52">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46" t="s">
+      <c r="I32" s="44"/>
+      <c r="J32" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="46"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3190,13 +3184,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3225,16 +3219,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="75"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
@@ -3254,14 +3248,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="78"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -3281,22 +3275,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="52">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46" t="s">
+      <c r="G36" s="44"/>
+      <c r="H36" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46" t="s">
+      <c r="I36" s="44"/>
+      <c r="J36" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="46"/>
+      <c r="K36" s="44"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3328,13 +3322,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3366,24 +3360,24 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="52">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46" t="s">
+      <c r="I38" s="44"/>
+      <c r="J38" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="K38" s="46"/>
+      <c r="K38" s="44"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3413,13 +3407,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3448,25 +3442,25 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="52">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="46" t="s">
+      <c r="H40" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46" t="s">
+      <c r="I40" s="44"/>
+      <c r="J40" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="K40" s="46"/>
-      <c r="L40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="76"/>
       <c r="M40" s="2" t="s">
         <v>123</v>
       </c>
@@ -3495,14 +3489,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="45"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="77"/>
       <c r="M41" s="2" t="s">
         <v>127</v>
       </c>
@@ -3528,22 +3522,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="52">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46" t="s">
+      <c r="G42" s="44"/>
+      <c r="H42" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46" t="s">
+      <c r="I42" s="44"/>
+      <c r="J42" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="K42" s="46"/>
+      <c r="K42" s="44"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -3575,13 +3569,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
       <c r="L43" s="10"/>
       <c r="M43" s="2" t="s">
         <v>129</v>
@@ -3603,14 +3597,14 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="44"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="76"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
@@ -3628,17 +3622,17 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="53">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="77"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -3792,77 +3786,46 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="E24:E25"/>
@@ -3887,46 +3850,77 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4013,15 +4007,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -4042,21 +4036,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="52">
         <v>1</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
@@ -4079,13 +4073,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
@@ -4108,22 +4102,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="52">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
@@ -4146,13 +4140,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
@@ -4175,24 +4169,24 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="52">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="46"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -4217,13 +4211,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
@@ -4310,15 +4304,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -4379,22 +4373,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="52">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
@@ -4417,13 +4411,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
@@ -4446,20 +4440,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="52">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
@@ -4482,13 +4476,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -4576,15 +4570,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -4642,20 +4636,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="52">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
@@ -4680,16 +4674,16 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="79" t="s">
+      <c r="N22" s="92" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4712,23 +4706,23 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="52">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="79"/>
+      <c r="N23" s="92"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -4749,13 +4743,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
@@ -4803,15 +4797,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -4832,20 +4826,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="52">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="46"/>
+      <c r="K27" s="44"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
@@ -4870,13 +4864,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="47"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
@@ -4899,20 +4893,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="52">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="46"/>
+      <c r="K29" s="44"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
@@ -4935,13 +4929,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="47"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
@@ -4964,18 +4958,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="52">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="46"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
@@ -5001,13 +4995,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="47"/>
+      <c r="K32" s="45"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
@@ -5061,17 +5055,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="91"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="88"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -5089,15 +5083,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="78"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -5149,20 +5143,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="52">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="46"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="46"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
@@ -5182,13 +5176,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="47"/>
+      <c r="K38" s="45"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
@@ -5208,15 +5202,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="52">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="84"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="90"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5243,10 +5237,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="85"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -5269,20 +5263,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="52">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46" t="s">
+      <c r="G41" s="44"/>
+      <c r="H41" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="46"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="46"/>
+      <c r="K41" s="44"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
@@ -5302,13 +5296,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="47"/>
+      <c r="K42" s="45"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
@@ -5330,16 +5324,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="83">
+      <c r="E43" s="86">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="49"/>
+      <c r="K43" s="55"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -5361,13 +5355,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="76"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="49"/>
+      <c r="K44" s="55"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -5391,9 +5385,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -5552,6 +5546,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -5568,86 +5642,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5731,14 +5725,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -5759,19 +5753,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="86">
         <v>1</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -5795,11 +5789,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -5823,20 +5817,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="86">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -5860,11 +5854,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -5888,20 +5882,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="86">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="49"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -5927,11 +5921,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -6017,14 +6011,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -6058,7 +6052,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="44" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -6086,11 +6080,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="52">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="44" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -6099,7 +6093,7 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
@@ -6123,15 +6117,15 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="46" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="44" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
@@ -6157,16 +6151,16 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="86">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
@@ -6190,15 +6184,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="46" t="s">
+      <c r="E16" s="49"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="44" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -6233,9 +6227,9 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
@@ -6283,14 +6277,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -6317,13 +6311,13 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="44" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
@@ -6349,16 +6343,16 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="86">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
@@ -6384,21 +6378,21 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="49"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="44" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="79" t="s">
+      <c r="M22" s="92" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6421,20 +6415,20 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="83">
+      <c r="E23" s="86">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="79"/>
+      <c r="M23" s="92"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -6455,8 +6449,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6513,14 +6507,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="75"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -6541,17 +6535,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="86">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6578,10 +6572,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -6606,17 +6600,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="86">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -6641,10 +6635,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -6669,15 +6663,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E31" s="86">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6705,10 +6699,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -6763,16 +6757,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="88"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -6790,14 +6784,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="76"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="78"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -6848,15 +6842,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="83">
+      <c r="E37" s="86">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="55"/>
+      <c r="H37" s="55" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6880,10 +6874,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="76"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -6905,15 +6899,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="86">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="92"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="93"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -6939,10 +6933,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="92"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -6964,15 +6958,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="83">
+      <c r="E41" s="86">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49" t="s">
+      <c r="G41" s="55"/>
+      <c r="H41" s="55" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -6996,10 +6990,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="76"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -7023,13 +7017,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="83">
+      <c r="E43" s="86">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -7053,10 +7047,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="76"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -7082,9 +7076,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -7242,22 +7236,45 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -7274,45 +7291,22 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA169CD-DF9C-4E51-9F8B-F61C70A7C75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8DDEDD-3A0B-4E42-8D5F-132D4F169DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="182">
   <si>
     <t>Num</t>
   </si>
@@ -708,6 +708,21 @@
   </si>
   <si>
     <t>XP</t>
+  </si>
+  <si>
+    <t>PTSI1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTSI2 </t>
+  </si>
+  <si>
+    <t>PTSI 1</t>
+  </si>
+  <si>
+    <t>RIEN</t>
+  </si>
+  <si>
+    <t>PTSI 2</t>
   </si>
 </sst>
 </file>
@@ -1395,6 +1410,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1417,12 +1438,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1865,10 +1880,10 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1925,6 +1940,9 @@
       <c r="O1" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
@@ -1968,6 +1986,12 @@
       <c r="L2" s="66"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2006,6 +2030,12 @@
       <c r="O3" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
@@ -2052,6 +2082,12 @@
       </c>
       <c r="O4" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2090,6 +2126,12 @@
       <c r="O5" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="P5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
@@ -2136,6 +2178,12 @@
       </c>
       <c r="O6" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2174,6 +2222,12 @@
       <c r="O7" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="P7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
@@ -2217,6 +2271,12 @@
       </c>
       <c r="O8" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2312,6 +2372,12 @@
       <c r="O11" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="P11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -2355,6 +2421,12 @@
       </c>
       <c r="O12" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2393,8 +2465,12 @@
       <c r="O13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -2440,8 +2516,12 @@
       <c r="O14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
@@ -2479,8 +2559,12 @@
       <c r="O15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
@@ -2525,8 +2609,12 @@
       <c r="O16" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
@@ -2564,8 +2652,12 @@
       <c r="O17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
@@ -2620,7 +2712,6 @@
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="75"/>
-      <c r="P19" s="2"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2642,23 +2733,23 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="44">
         <v>8</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="46" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="46"/>
+      <c r="J20" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="46"/>
       <c r="L20" s="76"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
@@ -2669,8 +2760,12 @@
       <c r="O20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
+      <c r="P20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
@@ -2691,13 +2786,13 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="55"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="77"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
@@ -2705,8 +2800,12 @@
       <c r="O21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
@@ -2727,26 +2826,26 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="44">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="46" t="s">
         <v>50</v>
       </c>
       <c r="H22" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="44"/>
+      <c r="K22" s="46"/>
       <c r="L22" s="76"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
@@ -2757,8 +2856,9 @@
       <c r="O22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
@@ -2779,13 +2879,13 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="68"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="77"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
@@ -2793,7 +2893,9 @@
       <c r="O23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2815,26 +2917,26 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="44">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="46" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="K24" s="44"/>
+      <c r="K24" s="46"/>
       <c r="L24" s="76" t="s">
         <v>27</v>
       </c>
@@ -2847,7 +2949,9 @@
       <c r="O24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P24" s="2"/>
+      <c r="P24" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2866,13 +2970,13 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
       <c r="H25" s="68"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="77"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
@@ -2880,7 +2984,9 @@
       <c r="O25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2961,24 +3067,24 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="44">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="G28" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44" t="s">
+      <c r="I28" s="46"/>
+      <c r="J28" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="44"/>
+      <c r="K28" s="46"/>
       <c r="L28" s="76"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
@@ -2989,7 +3095,9 @@
       <c r="O28" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3011,13 +3119,13 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="77"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
@@ -3025,7 +3133,9 @@
       <c r="O29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3047,24 +3157,24 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="44">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44" t="s">
+      <c r="I30" s="46"/>
+      <c r="J30" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="44"/>
+      <c r="K30" s="46"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3075,7 +3185,9 @@
       <c r="O30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3097,13 +3209,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3111,7 +3223,9 @@
       <c r="O31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="P31" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="Q31" s="4"/>
     </row>
     <row r="32" spans="1:17" ht="34" x14ac:dyDescent="0.35">
@@ -3133,24 +3247,24 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="44">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44" t="s">
+      <c r="I32" s="46"/>
+      <c r="J32" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="44"/>
+      <c r="K32" s="46"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3163,7 +3277,9 @@
       <c r="O32" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P32" s="2"/>
+      <c r="P32" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
@@ -3184,13 +3300,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3200,7 +3316,9 @@
       <c r="O33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P33" s="2"/>
+      <c r="P33" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3219,16 +3337,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
@@ -3248,14 +3366,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -3275,22 +3393,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="44">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44" t="s">
+      <c r="G36" s="46"/>
+      <c r="H36" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44" t="s">
+      <c r="I36" s="46"/>
+      <c r="J36" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="44"/>
+      <c r="K36" s="46"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3322,13 +3440,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3360,24 +3478,24 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="44">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44" t="s">
+      <c r="I38" s="46"/>
+      <c r="J38" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="K38" s="44"/>
+      <c r="K38" s="46"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3407,13 +3525,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3442,24 +3560,24 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="44">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G40" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="H40" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44" t="s">
+      <c r="I40" s="46"/>
+      <c r="J40" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="K40" s="44"/>
+      <c r="K40" s="46"/>
       <c r="L40" s="76"/>
       <c r="M40" s="2" t="s">
         <v>123</v>
@@ -3489,13 +3607,13 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="77"/>
       <c r="M41" s="2" t="s">
         <v>127</v>
@@ -3522,22 +3640,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="44">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44" t="s">
+      <c r="G42" s="46"/>
+      <c r="H42" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44" t="s">
+      <c r="I42" s="46"/>
+      <c r="J42" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="K42" s="44"/>
+      <c r="K42" s="46"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -3569,13 +3687,13 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
       <c r="L43" s="10"/>
       <c r="M43" s="2" t="s">
         <v>129</v>
@@ -3597,13 +3715,13 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
       <c r="L44" s="76"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -3622,16 +3740,16 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E45" s="45">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
       <c r="L45" s="77"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -3810,11 +3928,6 @@
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
@@ -3826,11 +3939,6 @@
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="I24:I25"/>
     <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I4:I5"/>
@@ -3850,6 +3958,12 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I28:I29"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
@@ -3868,18 +3982,11 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="F44:F45"/>
@@ -3898,11 +4005,7 @@
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="H40:H41"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
     <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I28:I29"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="K30:K31"/>
@@ -3912,6 +4015,21 @@
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="K36:K37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="G38:G39"/>
@@ -3922,8 +4040,9 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:H37"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="34" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4036,21 +4155,21 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="44">
         <v>1</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
@@ -4073,13 +4192,13 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
@@ -4102,22 +4221,22 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="44">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
@@ -4140,13 +4259,13 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
@@ -4169,24 +4288,24 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="44">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44" t="s">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="46"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
@@ -4211,13 +4330,13 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
@@ -4373,22 +4492,22 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="44">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
@@ -4411,13 +4530,13 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
@@ -4440,20 +4559,20 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="44">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
@@ -4476,13 +4595,13 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -4636,20 +4755,20 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="44">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
@@ -4674,13 +4793,13 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
       <c r="N22" s="92" t="s">
@@ -4706,20 +4825,20 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="44">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
       <c r="N23" s="92"/>
@@ -4743,13 +4862,13 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
@@ -4826,20 +4945,20 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="44">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="44"/>
+      <c r="K27" s="46"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
@@ -4864,13 +4983,13 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
@@ -4893,20 +5012,20 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="44">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="G29" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="44"/>
+      <c r="K29" s="46"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
@@ -4929,13 +5048,13 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="45"/>
+      <c r="K30" s="47"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
@@ -4958,18 +5077,18 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="44">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="44"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
@@ -4995,13 +5114,13 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="45"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
@@ -5083,15 +5202,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="53"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -5143,20 +5262,20 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="44">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44" t="s">
+      <c r="G37" s="46"/>
+      <c r="H37" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="44"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="44"/>
+      <c r="K37" s="46"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
@@ -5176,13 +5295,13 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="45"/>
+      <c r="K38" s="47"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
@@ -5202,14 +5321,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="44">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="44"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="90"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
@@ -5237,9 +5356,9 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="91"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
@@ -5263,20 +5382,20 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="52">
+      <c r="E41" s="44">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44" t="s">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="44"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="44"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
@@ -5296,13 +5415,13 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
@@ -5355,7 +5474,7 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="49"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
@@ -5789,7 +5908,7 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
@@ -5854,7 +5973,7 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -5921,7 +6040,7 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
@@ -6052,7 +6171,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="46" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -6080,11 +6199,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="44">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -6093,7 +6212,7 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="45"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
@@ -6117,15 +6236,15 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="44" t="s">
+      <c r="E14" s="45"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="46" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
@@ -6158,9 +6277,9 @@
       <c r="F15" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
@@ -6184,15 +6303,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="55"/>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="46" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -6227,9 +6346,9 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
@@ -6311,13 +6430,13 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="46" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
@@ -6350,9 +6469,9 @@
       <c r="F21" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
@@ -6378,15 +6497,15 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="55"/>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="46" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
@@ -6422,9 +6541,9 @@
       <c r="F23" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
@@ -6449,7 +6568,7 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="49"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="55"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
@@ -6572,7 +6691,7 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="55"/>
@@ -6635,7 +6754,7 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="49"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="55"/>
       <c r="G30" s="55"/>
       <c r="H30" s="55"/>
@@ -6699,7 +6818,7 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="49"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
       <c r="H32" s="55"/>
@@ -6784,14 +6903,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -6874,7 +6993,7 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="49"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="55"/>
       <c r="G38" s="55"/>
       <c r="H38" s="55"/>
@@ -6933,7 +7052,7 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="49"/>
+      <c r="E40" s="51"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
       <c r="H40" s="93"/>
@@ -6990,7 +7109,7 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="49"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
@@ -7047,7 +7166,7 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="49"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8DDEDD-3A0B-4E42-8D5F-132D4F169DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8ED98B-FC18-4E7A-B6BA-9EDF35FD06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,12 +506,6 @@
 (Parcours)</t>
   </si>
   <si>
-    <t xml:space="preserve">TP 3 : 
-Chaînes de caractères, cesar ?
-(Pas de liste)
-</t>
-  </si>
-  <si>
     <t>Activités sur les chaînes de caractères</t>
   </si>
   <si>
@@ -520,10 +514,6 @@
   </si>
   <si>
     <t>Activité de découverte sur les listes</t>
-  </si>
-  <si>
-    <t>TP 5
-Listes 1D (double parcours (moyenne glissante) etc…</t>
   </si>
   <si>
     <t xml:space="preserve">Recherche séquentielle dans un tableau unidimensionnel. </t>
@@ -555,17 +545,10 @@
     </r>
   </si>
   <si>
-    <t>TP 4
-Découverte des listes (1D)</t>
-  </si>
-  <si>
     <t>DM</t>
   </si>
   <si>
     <t>Activité 4 - DM</t>
-  </si>
-  <si>
-    <t>Activité 5 représentation des nombres</t>
   </si>
   <si>
     <t>TP Noté</t>
@@ -723,6 +706,23 @@
   </si>
   <si>
     <t>PTSI 2</t>
+  </si>
+  <si>
+    <t>Activité 4 - Tracé de courbes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP 3 : 
+Chaînes de caractères, cesar 
+</t>
+  </si>
+  <si>
+    <t>TP 4
+Découverte des listes (1D) - Découpage de montagnes</t>
+  </si>
+  <si>
+    <t>TP 5
+Listes 2D
+Chemin autoévitant</t>
   </si>
 </sst>
 </file>
@@ -1410,16 +1410,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,82 +1518,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1527,6 +1530,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1536,25 +1551,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,10 +1880,10 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1962,33 +1962,33 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="73">
         <v>1</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" s="66"/>
+      <c r="H2" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="72"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
@@ -2013,14 +2013,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="65"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>101</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="2">
         <v>2</v>
@@ -2056,27 +2056,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="48">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="L4" s="65"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="52"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>103</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="2">
         <v>2</v>
@@ -2109,14 +2109,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>102</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="2">
         <v>3</v>
@@ -2152,27 +2152,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="48">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="55" t="s">
+      <c r="G6" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="65"/>
+      <c r="H6" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>105</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
@@ -2205,14 +2205,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="65"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2223,10 +2223,10 @@
         <v>104</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2256,11 +2256,11 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="26" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="10" t="s">
@@ -2273,10 +2273,10 @@
         <v>107</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2297,16 +2297,16 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
+      <c r="E9" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -2324,14 +2324,14 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -2354,12 +2354,12 @@
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="H11" s="35" t="s">
-        <v>150</v>
+      <c r="H11" s="26" t="s">
+        <v>180</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="38"/>
@@ -2373,7 +2373,7 @@
         <v>108</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="2">
         <v>4</v>
@@ -2398,24 +2398,24 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="48">
         <v>5</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="65"/>
+      <c r="G12" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>109</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="2">
         <v>4</v>
@@ -2448,14 +2448,14 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="65"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>94</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="3">
         <v>5</v>
@@ -2491,25 +2491,25 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="48">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="55" t="s">
+      <c r="G14" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="65"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>110</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="3">
         <v>5</v>
@@ -2542,14 +2542,14 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="65"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>93</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="3">
         <v>6</v>
@@ -2585,22 +2585,22 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="48">
         <v>7</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="65" t="s">
+      <c r="G16" s="49"/>
+      <c r="H16" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="52" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2610,7 +2610,7 @@
         <v>112</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="3">
         <v>6</v>
@@ -2635,14 +2635,14 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>111</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="3">
         <v>7</v>
@@ -2675,16 +2675,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -2704,14 +2704,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2733,24 +2733,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="57">
         <v>8</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>170</v>
+      <c r="G20" s="49" t="s">
+        <v>166</v>
       </c>
       <c r="H20" s="46" t="s">
         <v>131</v>
       </c>
       <c r="I20" s="46"/>
       <c r="J20" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K20" s="46"/>
-      <c r="L20" s="76"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>95</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="3">
         <v>7</v>
@@ -2786,14 +2786,14 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="47"/>
-      <c r="G21" s="55"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="77"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2801,10 +2801,10 @@
         <v>115</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2826,7 +2826,7 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="57">
         <f>E20+1</f>
         <v>9</v>
       </c>
@@ -2836,17 +2836,17 @@
       <c r="G22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="59" t="s">
         <v>132</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" s="46"/>
-      <c r="L22" s="76"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>114</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2879,14 +2879,14 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
-      <c r="H23" s="68"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="77"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>116</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
@@ -2917,7 +2917,7 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="57">
         <f>E22+1</f>
         <v>10</v>
       </c>
@@ -2927,17 +2927,17 @@
       <c r="G24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="59" t="s">
         <v>133</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K24" s="46"/>
-      <c r="L24" s="76" t="s">
+      <c r="L24" s="44" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2950,7 +2950,7 @@
         <v>117</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
@@ -2970,14 +2970,14 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
-      <c r="H25" s="68"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="77"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>118</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
@@ -3005,16 +3005,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
@@ -3037,14 +3037,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="72"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -3067,7 +3067,7 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="57">
         <f>E24+1</f>
         <v>11</v>
       </c>
@@ -3082,10 +3082,10 @@
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K28" s="46"/>
-      <c r="L28" s="76"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>119</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
@@ -3119,14 +3119,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
       <c r="J29" s="47"/>
       <c r="K29" s="47"/>
-      <c r="L29" s="77"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>121</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
@@ -3157,7 +3157,7 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="57">
         <f>E28+1</f>
         <v>12</v>
       </c>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K30" s="46"/>
       <c r="L30" s="10"/>
@@ -3186,7 +3186,7 @@
         <v>120</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
@@ -3209,7 +3209,7 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
@@ -3224,7 +3224,7 @@
         <v>122</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="4"/>
     </row>
@@ -3247,12 +3247,12 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="57">
         <f>E30+1</f>
         <v>13</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G32" s="46" t="s">
         <v>42</v>
@@ -3262,23 +3262,23 @@
       </c>
       <c r="I32" s="46"/>
       <c r="J32" s="46" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K32" s="46"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
       <c r="M32" s="42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>124</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
@@ -3300,7 +3300,7 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="45"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
@@ -3311,13 +3311,13 @@
         <v>28</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>125</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
@@ -3337,16 +3337,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="76"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
@@ -3366,14 +3366,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -3393,7 +3393,7 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="57">
         <f>E32</f>
         <v>13</v>
       </c>
@@ -3402,11 +3402,11 @@
       </c>
       <c r="G36" s="46"/>
       <c r="H36" s="46" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I36" s="46"/>
       <c r="J36" s="46" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K36" s="46"/>
       <c r="L36" s="10" t="s">
@@ -3416,7 +3416,7 @@
         <v>112</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>112</v>
@@ -3440,7 +3440,7 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="45"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
@@ -3457,7 +3457,7 @@
         <v>45054</v>
       </c>
       <c r="O37" s="36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
@@ -3478,12 +3478,12 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="57">
         <f>E36+1</f>
         <v>14</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G38" s="46" t="s">
         <v>32</v>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I38" s="46"/>
       <c r="J38" s="46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K38" s="46"/>
       <c r="L38" s="10"/>
@@ -3525,7 +3525,7 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="45"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
@@ -3536,7 +3536,7 @@
         <v>87</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>126</v>
@@ -3560,12 +3560,12 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="57">
         <f>E38+1</f>
         <v>15</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G40" s="46" t="s">
         <v>14</v>
@@ -3575,10 +3575,10 @@
       </c>
       <c r="I40" s="46"/>
       <c r="J40" s="46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K40" s="46"/>
-      <c r="L40" s="76"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="2" t="s">
         <v>123</v>
       </c>
@@ -3607,14 +3607,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="45"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="J41" s="47"/>
       <c r="K41" s="47"/>
-      <c r="L41" s="77"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="2" t="s">
         <v>127</v>
       </c>
@@ -3640,12 +3640,12 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="57">
         <f>E40+1</f>
         <v>16</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G42" s="46"/>
       <c r="H42" s="46" t="s">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="I42" s="46"/>
       <c r="J42" s="46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K42" s="46"/>
       <c r="L42" s="10" t="s">
@@ -3687,7 +3687,7 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="45"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
@@ -3715,14 +3715,14 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="44"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
       <c r="H44" s="46"/>
       <c r="I44" s="46"/>
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
-      <c r="L44" s="76"/>
+      <c r="L44" s="44"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
@@ -3740,7 +3740,7 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="58">
         <f>E42+1</f>
         <v>17</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="47"/>
       <c r="K45" s="47"/>
-      <c r="L45" s="77"/>
+      <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -3904,6 +3904,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L44:L45"/>
@@ -3928,117 +4039,6 @@
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4126,15 +4126,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -4155,7 +4155,7 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="57">
         <v>1</v>
       </c>
       <c r="F3" s="46" t="s">
@@ -4192,7 +4192,7 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="45"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
@@ -4221,7 +4221,7 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="57">
         <f>E3+1</f>
         <v>2</v>
       </c>
@@ -4259,7 +4259,7 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
@@ -4288,7 +4288,7 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="57">
         <f>E5+1</f>
         <v>3</v>
       </c>
@@ -4330,7 +4330,7 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
@@ -4395,17 +4395,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -4423,15 +4423,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -4492,7 +4492,7 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="57">
         <f>E12+1</f>
         <v>5</v>
       </c>
@@ -4530,7 +4530,7 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
@@ -4559,7 +4559,7 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="57">
         <f>E13+1</f>
         <v>6</v>
       </c>
@@ -4595,7 +4595,7 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
@@ -4661,17 +4661,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -4689,15 +4689,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -4755,7 +4755,7 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="57">
         <f>E20+1</f>
         <v>8</v>
       </c>
@@ -4793,7 +4793,7 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
@@ -4802,7 +4802,7 @@
       <c r="K22" s="47"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="92" t="s">
+      <c r="N22" s="80" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="57">
         <f>E21+1</f>
         <v>9</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="K23" s="46"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="92"/>
+      <c r="N23" s="80"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -4862,7 +4862,7 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
@@ -4888,17 +4888,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -4916,15 +4916,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -4945,7 +4945,7 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="57">
         <f>E23+1</f>
         <v>10</v>
       </c>
@@ -4983,7 +4983,7 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
@@ -5012,7 +5012,7 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="57">
         <f>E27+1</f>
         <v>11</v>
       </c>
@@ -5048,7 +5048,7 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -5077,7 +5077,7 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="57">
         <f>E29+1</f>
         <v>12</v>
       </c>
@@ -5114,7 +5114,7 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
@@ -5174,17 +5174,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="92"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -5202,15 +5202,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="53"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="79"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -5262,7 +5262,7 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="57">
         <f>E36+1</f>
         <v>14</v>
       </c>
@@ -5295,7 +5295,7 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="45"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
@@ -5321,7 +5321,7 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="57">
         <f>E37+1</f>
         <v>15</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="46"/>
-      <c r="H39" s="90"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5356,10 +5356,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="45"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
-      <c r="H40" s="91"/>
+      <c r="H40" s="86"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -5382,7 +5382,7 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="44">
+      <c r="E41" s="57">
         <f>E39+1</f>
         <v>16</v>
       </c>
@@ -5415,7 +5415,7 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="45"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
@@ -5443,16 +5443,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E43" s="84">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="55"/>
+      <c r="K43" s="49"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -5474,13 +5474,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="55"/>
+      <c r="K44" s="49"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -5504,9 +5504,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -5665,70 +5665,22 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -5745,22 +5697,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5844,14 +5844,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -5872,19 +5872,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="84">
         <v>1</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -5908,11 +5908,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -5936,20 +5936,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="84">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -5973,11 +5973,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -6001,20 +6001,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="84">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="55"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -6040,11 +6040,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -6103,16 +6103,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -6130,14 +6130,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -6199,7 +6199,7 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="57">
         <f>E12+1</f>
         <v>5</v>
       </c>
@@ -6236,7 +6236,7 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="47"/>
       <c r="G14" s="46" t="s">
         <v>63</v>
@@ -6270,11 +6270,11 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="84">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="49" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="47"/>
@@ -6303,8 +6303,8 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="46" t="s">
         <v>62</v>
       </c>
@@ -6369,16 +6369,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -6396,14 +6396,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -6462,11 +6462,11 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="84">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="49" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="47"/>
@@ -6497,8 +6497,8 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="46" t="s">
         <v>75</v>
       </c>
@@ -6511,7 +6511,7 @@
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="92" t="s">
+      <c r="M22" s="80" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6534,11 +6534,11 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="84">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="49" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="47"/>
@@ -6547,7 +6547,7 @@
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="92"/>
+      <c r="M23" s="80"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -6568,8 +6568,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6599,16 +6599,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -6626,14 +6626,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="75"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -6654,17 +6654,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="84">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="55"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6691,10 +6691,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -6719,17 +6719,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E29" s="84">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -6754,10 +6754,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -6782,15 +6782,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="86">
+      <c r="E31" s="84">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6818,10 +6818,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -6876,16 +6876,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="88"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="92"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -6903,14 +6903,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -6961,15 +6961,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="86">
+      <c r="E37" s="84">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55" t="s">
+      <c r="G37" s="49"/>
+      <c r="H37" s="49" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6993,10 +6993,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -7018,14 +7018,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="86">
+      <c r="E39" s="84">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="49"/>
       <c r="H39" s="93"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -7052,9 +7052,9 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="93"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
@@ -7077,15 +7077,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="86">
+      <c r="E41" s="84">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="55" t="s">
+      <c r="F41" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55" t="s">
+      <c r="G41" s="49"/>
+      <c r="H41" s="49" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -7109,10 +7109,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -7136,13 +7136,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E43" s="84">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -7166,10 +7166,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -7195,9 +7195,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -7355,6 +7355,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -7371,61 +7426,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8ED98B-FC18-4E7A-B6BA-9EDF35FD06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A32AD-F702-422B-9125-FFF1A646B761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1410,151 +1410,151 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,10 +1880,10 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14:H15"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1962,28 +1962,28 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="69">
         <v>1</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="72"/>
+      <c r="L2" s="66"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -2013,14 +2013,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="52"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2056,27 +2056,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="58">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="55"/>
+      <c r="J4" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="52"/>
+      <c r="L4" s="65"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -2109,14 +2109,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="52"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2152,27 +2152,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="58">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="52"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -2205,14 +2205,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="52"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="65"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2297,16 +2297,16 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -2324,14 +2324,14 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -2398,24 +2398,24 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="58">
         <v>5</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49" t="s">
+      <c r="I12" s="55"/>
+      <c r="J12" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="52"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="65"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2448,14 +2448,14 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="52"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="65"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2491,25 +2491,25 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="58">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49" t="s">
+      <c r="I14" s="55"/>
+      <c r="J14" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="52"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="65"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2542,14 +2542,14 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="52"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="65"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2585,22 +2585,22 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="58">
         <v>7</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49" t="s">
+      <c r="G16" s="55"/>
+      <c r="H16" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49" t="s">
+      <c r="I16" s="55"/>
+      <c r="J16" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="52" t="s">
+      <c r="K16" s="55"/>
+      <c r="L16" s="65" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2635,14 +2635,14 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="53"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -2675,16 +2675,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -2704,14 +2704,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2733,13 +2733,13 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="44">
         <v>8</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="55" t="s">
         <v>166</v>
       </c>
       <c r="H20" s="46" t="s">
@@ -2750,7 +2750,7 @@
         <v>145</v>
       </c>
       <c r="K20" s="46"/>
-      <c r="L20" s="44"/>
+      <c r="L20" s="76"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2786,14 +2786,14 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="58"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="47"/>
-      <c r="G21" s="49"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="45"/>
+      <c r="L21" s="77"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2826,7 +2826,7 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="44">
         <f>E20+1</f>
         <v>9</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="G22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="67" t="s">
         <v>132</v>
       </c>
       <c r="I22" s="46" t="s">
@@ -2846,7 +2846,7 @@
         <v>144</v>
       </c>
       <c r="K22" s="46"/>
-      <c r="L22" s="44"/>
+      <c r="L22" s="76"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -2879,14 +2879,14 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="58"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
-      <c r="H23" s="60"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="45"/>
+      <c r="L23" s="77"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -2917,7 +2917,7 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="44">
         <f>E22+1</f>
         <v>10</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="G24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="67" t="s">
         <v>133</v>
       </c>
       <c r="I24" s="46" t="s">
@@ -2937,7 +2937,7 @@
         <v>146</v>
       </c>
       <c r="K24" s="46"/>
-      <c r="L24" s="44" t="s">
+      <c r="L24" s="76" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2970,14 +2970,14 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
-      <c r="H25" s="60"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="45"/>
+      <c r="L25" s="77"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -3005,16 +3005,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
@@ -3037,14 +3037,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="72"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -3067,7 +3067,7 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="44">
         <f>E24+1</f>
         <v>11</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>146</v>
       </c>
       <c r="K28" s="46"/>
-      <c r="L28" s="44"/>
+      <c r="L28" s="76"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3119,14 +3119,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="58"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
       <c r="J29" s="47"/>
       <c r="K29" s="47"/>
-      <c r="L29" s="45"/>
+      <c r="L29" s="77"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3157,7 +3157,7 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="44">
         <f>E28+1</f>
         <v>12</v>
       </c>
@@ -3209,7 +3209,7 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="58"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
@@ -3247,7 +3247,7 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="44">
         <f>E30+1</f>
         <v>13</v>
       </c>
@@ -3300,7 +3300,7 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="58"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
@@ -3337,16 +3337,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
@@ -3366,14 +3366,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -3393,7 +3393,7 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="44">
         <f>E32</f>
         <v>13</v>
       </c>
@@ -3440,7 +3440,7 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="58"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
@@ -3478,7 +3478,7 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="44">
         <f>E36+1</f>
         <v>14</v>
       </c>
@@ -3525,7 +3525,7 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="58"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
@@ -3560,7 +3560,7 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="44">
         <f>E38+1</f>
         <v>15</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>165</v>
       </c>
       <c r="K40" s="46"/>
-      <c r="L40" s="44"/>
+      <c r="L40" s="76"/>
       <c r="M40" s="2" t="s">
         <v>123</v>
       </c>
@@ -3607,14 +3607,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="58"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="J41" s="47"/>
       <c r="K41" s="47"/>
-      <c r="L41" s="45"/>
+      <c r="L41" s="77"/>
       <c r="M41" s="2" t="s">
         <v>127</v>
       </c>
@@ -3640,7 +3640,7 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="44">
         <f>E40+1</f>
         <v>16</v>
       </c>
@@ -3687,7 +3687,7 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="58"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
@@ -3715,14 +3715,14 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="57"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
       <c r="H44" s="46"/>
       <c r="I44" s="46"/>
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
-      <c r="L44" s="44"/>
+      <c r="L44" s="76"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
@@ -3740,7 +3740,7 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="45">
         <f>E42+1</f>
         <v>17</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="47"/>
       <c r="K45" s="47"/>
-      <c r="L45" s="45"/>
+      <c r="L45" s="77"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -3904,15 +3904,108 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="K30:K31"/>
@@ -3937,108 +4030,15 @@
     <mergeCell ref="E34:L35"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:F33"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4126,15 +4126,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -4155,7 +4155,7 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="44">
         <v>1</v>
       </c>
       <c r="F3" s="46" t="s">
@@ -4192,7 +4192,7 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
@@ -4221,7 +4221,7 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="44">
         <f>E3+1</f>
         <v>2</v>
       </c>
@@ -4259,7 +4259,7 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
@@ -4288,7 +4288,7 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="44">
         <f>E5+1</f>
         <v>3</v>
       </c>
@@ -4330,7 +4330,7 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
@@ -4395,17 +4395,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="83"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="82"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -4423,15 +4423,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -4492,7 +4492,7 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="44">
         <f>E12+1</f>
         <v>5</v>
       </c>
@@ -4530,7 +4530,7 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="58"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
@@ -4559,7 +4559,7 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="44">
         <f>E13+1</f>
         <v>6</v>
       </c>
@@ -4595,7 +4595,7 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="58"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
@@ -4661,17 +4661,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="83"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="82"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -4689,15 +4689,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -4755,7 +4755,7 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="44">
         <f>E20+1</f>
         <v>8</v>
       </c>
@@ -4793,7 +4793,7 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="58"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
@@ -4802,7 +4802,7 @@
       <c r="K22" s="47"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="80" t="s">
+      <c r="N22" s="92" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="44">
         <f>E21+1</f>
         <v>9</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="K23" s="46"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="80"/>
+      <c r="N23" s="92"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -4862,7 +4862,7 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="58"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
@@ -4888,17 +4888,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="83"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="82"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -4916,15 +4916,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -4945,7 +4945,7 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="44">
         <f>E23+1</f>
         <v>10</v>
       </c>
@@ -4983,7 +4983,7 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="58"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
@@ -5012,7 +5012,7 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="44">
         <f>E27+1</f>
         <v>11</v>
       </c>
@@ -5048,7 +5048,7 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="58"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -5077,7 +5077,7 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="44">
         <f>E29+1</f>
         <v>12</v>
       </c>
@@ -5114,7 +5114,7 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="58"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
@@ -5174,17 +5174,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="92"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="88"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -5202,15 +5202,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="79"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="53"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -5262,7 +5262,7 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="44">
         <f>E36+1</f>
         <v>14</v>
       </c>
@@ -5295,7 +5295,7 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="58"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
@@ -5321,7 +5321,7 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="44">
         <f>E37+1</f>
         <v>15</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="46"/>
-      <c r="H39" s="85"/>
+      <c r="H39" s="90"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5356,10 +5356,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="58"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
-      <c r="H40" s="86"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -5382,7 +5382,7 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="44">
         <f>E39+1</f>
         <v>16</v>
       </c>
@@ -5415,7 +5415,7 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="58"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
@@ -5443,16 +5443,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="86">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="49"/>
+      <c r="K43" s="55"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -5474,13 +5474,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="49"/>
+      <c r="K44" s="55"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -5504,9 +5504,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="87"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -5665,6 +5665,86 @@
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -5681,86 +5761,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5844,14 +5844,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -5872,19 +5872,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="86">
         <v>1</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -5908,11 +5908,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -5936,20 +5936,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="86">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -5973,11 +5973,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -6001,20 +6001,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="86">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="49"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -6040,11 +6040,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -6103,16 +6103,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="83"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -6130,14 +6130,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -6199,7 +6199,7 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="44">
         <f>E12+1</f>
         <v>5</v>
       </c>
@@ -6236,7 +6236,7 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="58"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="47"/>
       <c r="G14" s="46" t="s">
         <v>63</v>
@@ -6270,11 +6270,11 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="86">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="55" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="47"/>
@@ -6303,8 +6303,8 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="49"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="46" t="s">
         <v>62</v>
       </c>
@@ -6369,16 +6369,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="82"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -6396,14 +6396,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -6462,11 +6462,11 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="86">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="55" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="47"/>
@@ -6497,8 +6497,8 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="49"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="46" t="s">
         <v>75</v>
       </c>
@@ -6511,7 +6511,7 @@
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="80" t="s">
+      <c r="M22" s="92" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6534,11 +6534,11 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="86">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="55" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="47"/>
@@ -6547,7 +6547,7 @@
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="80"/>
+      <c r="M23" s="92"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -6568,8 +6568,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6599,16 +6599,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="83"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="82"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -6626,14 +6626,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="75"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -6654,17 +6654,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="86">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6691,10 +6691,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -6719,17 +6719,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="86">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -6754,10 +6754,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -6782,15 +6782,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="86">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6818,10 +6818,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -6876,16 +6876,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="92"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="88"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -6903,14 +6903,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -6961,15 +6961,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="86">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="55"/>
+      <c r="H37" s="55" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6993,10 +6993,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -7018,14 +7018,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="84">
+      <c r="E39" s="86">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="49"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="93"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -7052,9 +7052,9 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="93"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
@@ -7077,15 +7077,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="86">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49" t="s">
+      <c r="G41" s="55"/>
+      <c r="H41" s="55" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -7109,10 +7109,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -7136,13 +7136,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="86">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -7166,10 +7166,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -7195,9 +7195,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="87"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -7355,22 +7355,45 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -7387,45 +7410,22 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A32AD-F702-422B-9125-FFF1A646B761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0E4CB4-76DB-4007-973C-C6F8630D1869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,10 +552,6 @@
   </si>
   <si>
     <t>TP Noté</t>
-  </si>
-  <si>
-    <t>Activité 6 : 
-Recherche dichotomique (Pb de SII ou physique)</t>
   </si>
   <si>
     <t>Activité dictionnaires</t>
@@ -708,9 +704,6 @@
     <t>PTSI 2</t>
   </si>
   <si>
-    <t>Activité 4 - Tracé de courbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">TP 3 : 
 Chaînes de caractères, cesar 
 </t>
@@ -720,16 +713,63 @@
 Découverte des listes (1D) - Découpage de montagnes</t>
   </si>
   <si>
-    <t>TP 5
+    <r>
+      <t xml:space="preserve">TP 5
 Listes 2D
-Chemin autoévitant</t>
+Chemin autoévitant
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TROP DUR A CE STADE. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Activité 4 - Tracé de courbes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Trapèzes pas adaptés au TP. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Activité 5 : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recherche dichotomique (Pb de SII ou physique) l'activité proposée en 2023/2024 aux élèves pas adapté au TP</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +819,21 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1410,16 +1465,94 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,82 +1573,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1527,6 +1585,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1536,25 +1606,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1880,7 +1935,7 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="J16" sqref="J16:J17"/>
@@ -1962,33 +2017,33 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="73">
         <v>1</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="54" t="s">
+      <c r="H2" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="K2" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="66"/>
+      <c r="I2" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="72"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
@@ -2013,14 +2068,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="65"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2031,7 +2086,7 @@
         <v>101</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q3" s="2">
         <v>2</v>
@@ -2056,27 +2111,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="48">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="L4" s="65"/>
+      <c r="K4" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="52"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -2084,7 +2139,7 @@
         <v>103</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="2">
         <v>2</v>
@@ -2109,14 +2164,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2127,7 +2182,7 @@
         <v>102</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="2">
         <v>3</v>
@@ -2152,27 +2207,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="48">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="J6" s="55" t="s">
+      <c r="H6" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="65"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -2180,7 +2235,7 @@
         <v>105</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
@@ -2205,14 +2260,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="65"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2223,10 +2278,10 @@
         <v>104</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2256,7 +2311,7 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
@@ -2273,10 +2328,10 @@
         <v>107</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2297,16 +2352,16 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
@@ -2324,14 +2379,14 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -2355,7 +2410,7 @@
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31" t="s">
@@ -2373,7 +2428,7 @@
         <v>108</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="2">
         <v>4</v>
@@ -2398,24 +2453,24 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="48">
         <v>5</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="65"/>
+      <c r="G12" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2423,7 +2478,7 @@
         <v>109</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q12" s="2">
         <v>4</v>
@@ -2448,14 +2503,14 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="65"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="52"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2466,7 +2521,7 @@
         <v>94</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="3">
         <v>5</v>
@@ -2491,25 +2546,25 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="48">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="55" t="s">
+      <c r="G14" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="65"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2517,7 +2572,7 @@
         <v>110</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="3">
         <v>5</v>
@@ -2542,14 +2597,14 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="65"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="52"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2560,7 +2615,7 @@
         <v>93</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="3">
         <v>6</v>
@@ -2585,22 +2640,22 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="48">
         <v>7</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55" t="s">
+      <c r="G16" s="49"/>
+      <c r="H16" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="65" t="s">
+      <c r="I16" s="49"/>
+      <c r="J16" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="52" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2610,7 +2665,7 @@
         <v>112</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="3">
         <v>6</v>
@@ -2635,14 +2690,14 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="53"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -2653,7 +2708,7 @@
         <v>111</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="3">
         <v>7</v>
@@ -2675,16 +2730,16 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
@@ -2704,14 +2759,14 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2733,14 +2788,14 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="57">
         <v>8</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>166</v>
+      <c r="G20" s="49" t="s">
+        <v>165</v>
       </c>
       <c r="H20" s="46" t="s">
         <v>131</v>
@@ -2750,7 +2805,7 @@
         <v>145</v>
       </c>
       <c r="K20" s="46"/>
-      <c r="L20" s="76"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2761,7 +2816,7 @@
         <v>95</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q20" s="3">
         <v>7</v>
@@ -2786,14 +2841,14 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="45"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="47"/>
-      <c r="G21" s="55"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="77"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2801,10 +2856,10 @@
         <v>115</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2826,7 +2881,7 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="57">
         <f>E20+1</f>
         <v>9</v>
       </c>
@@ -2836,17 +2891,17 @@
       <c r="G22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="59" t="s">
         <v>132</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J22" s="46" t="s">
         <v>144</v>
       </c>
       <c r="K22" s="46"/>
-      <c r="L22" s="76"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -2857,7 +2912,7 @@
         <v>114</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
@@ -2879,14 +2934,14 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
-      <c r="H23" s="68"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="77"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -2894,7 +2949,7 @@
         <v>116</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
@@ -2917,7 +2972,7 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="57">
         <f>E22+1</f>
         <v>10</v>
       </c>
@@ -2927,17 +2982,17 @@
       <c r="G24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="59" t="s">
         <v>133</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J24" s="46" t="s">
         <v>146</v>
       </c>
       <c r="K24" s="46"/>
-      <c r="L24" s="76" t="s">
+      <c r="L24" s="44" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -2950,7 +3005,7 @@
         <v>117</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
@@ -2970,14 +3025,14 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
-      <c r="H25" s="68"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="77"/>
+      <c r="L25" s="45"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -2985,7 +3040,7 @@
         <v>118</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
@@ -3005,16 +3060,16 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
@@ -3037,14 +3092,14 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="72"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
@@ -3067,7 +3122,7 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="57">
         <f>E24+1</f>
         <v>11</v>
       </c>
@@ -3085,7 +3140,7 @@
         <v>146</v>
       </c>
       <c r="K28" s="46"/>
-      <c r="L28" s="76"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3096,7 +3151,7 @@
         <v>119</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
@@ -3119,14 +3174,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
       <c r="J29" s="47"/>
       <c r="K29" s="47"/>
-      <c r="L29" s="77"/>
+      <c r="L29" s="45"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3134,7 +3189,7 @@
         <v>121</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
@@ -3157,7 +3212,7 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="57">
         <f>E28+1</f>
         <v>12</v>
       </c>
@@ -3172,7 +3227,7 @@
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K30" s="46"/>
       <c r="L30" s="10"/>
@@ -3186,7 +3241,7 @@
         <v>120</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
@@ -3209,7 +3264,7 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
@@ -3224,7 +3279,7 @@
         <v>122</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q31" s="4"/>
     </row>
@@ -3247,12 +3302,12 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="57">
         <f>E30+1</f>
         <v>13</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G32" s="46" t="s">
         <v>42</v>
@@ -3262,14 +3317,14 @@
       </c>
       <c r="I32" s="46"/>
       <c r="J32" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K32" s="46"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
       <c r="M32" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>147</v>
@@ -3278,7 +3333,7 @@
         <v>124</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
@@ -3300,7 +3355,7 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="45"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
@@ -3317,7 +3372,7 @@
         <v>125</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
@@ -3337,16 +3392,16 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="76"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
@@ -3366,14 +3421,14 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
@@ -3393,7 +3448,7 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="57">
         <f>E32</f>
         <v>13</v>
       </c>
@@ -3406,7 +3461,7 @@
       </c>
       <c r="I36" s="46"/>
       <c r="J36" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K36" s="46"/>
       <c r="L36" s="10" t="s">
@@ -3416,7 +3471,7 @@
         <v>112</v>
       </c>
       <c r="N36" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>112</v>
@@ -3440,7 +3495,7 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="45"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
@@ -3457,7 +3512,7 @@
         <v>45054</v>
       </c>
       <c r="O37" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
@@ -3478,12 +3533,12 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="57">
         <f>E36+1</f>
         <v>14</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G38" s="46" t="s">
         <v>32</v>
@@ -3493,7 +3548,7 @@
       </c>
       <c r="I38" s="46"/>
       <c r="J38" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K38" s="46"/>
       <c r="L38" s="10"/>
@@ -3525,7 +3580,7 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="45"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
@@ -3536,7 +3591,7 @@
         <v>87</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>126</v>
@@ -3560,12 +3615,12 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="57">
         <f>E38+1</f>
         <v>15</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G40" s="46" t="s">
         <v>14</v>
@@ -3575,10 +3630,10 @@
       </c>
       <c r="I40" s="46"/>
       <c r="J40" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K40" s="46"/>
-      <c r="L40" s="76"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="2" t="s">
         <v>123</v>
       </c>
@@ -3607,14 +3662,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="45"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="J41" s="47"/>
       <c r="K41" s="47"/>
-      <c r="L41" s="77"/>
+      <c r="L41" s="45"/>
       <c r="M41" s="2" t="s">
         <v>127</v>
       </c>
@@ -3640,12 +3695,12 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="57">
         <f>E40+1</f>
         <v>16</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G42" s="46"/>
       <c r="H42" s="46" t="s">
@@ -3653,7 +3708,7 @@
       </c>
       <c r="I42" s="46"/>
       <c r="J42" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K42" s="46"/>
       <c r="L42" s="10" t="s">
@@ -3687,7 +3742,7 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="45"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
@@ -3715,14 +3770,14 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="44"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
       <c r="H44" s="46"/>
       <c r="I44" s="46"/>
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
-      <c r="L44" s="76"/>
+      <c r="L44" s="44"/>
     </row>
     <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
@@ -3740,7 +3795,7 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="58">
         <f>E42+1</f>
         <v>17</v>
       </c>
@@ -3750,7 +3805,7 @@
       <c r="I45" s="47"/>
       <c r="J45" s="47"/>
       <c r="K45" s="47"/>
-      <c r="L45" s="77"/>
+      <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
@@ -3904,6 +3959,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="K28:K29"/>
     <mergeCell ref="L44:L45"/>
@@ -3928,117 +4094,6 @@
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4126,15 +4181,15 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -4155,7 +4210,7 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="57">
         <v>1</v>
       </c>
       <c r="F3" s="46" t="s">
@@ -4192,7 +4247,7 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="45"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
@@ -4221,7 +4276,7 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="57">
         <f>E3+1</f>
         <v>2</v>
       </c>
@@ -4259,7 +4314,7 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
@@ -4288,7 +4343,7 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="57">
         <f>E5+1</f>
         <v>3</v>
       </c>
@@ -4330,7 +4385,7 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
@@ -4395,17 +4450,17 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -4423,15 +4478,15 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -4492,7 +4547,7 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="57">
         <f>E12+1</f>
         <v>5</v>
       </c>
@@ -4530,7 +4585,7 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
@@ -4559,7 +4614,7 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="57">
         <f>E13+1</f>
         <v>6</v>
       </c>
@@ -4595,7 +4650,7 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
@@ -4661,17 +4716,17 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -4689,15 +4744,15 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -4755,7 +4810,7 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="57">
         <f>E20+1</f>
         <v>8</v>
       </c>
@@ -4793,7 +4848,7 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="45"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
@@ -4802,7 +4857,7 @@
       <c r="K22" s="47"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="92" t="s">
+      <c r="N22" s="80" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4825,7 +4880,7 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="57">
         <f>E21+1</f>
         <v>9</v>
       </c>
@@ -4841,7 +4896,7 @@
       <c r="K23" s="46"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="92"/>
+      <c r="N23" s="80"/>
     </row>
     <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -4862,7 +4917,7 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="45"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
@@ -4888,17 +4943,17 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -4916,15 +4971,15 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -4945,7 +5000,7 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="57">
         <f>E23+1</f>
         <v>10</v>
       </c>
@@ -4983,7 +5038,7 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
       <c r="H28" s="47"/>
@@ -5012,7 +5067,7 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="57">
         <f>E27+1</f>
         <v>11</v>
       </c>
@@ -5048,7 +5103,7 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -5077,7 +5132,7 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="57">
         <f>E29+1</f>
         <v>12</v>
       </c>
@@ -5114,7 +5169,7 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
@@ -5174,17 +5229,17 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="92"/>
     </row>
     <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -5202,15 +5257,15 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="53"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="79"/>
     </row>
     <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -5262,7 +5317,7 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="44">
+      <c r="E37" s="57">
         <f>E36+1</f>
         <v>14</v>
       </c>
@@ -5295,7 +5350,7 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="45"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
@@ -5321,7 +5376,7 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="44">
+      <c r="E39" s="57">
         <f>E37+1</f>
         <v>15</v>
       </c>
@@ -5329,7 +5384,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="46"/>
-      <c r="H39" s="90"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5356,10 +5411,10 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="45"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
-      <c r="H40" s="91"/>
+      <c r="H40" s="86"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
@@ -5382,7 +5437,7 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="44">
+      <c r="E41" s="57">
         <f>E39+1</f>
         <v>16</v>
       </c>
@@ -5415,7 +5470,7 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="45"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
@@ -5443,16 +5498,16 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E43" s="84">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="55"/>
+      <c r="K43" s="49"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
@@ -5474,13 +5529,13 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="55"/>
+      <c r="K44" s="49"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
@@ -5504,9 +5559,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -5665,70 +5720,22 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E10:M11"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="F45:H45"/>
     <mergeCell ref="E3:E4"/>
@@ -5745,22 +5752,70 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E10:M11"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5844,14 +5899,14 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
@@ -5872,19 +5927,19 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="84">
         <v>1</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="55"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
@@ -5908,11 +5963,11 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
@@ -5936,20 +5991,20 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="84">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
@@ -5973,11 +6028,11 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
@@ -6001,20 +6056,20 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="84">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="55"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
@@ -6040,11 +6095,11 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
@@ -6103,16 +6158,16 @@
 au
 30/10/22</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -6130,14 +6185,14 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -6199,7 +6254,7 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="57">
         <f>E12+1</f>
         <v>5</v>
       </c>
@@ -6236,7 +6291,7 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="47"/>
       <c r="G14" s="46" t="s">
         <v>63</v>
@@ -6270,11 +6325,11 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="84">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="49" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="47"/>
@@ -6303,8 +6358,8 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="46" t="s">
         <v>62</v>
       </c>
@@ -6369,16 +6424,16 @@
 au
 25/12/22</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
@@ -6396,14 +6451,14 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
@@ -6462,11 +6517,11 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="84">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="49" t="s">
         <v>76</v>
       </c>
       <c r="G21" s="47"/>
@@ -6497,8 +6552,8 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="46" t="s">
         <v>75</v>
       </c>
@@ -6511,7 +6566,7 @@
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="92" t="s">
+      <c r="M22" s="80" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6534,11 +6589,11 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="84">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="49" t="s">
         <v>76</v>
       </c>
       <c r="G23" s="47"/>
@@ -6547,7 +6602,7 @@
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="92"/>
+      <c r="M23" s="80"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
@@ -6568,8 +6623,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6599,16 +6654,16 @@
 au
 12/02/23</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
@@ -6626,14 +6681,14 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="75"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
@@ -6654,17 +6709,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="84">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="55"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6691,10 +6746,10 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
@@ -6719,17 +6774,17 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E29" s="84">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="55"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
@@ -6754,10 +6809,10 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
@@ -6782,15 +6837,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="86">
+      <c r="E31" s="84">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6818,10 +6873,10 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
@@ -6876,16 +6931,16 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="88"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="92"/>
     </row>
     <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
@@ -6903,14 +6958,14 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="53"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
     </row>
     <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
@@ -6961,15 +7016,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="86">
+      <c r="E37" s="84">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55" t="s">
+      <c r="G37" s="49"/>
+      <c r="H37" s="49" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -6993,10 +7048,10 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
@@ -7018,14 +7073,14 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="86">
+      <c r="E39" s="84">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="55" t="s">
+      <c r="F39" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="55"/>
+      <c r="G39" s="49"/>
       <c r="H39" s="93"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
@@ -7052,9 +7107,9 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="93"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
@@ -7077,15 +7132,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="86">
+      <c r="E41" s="84">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="55" t="s">
+      <c r="F41" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55" t="s">
+      <c r="G41" s="49"/>
+      <c r="H41" s="49" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -7109,10 +7164,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -7136,13 +7191,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E43" s="84">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -7166,10 +7221,10 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
@@ -7195,9 +7250,9 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -7355,6 +7410,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E10:L11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
     <mergeCell ref="E18:L19"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="F39:F40"/>
@@ -7371,61 +7481,6 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E10:L11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0E4CB4-76DB-4007-973C-C6F8630D1869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE3A06-1D96-4602-A92F-14C81699B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="183">
   <si>
     <t>Num</t>
   </si>
@@ -600,11 +600,6 @@
   </si>
   <si>
     <t>Algorithmes dichotomiques</t>
-  </si>
-  <si>
-    <t>Activité 7
-Modules et bibliothèques
-Lecture de fichier</t>
   </si>
   <si>
     <r>
@@ -764,12 +759,20 @@
       <t>Recherche dichotomique (Pb de SII ou physique) l'activité proposée en 2023/2024 aux élèves pas adapté au TP</t>
     </r>
   </si>
+  <si>
+    <t>Activité 6
+Modules et bibliothèques
+Lecture de fichier</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1334,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1465,154 +1468,160 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1935,13 +1944,13 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16:J17"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -1959,7 +1968,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -2017,39 +2026,39 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="70">
         <v>1</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" s="63" t="s">
+      <c r="H2" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="K2" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="L2" s="72"/>
+      <c r="I2" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="67"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -2068,14 +2077,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="52"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2086,13 +2095,13 @@
         <v>101</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2111,27 +2120,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="59">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="L4" s="52"/>
+      <c r="K4" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="66"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -2139,13 +2148,13 @@
         <v>103</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2164,14 +2173,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="52"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2182,13 +2191,13 @@
         <v>102</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2207,27 +2216,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="59">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" s="49" t="s">
+      <c r="H6" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="52"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -2235,13 +2244,13 @@
         <v>105</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2260,14 +2269,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="52"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="66"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2278,13 +2287,13 @@
         <v>104</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2311,7 +2320,7 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="26" t="s">
@@ -2328,13 +2337,13 @@
         <v>107</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:17" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2352,18 +2361,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2379,16 +2388,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2407,10 +2416,12 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="35"/>
+      <c r="F11" s="95" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="35"/>
       <c r="H11" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31" t="s">
@@ -2428,13 +2439,13 @@
         <v>108</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="32" thickBot="1">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2453,24 +2464,22 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="59">
         <v>5</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="52"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2478,13 +2487,13 @@
         <v>109</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2503,14 +2512,16 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="52"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2521,13 +2532,13 @@
         <v>94</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="32" thickBot="1">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2546,25 +2557,23 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="59">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="49" t="s">
+      <c r="F14" s="48"/>
+      <c r="G14" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="52"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="56"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2572,13 +2581,13 @@
         <v>110</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2597,14 +2606,16 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="52"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2615,13 +2626,13 @@
         <v>93</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q15" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2640,22 +2651,20 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="59">
         <v>7</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49" t="s">
+      <c r="F16" s="48"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="52" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="56"/>
+      <c r="L16" s="66" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2665,13 +2674,13 @@
         <v>112</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="32" thickBot="1">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2690,14 +2699,16 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="53"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -2708,13 +2719,13 @@
         <v>111</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -2730,20 +2741,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -2759,17 +2770,17 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -2788,24 +2799,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="45">
         <v>8</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="49" t="s">
+      <c r="F20" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46" t="s">
+      <c r="I20" s="47"/>
+      <c r="J20" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="46"/>
-      <c r="L20" s="44"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="77"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2816,13 +2827,13 @@
         <v>95</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -2841,14 +2852,16 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2856,13 +2869,13 @@
         <v>115</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -2881,27 +2894,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="45">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="46" t="s">
+      <c r="F22" s="56"/>
+      <c r="G22" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="46" t="s">
+      <c r="I22" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="46"/>
-      <c r="L22" s="44"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="77"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -2912,10 +2923,10 @@
         <v>114</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2934,14 +2945,16 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="78"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -2949,11 +2962,11 @@
         <v>116</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2972,27 +2985,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="45">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="46" t="s">
+      <c r="F24" s="56"/>
+      <c r="G24" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="46" t="s">
+      <c r="I24" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="46"/>
-      <c r="L24" s="44" t="s">
+      <c r="K24" s="47"/>
+      <c r="L24" s="77" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -3005,11 +3016,11 @@
         <v>117</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3025,14 +3036,16 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="78"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -3040,11 +3053,11 @@
         <v>118</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3060,20 +3073,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="56"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="73"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3092,18 +3105,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="73"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3122,25 +3135,25 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="45">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46" t="s">
+      <c r="I28" s="47"/>
+      <c r="J28" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="46"/>
-      <c r="L28" s="44"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="77"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3151,11 +3164,11 @@
         <v>119</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3174,14 +3187,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="78"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3189,11 +3202,11 @@
         <v>121</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3212,24 +3225,24 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="45">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46" t="s">
+      <c r="I30" s="47"/>
+      <c r="J30" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="K30" s="46"/>
+      <c r="K30" s="47"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3241,11 +3254,11 @@
         <v>120</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -3264,13 +3277,13 @@
 au
 31/03/24</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
       <c r="L31" s="10"/>
       <c r="M31" s="2" t="s">
         <v>120</v>
@@ -3279,11 +3292,11 @@
         <v>122</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="34">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -3302,24 +3315,24 @@
 au
 07/04/24</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="45">
         <f>E30+1</f>
         <v>13</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46" t="s">
+      <c r="I32" s="47"/>
+      <c r="J32" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="K32" s="46"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="10" t="s">
         <v>96</v>
       </c>
@@ -3333,11 +3346,11 @@
         <v>124</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="34">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -3355,13 +3368,13 @@
 au
 14/04/24</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
       <c r="L33" s="10" t="s">
         <v>28</v>
       </c>
@@ -3372,11 +3385,11 @@
         <v>125</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -3392,20 +3405,20 @@
 au
 21/04/24</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E34" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -3421,18 +3434,18 @@
 au
 28/04/24</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -3448,22 +3461,22 @@
 au
 05/05/24</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="45">
         <f>E32</f>
         <v>13</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46" t="s">
+      <c r="G36" s="47"/>
+      <c r="H36" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46" t="s">
+      <c r="I36" s="47"/>
+      <c r="J36" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="K36" s="46"/>
+      <c r="K36" s="47"/>
       <c r="L36" s="10" t="s">
         <v>88</v>
       </c>
@@ -3479,7 +3492,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -3495,13 +3508,13 @@
 au
 12/05/24</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="18" t="s">
         <v>89</v>
       </c>
@@ -3517,7 +3530,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -3533,24 +3546,24 @@
 au
 19/05/24</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="45">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46" t="s">
+      <c r="I38" s="47"/>
+      <c r="J38" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="K38" s="46"/>
+      <c r="K38" s="47"/>
       <c r="L38" s="10"/>
       <c r="M38" s="2" t="s">
         <v>123</v>
@@ -3564,7 +3577,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -3580,13 +3593,13 @@
 au
 26/05/24</v>
       </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
       <c r="L39" s="10" t="s">
         <v>87</v>
       </c>
@@ -3599,7 +3612,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -3615,25 +3628,25 @@
 au
 02/06/24</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="45">
         <f>E38+1</f>
         <v>15</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="46" t="s">
+      <c r="H40" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46" t="s">
+      <c r="I40" s="47"/>
+      <c r="J40" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="K40" s="46"/>
-      <c r="L40" s="44"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="77"/>
       <c r="M40" s="2" t="s">
         <v>123</v>
       </c>
@@ -3646,7 +3659,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -3662,14 +3675,14 @@
 au
 09/06/24</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="45"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="78"/>
       <c r="M41" s="2" t="s">
         <v>127</v>
       </c>
@@ -3679,7 +3692,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -3695,22 +3708,22 @@
 au
 16/06/24</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="45">
         <f>E40+1</f>
         <v>16</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46" t="s">
+      <c r="G42" s="47"/>
+      <c r="H42" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46" t="s">
+      <c r="I42" s="47"/>
+      <c r="J42" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="K42" s="46"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="10" t="s">
         <v>91</v>
       </c>
@@ -3726,7 +3739,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -3742,19 +3755,19 @@
 au
 23/06/24</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
       <c r="L43" s="10"/>
       <c r="M43" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -3770,16 +3783,16 @@
 au
 30/06/24</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="44"/>
-    </row>
-    <row r="45" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E44" s="45"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="77"/>
+    </row>
+    <row r="45" spans="1:17" ht="31.5">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <f t="shared" si="2"/>
@@ -3795,181 +3808,273 @@
 au
 07/07/24</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="46">
         <f>E42+1</f>
         <v>17</v>
       </c>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="45"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="78"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
+  <mergeCells count="134">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E26:L27"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
@@ -3992,108 +4097,15 @@
     <mergeCell ref="E34:L35"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:F33"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E26:L27"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4115,7 +4127,7 @@
       <selection pane="bottomRight" activeCell="G17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -4132,7 +4144,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4163,7 +4175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -4181,17 +4193,17 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-    </row>
-    <row r="3" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" customHeight="1">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -4210,25 +4222,25 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="45">
         <v>1</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="13"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4247,17 +4259,17 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
       <c r="L4" s="13"/>
       <c r="M4" s="23"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="31.5" customHeight="1">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4276,26 +4288,26 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="45">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="26"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4314,17 +4326,17 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="26"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="31.5" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4343,30 +4355,30 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="45">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="46"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="26"/>
       <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4385,19 +4397,19 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
       <c r="L8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -4434,7 +4446,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -4462,7 +4474,7 @@
       <c r="L10" s="82"/>
       <c r="M10" s="83"/>
     </row>
-    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -4478,17 +4490,17 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
+    </row>
+    <row r="12" spans="1:13" ht="31.5">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -4528,7 +4540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -4547,26 +4559,26 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="45">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="26"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -4585,17 +4597,17 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -4614,24 +4626,24 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="45">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="26"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4650,19 +4662,19 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -4700,7 +4712,7 @@
       <c r="L17" s="26"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -4728,7 +4740,7 @@
       <c r="L18" s="82"/>
       <c r="M18" s="83"/>
     </row>
-    <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -4744,17 +4756,17 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-    </row>
-    <row r="20" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
+    </row>
+    <row r="20" spans="1:16" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -4791,7 +4803,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -4810,26 +4822,26 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="45">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -4848,20 +4860,20 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="26"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="80" t="s">
+      <c r="N22" s="93" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -4880,25 +4892,25 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="45">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="29"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="80"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="N23" s="93"/>
+    </row>
+    <row r="24" spans="1:16" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -4917,17 +4929,17 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="26"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -4955,7 +4967,7 @@
       <c r="L25" s="82"/>
       <c r="M25" s="83"/>
     </row>
-    <row r="26" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -4971,17 +4983,17 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66"/>
-    </row>
-    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="76"/>
+    </row>
+    <row r="27" spans="1:16" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -5000,26 +5012,26 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="45">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="46"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -5038,17 +5050,17 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="26"/>
-      <c r="K28" s="47"/>
+      <c r="K28" s="48"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -5067,24 +5079,24 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="45">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="26"/>
-      <c r="K29" s="46"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="26"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -5103,17 +5115,17 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
       <c r="J30" s="26"/>
-      <c r="K30" s="47"/>
+      <c r="K30" s="48"/>
       <c r="L30" s="26"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -5132,25 +5144,25 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="45">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="46"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="13"/>
       <c r="M31" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -5169,17 +5181,17 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="47"/>
+      <c r="K32" s="48"/>
       <c r="L32" s="13"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -5213,7 +5225,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -5229,19 +5241,19 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="92"/>
-    </row>
-    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="89"/>
+    </row>
+    <row r="35" spans="1:13" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -5257,17 +5269,17 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="79"/>
-    </row>
-    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
+    </row>
+    <row r="36" spans="1:13" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -5301,7 +5313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -5317,24 +5329,24 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="45">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46" t="s">
+      <c r="G37" s="47"/>
+      <c r="H37" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="46"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="26"/>
-      <c r="K37" s="46"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="26"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -5350,17 +5362,17 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="26"/>
-      <c r="K38" s="47"/>
+      <c r="K38" s="48"/>
       <c r="L38" s="26"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -5376,15 +5388,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="45">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="85"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="91"/>
       <c r="I39" s="30"/>
       <c r="J39" s="26"/>
       <c r="K39" s="30" t="s">
@@ -5395,7 +5407,7 @@
       </c>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -5411,17 +5423,17 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="86"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="30"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -5437,24 +5449,24 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="45">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46" t="s">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="46"/>
+      <c r="I41" s="47"/>
       <c r="J41" s="26"/>
-      <c r="K41" s="46"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="26"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -5470,19 +5482,19 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
       <c r="J42" s="26"/>
-      <c r="K42" s="47"/>
+      <c r="K42" s="48"/>
       <c r="L42" s="26"/>
       <c r="M42" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -5498,22 +5510,22 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="87">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="26"/>
-      <c r="K43" s="49"/>
+      <c r="K43" s="56"/>
       <c r="L43" s="24" t="s">
         <v>43</v>
       </c>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -5529,17 +5541,17 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="26"/>
-      <c r="K44" s="49"/>
+      <c r="K44" s="56"/>
       <c r="L44" s="29"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="1:13" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -5559,167 +5571,247 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="87"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="E18:M19"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
     <mergeCell ref="E10:M11"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="E25:M26"/>
@@ -5736,86 +5828,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="E18:M19"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5836,7 +5848,7 @@
       <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -5851,7 +5863,7 @@
     <col min="16" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5881,7 +5893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="31.5">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -5899,16 +5911,16 @@
 au
 04/09/22</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -5927,24 +5939,24 @@
 au
 11/09/22</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="87">
         <v>1</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="26"/>
       <c r="K3" s="13"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="31.5">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5963,16 +5975,16 @@
 au
 18/09/22</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="26"/>
       <c r="K4" s="13"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="31.5">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5991,25 +6003,25 @@
 au
 25/09/22</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="87">
         <f>E3+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="31.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6028,16 +6040,16 @@
 au
 02/10/22</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="31.5">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6056,27 +6068,27 @@
 au
 09/10/22</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="87">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="49"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="31.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6095,18 +6107,18 @@
 au
 16/10/22</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26" t="s">
         <v>34</v>
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="31.5">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -6142,7 +6154,7 @@
       <c r="K9" s="26"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -6169,7 +6181,7 @@
       <c r="K10" s="82"/>
       <c r="L10" s="83"/>
     </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="31.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -6185,16 +6197,16 @@
 au
 06/11/22</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
-    </row>
-    <row r="12" spans="1:12" ht="39" x14ac:dyDescent="0.35">
+      <c r="E11" s="74"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
+    </row>
+    <row r="12" spans="1:12" ht="39">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -6226,7 +6238,7 @@
       <c r="H12" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="47" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="26"/>
@@ -6235,7 +6247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="31.5">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -6254,11 +6266,11 @@
 au
 20/11/22</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="45">
         <f>E12+1</f>
         <v>5</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="47" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="26" t="s">
@@ -6267,12 +6279,12 @@
       <c r="H13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="31.5">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -6291,22 +6303,22 @@
 au
 27/11/22</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="46" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="47" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="31.5">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -6325,21 +6337,21 @@
 au
 04/12/22</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="87">
         <f>E13+1</f>
         <v>6</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="31.5">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -6358,15 +6370,15 @@
 au
 11/12/22</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="46" t="s">
+      <c r="E16" s="52"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="47" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="26"/>
@@ -6375,7 +6387,7 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="31.5">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -6401,14 +6413,14 @@
       <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="13"/>
       <c r="K17" s="26"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="31.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -6435,7 +6447,7 @@
       <c r="K18" s="82"/>
       <c r="L18" s="83"/>
     </row>
-    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="31.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -6451,16 +6463,16 @@
 au
 01/01/23</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-    </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="76"/>
+    </row>
+    <row r="20" spans="1:15" ht="31.5">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -6485,20 +6497,20 @@
       <c r="F20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="47" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="24"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="31.5">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -6517,23 +6529,23 @@
 au
 15/01/23</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="87">
         <f>E20+1</f>
         <v>8</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="31.5">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -6552,25 +6564,25 @@
 au
 22/01/23</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="46" t="s">
+      <c r="E22" s="52"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="47" t="s">
         <v>82</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="80" t="s">
+      <c r="M22" s="93" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="31.5">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -6589,22 +6601,22 @@
 au
 29/01/23</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="87">
         <f>E21+1</f>
         <v>9</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="26"/>
       <c r="K23" s="29"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="80"/>
-    </row>
-    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="M23" s="93"/>
+    </row>
+    <row r="24" spans="1:15" ht="31.5">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -6623,8 +6635,8 @@
 au
 05/02/23</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="49"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="26" t="s">
         <v>77</v>
       </c>
@@ -6638,7 +6650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="31.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -6665,7 +6677,7 @@
       <c r="K25" s="82"/>
       <c r="L25" s="83"/>
     </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="31.5">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -6681,16 +6693,16 @@
 au
 19/02/23</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-    </row>
-    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="76"/>
+    </row>
+    <row r="27" spans="1:15" ht="31.5">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -6709,17 +6721,17 @@
 au
 26/02/23</v>
       </c>
-      <c r="E27" s="84">
+      <c r="E27" s="87">
         <f>E23+1</f>
         <v>10</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="49"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="15" t="s">
@@ -6727,7 +6739,7 @@
       </c>
       <c r="L27" s="16"/>
     </row>
-    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="31.5">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -6746,16 +6758,16 @@
 au
 05/03/23</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="15"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="31.5">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -6774,23 +6786,23 @@
 au
 12/03/23</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="87">
         <f>E27+1</f>
         <v>11</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="49"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="31.5">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -6809,16 +6821,16 @@
 au
 19/03/23</v>
       </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="31.5">
       <c r="A31" s="5">
         <f>A30+1</f>
         <v>23</v>
@@ -6837,15 +6849,15 @@
 au
 26/03/23</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="87">
         <f>E29+1</f>
         <v>12</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="13"/>
@@ -6854,7 +6866,7 @@
       </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="31.5">
       <c r="A32" s="5">
         <f>A31+1</f>
         <v>24</v>
@@ -6873,16 +6885,16 @@
 au
 02/04/23</v>
       </c>
-      <c r="E32" s="77"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="13"/>
       <c r="L32" s="23"/>
     </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="31.5">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -6915,7 +6927,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="31.5">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <f t="shared" si="2"/>
@@ -6931,18 +6943,18 @@
 au
 16/04/23</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="92"/>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="89"/>
+    </row>
+    <row r="35" spans="1:12" ht="31.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <f t="shared" si="2"/>
@@ -6958,16 +6970,16 @@
 au
 23/04/23</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
-    </row>
-    <row r="36" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="E35" s="52"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="54"/>
+    </row>
+    <row r="36" spans="1:12" ht="31.5">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <f t="shared" si="2"/>
@@ -7000,7 +7012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="31.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <f t="shared" si="2"/>
@@ -7016,15 +7028,15 @@
 au
 07/05/23</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="87">
         <f>E36+1</f>
         <v>14</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="56"/>
+      <c r="H37" s="56" t="s">
         <v>40</v>
       </c>
       <c r="I37" s="26"/>
@@ -7032,7 +7044,7 @@
       <c r="K37" s="26"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="31.5">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <f t="shared" si="2"/>
@@ -7048,16 +7060,16 @@
 au
 14/05/23</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="26"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="31.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <f t="shared" si="2"/>
@@ -7073,15 +7085,15 @@
 au
 21/05/23</v>
       </c>
-      <c r="E39" s="84">
+      <c r="E39" s="87">
         <f>E37+1</f>
         <v>15</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="49"/>
-      <c r="H39" s="93"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="94"/>
       <c r="I39" s="26"/>
       <c r="J39" s="30" t="s">
         <v>36</v>
@@ -7091,7 +7103,7 @@
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="31.5">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <f t="shared" si="2"/>
@@ -7107,16 +7119,16 @@
 au
 28/05/23</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="93"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="94"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="31.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <f t="shared" si="2"/>
@@ -7132,15 +7144,15 @@
 au
 04/06/23</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="87">
         <f>E39+1</f>
         <v>16</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49" t="s">
+      <c r="G41" s="56"/>
+      <c r="H41" s="56" t="s">
         <v>39</v>
       </c>
       <c r="I41" s="26"/>
@@ -7148,7 +7160,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="31.5">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <f t="shared" si="2"/>
@@ -7164,10 +7176,10 @@
 au
 11/06/23</v>
       </c>
-      <c r="E42" s="77"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
       <c r="K42" s="26"/>
@@ -7175,7 +7187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="31.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <f t="shared" si="2"/>
@@ -7191,13 +7203,13 @@
 au
 18/06/23</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="87">
         <f>E41+1</f>
         <v>17</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
       <c r="I43" s="26"/>
       <c r="J43" s="26"/>
       <c r="K43" s="24" t="s">
@@ -7205,7 +7217,7 @@
       </c>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="31.5">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <f t="shared" si="2"/>
@@ -7221,16 +7233,16 @@
 au
 25/06/23</v>
       </c>
-      <c r="E44" s="77"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="29"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="32" thickBot="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12">
         <f t="shared" si="2"/>
@@ -7250,182 +7262,205 @@
         <f>E43+1</f>
         <v>18</v>
       </c>
-      <c r="F45" s="87"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="B46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2">
       <c r="B49" s="14"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2">
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2">
       <c r="B52" s="14"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2">
       <c r="B82" s="14"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2">
       <c r="B83" s="14"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2">
       <c r="B84" s="14"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2">
       <c r="B85" s="14"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2">
       <c r="B86" s="14"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2">
       <c r="B87" s="14"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2">
       <c r="B88" s="14"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2">
       <c r="B89" s="14"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2">
       <c r="B90" s="14"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2">
       <c r="B91" s="14"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2">
       <c r="B92" s="14"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2">
       <c r="B93" s="14"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2">
       <c r="B94" s="14"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2">
       <c r="B95" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E18:L19"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E25:L26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
@@ -7442,45 +7477,22 @@
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="E18:L19"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E25:L26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/Progressions/2023_2024_Informatique_PTSI.xlsx
+++ b/Progressions/2023_2024_Informatique_PTSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Informatique\Progressions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE3A06-1D96-4602-A92F-14C81699B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8645D8-57C1-4ECE-A3AD-80C20845E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="184">
   <si>
     <t>Num</t>
   </si>
@@ -767,12 +767,15 @@
   <si>
     <t>??</t>
   </si>
+  <si>
+    <t>IC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1337,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1471,16 +1474,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,82 +1585,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1588,6 +1597,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1597,31 +1618,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1944,13 +1953,13 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E13" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28:J29"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="3" hidden="1" customWidth="1"/>
@@ -1968,7 +1977,7 @@
     <col min="17" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="31.5" customHeight="1">
+    <row r="2" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <f>0</f>
         <v>0</v>
@@ -2026,28 +2035,28 @@
 au
 10/09/23</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="75">
         <v>1</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="67"/>
+      <c r="L2" s="74"/>
       <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>1</v>
@@ -2077,14 +2086,14 @@
 au
 17/09/23</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="66"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
@@ -2101,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="31.5" customHeight="1">
+    <row r="4" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2120,27 +2129,27 @@
 au
 24/09/23</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="51">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="66"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="2" t="s">
         <v>101</v>
       </c>
@@ -2154,7 +2163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="31.5" customHeight="1">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2173,14 +2182,14 @@
 au
 01/10/23</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="2" t="s">
         <v>102</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="31.5" customHeight="1">
+    <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2216,27 +2225,27 @@
 au
 08/10/23</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="51">
         <f>E4+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="66"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="2" t="s">
         <v>102</v>
       </c>
@@ -2250,7 +2259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="31.5" customHeight="1">
+    <row r="7" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2269,14 +2278,14 @@
 au
 15/10/23</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="66"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="2" t="s">
         <v>104</v>
       </c>
@@ -2293,7 +2302,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="31.5">
+    <row r="8" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2343,7 +2352,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="31.5">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2361,18 +2370,18 @@
 au
 29/10/23</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61"/>
-    </row>
-    <row r="10" spans="1:17" ht="32" thickBot="1">
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -2388,16 +2397,16 @@
 au
 05/11/23</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-    </row>
-    <row r="11" spans="1:17" ht="31.5" customHeight="1">
+      <c r="E10" s="52"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
+    </row>
+    <row r="11" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <f t="shared" si="2"/>
@@ -2416,7 +2425,7 @@
       <c r="E11" s="34">
         <v>4</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="F11" s="45" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="35"/>
@@ -2445,7 +2454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="32" thickBot="1">
+    <row r="12" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f>A9+1</f>
         <v>8</v>
@@ -2464,22 +2473,22 @@
 au
 19/11/23</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="51">
         <v>5</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="56" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56" t="s">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="56"/>
-      <c r="L12" s="66"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="2" t="s">
         <v>108</v>
       </c>
@@ -2493,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="31.5" customHeight="1">
+    <row r="13" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" ref="A13:A17" si="4">A12+1</f>
         <v>9</v>
@@ -2512,16 +2521,16 @@
 au
 26/11/23</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="95" t="s">
+      <c r="E13" s="51"/>
+      <c r="F13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="66"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="53"/>
       <c r="M13" s="2" t="s">
         <v>94</v>
       </c>
@@ -2538,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32" thickBot="1">
+    <row r="14" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2557,23 +2566,23 @@
 au
 03/12/23</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="51">
         <f>E12+1</f>
         <v>6</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="56" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="L14" s="66"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="53"/>
       <c r="M14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="31.5" customHeight="1">
+    <row r="15" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2606,16 +2615,16 @@
 au
 10/12/23</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="95" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="66"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="53"/>
       <c r="M15" s="2" t="s">
         <v>93</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="31.5">
+    <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2651,20 +2660,20 @@
 au
 17/12/23</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="51">
         <v>7</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56" t="s">
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56" t="s">
+      <c r="I16" s="47"/>
+      <c r="J16" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="66" t="s">
+      <c r="K16" s="47"/>
+      <c r="L16" s="53" t="s">
         <v>90</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2680,7 +2689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="32" thickBot="1">
+    <row r="17" spans="1:17" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2699,16 +2708,16 @@
 au
 24/12/23</v>
       </c>
-      <c r="E17" s="62"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="80"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55"/>
       <c r="M17" s="37" t="s">
         <v>112</v>
       </c>
@@ -2725,7 +2734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.5">
+    <row r="18" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -2741,20 +2750,20 @@
 au
 31/12/23</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="31.5">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -2770,17 +2779,17 @@
 au
 07/01/24</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="68"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="31.5" customHeight="1">
+    <row r="20" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f>A17+1</f>
         <v>14</v>
@@ -2799,24 +2808,24 @@
 au
 14/01/24</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="59">
         <v>8</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47" t="s">
+      <c r="I20" s="50"/>
+      <c r="J20" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="77"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="2" t="s">
         <v>95</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="31.5">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f>A20+1</f>
         <v>15</v>
@@ -2852,16 +2861,16 @@
 au
 21/01/24</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="56" t="s">
+      <c r="E21" s="60"/>
+      <c r="F21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="78"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="2" t="s">
         <v>95</v>
       </c>
@@ -2875,7 +2884,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="31.5">
+    <row r="22" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f>A21+1</f>
         <v>16</v>
@@ -2894,25 +2903,25 @@
 au
 28/01/24</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="59">
         <f>E20+1</f>
         <v>9</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="47" t="s">
+      <c r="F22" s="47"/>
+      <c r="G22" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="77"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="2" t="s">
         <v>114</v>
       </c>
@@ -2926,7 +2935,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="31.5">
+    <row r="23" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f>A22+1</f>
         <v>17</v>
@@ -2945,16 +2954,16 @@
 au
 04/02/24</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="56" t="s">
+      <c r="E23" s="60"/>
+      <c r="F23" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="78"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="2" t="s">
         <v>114</v>
       </c>
@@ -2966,7 +2975,7 @@
       </c>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="31.5">
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f>A23+1</f>
         <v>18</v>
@@ -2985,25 +2994,25 @@
 au
 11/02/24</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="59">
         <f>E22+1</f>
         <v>10</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="47" t="s">
+      <c r="F24" s="47"/>
+      <c r="G24" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="47"/>
-      <c r="L24" s="77" t="s">
+      <c r="K24" s="50"/>
+      <c r="L24" s="48" t="s">
         <v>27</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -3020,7 +3029,7 @@
       </c>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="31.5">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <f t="shared" si="2"/>
@@ -3036,16 +3045,16 @@
 au
 18/02/24</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="78"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="49"/>
       <c r="M25" s="2" t="s">
         <v>117</v>
       </c>
@@ -3057,7 +3066,7 @@
       </c>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="2"/>
@@ -3073,20 +3082,20 @@
 au
 25/02/24</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="31.5">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f>A24+1</f>
         <v>19</v>
@@ -3105,18 +3114,18 @@
 au
 03/03/24</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="73"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="58"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="31.5">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f>A27+1</f>
         <v>20</v>
@@ -3135,25 +3144,27 @@
 au
 10/03/24</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="59">
         <f>E24+1</f>
         <v>11</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47" t="s">
+      <c r="I28" s="96" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="77"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="2" t="s">
         <v>119</v>
       </c>
@@ -3168,7 +3179,7 @@
       </c>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="31.5">
+    <row r="29" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f>A28+1</f>
         <v>21</v>
@@ -3187,14 +3198,14 @@
 au
 17/03/24</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="78"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="49"/>
       <c r="M29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3206,7 +3217,7 @@
       </c>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="31.5">
+    <row r="30" spans="1:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f>A29+1</f>
         <v>22</v>
@@ -3225,24 +3236,24 @@
 au
 24/03/24</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="59">
         <f>E28+1</f>
         <v>12</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47" t="s">
+      <c r="I30" s="50"/>
+      <c r="J30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="K30" s="47"/>
+      <c r="K30" s="50"/>
       <c r="L30" s="10"/>
       <c r="M30" s="2" t="s">
         <v>120</v>
@@ -3258,7 +3269,7 @@
       </c>
       <c r="Q30" s="3"/>
     </row>
-